--- a/publication/analyses/outputs/rmse_z/gdpt_bin_r-z_rmse-z.xlsx
+++ b/publication/analyses/outputs/rmse_z/gdpt_bin_r-z_rmse-z.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z57"/>
+  <dimension ref="A1:Z64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,73 +562,73 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B2" t="n">
-        <v>53.2</v>
+        <v>20.14285714285714</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9420047671373993</v>
+        <v>0.8397928728269132</v>
       </c>
       <c r="D2" t="n">
         <v>-48.09999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>139.44417591386</v>
+        <v>113.5618726268878</v>
       </c>
       <c r="F2" t="n">
-        <v>-47.19600900669539</v>
+        <v>-47.00632793860171</v>
       </c>
       <c r="G2" t="n">
-        <v>-47.80828328593273</v>
+        <v>-47.80829537787529</v>
       </c>
       <c r="H2" t="n">
-        <v>0.612274279237341</v>
+        <v>0.8019674392735736</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7770020483565858</v>
+        <v>0.8300326343598969</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2851232238870102</v>
+        <v>0.3225809860580569</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.007901917075971578</v>
+        <v>0.3056894920493879</v>
       </c>
       <c r="L2" t="n">
-        <v>0.653015313817787</v>
+        <v>0.5684279384980195</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4235472115150301</v>
+        <v>0.06001517275231194</v>
       </c>
       <c r="N2" t="n">
-        <v>48.92</v>
+        <v>54.92857142857143</v>
       </c>
       <c r="O2" t="n">
-        <v>425.773571928999</v>
+        <v>471.0830016683654</v>
       </c>
       <c r="P2" t="n">
-        <v>398.1247862645235</v>
+        <v>418.3534733497116</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>-1.04372071246376</v>
+        <v>1.09266820440666</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.2202423857299255</v>
+        <v>0.4738249052279733</v>
       </c>
       <c r="T2" t="n">
-        <v>1.265006527540566</v>
+        <v>1.239515522189204</v>
       </c>
       <c r="U2" t="n">
-        <v>47.19600900669539</v>
+        <v>47.00632793860171</v>
       </c>
       <c r="V2" t="n">
-        <v>139.44417591386</v>
+        <v>113.5618726268878</v>
       </c>
       <c r="W2" t="n">
-        <v>1.061416948746428</v>
+        <v>0.9568648161900427</v>
       </c>
       <c r="X2" t="n">
         <v>150</v>
@@ -637,78 +637,78 @@
         <v>-48.1</v>
       </c>
       <c r="Z2" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="B3" t="n">
-        <v>167.4615384615385</v>
+        <v>74.58823529411765</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9602602566029723</v>
+        <v>0.8794125344001185</v>
       </c>
       <c r="D3" t="n">
         <v>-43.09999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>137.2763962371615</v>
+        <v>123.3240936223589</v>
       </c>
       <c r="F3" t="n">
-        <v>-43.28050363011108</v>
+        <v>-42.55264065148012</v>
       </c>
       <c r="G3" t="n">
-        <v>-43.14635805364573</v>
+        <v>-43.14635803198964</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.1341455764653585</v>
+        <v>0.5937173805095204</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5730456290110367</v>
+        <v>0.7558895663044517</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1318385295157316</v>
+        <v>0.2313982092208111</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.1368590662223535</v>
+        <v>0.2145340536019676</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7106657469816137</v>
+        <v>0.4861463108704414</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4799748085922533</v>
+        <v>-0.1261571313825665</v>
       </c>
       <c r="N3" t="n">
-        <v>56.96153846153846</v>
+        <v>52.64705882352941</v>
       </c>
       <c r="O3" t="n">
-        <v>434.9357542366396</v>
+        <v>453.5182562793627</v>
       </c>
       <c r="P3" t="n">
-        <v>374.5983299787705</v>
+        <v>433.3794534305226</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-1.236259697363108</v>
+        <v>1.008358871543722</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.223639883581825</v>
+        <v>0.4468113137927603</v>
       </c>
       <c r="T3" t="n">
-        <v>1.454539829692751</v>
+        <v>1.161517163103335</v>
       </c>
       <c r="U3" t="n">
-        <v>43.28050363011108</v>
+        <v>42.55264065148012</v>
       </c>
       <c r="V3" t="n">
-        <v>137.2763962371615</v>
+        <v>123.3240936223589</v>
       </c>
       <c r="W3" t="n">
-        <v>0.7758479005751908</v>
+        <v>0.911055108681486</v>
       </c>
       <c r="X3" t="n">
         <v>150</v>
@@ -717,78 +717,78 @@
         <v>-43.1</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="B4" t="n">
-        <v>296.0869565217391</v>
+        <v>151.047619047619</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9413150502213228</v>
+        <v>0.9310130139009926</v>
       </c>
       <c r="D4" t="n">
         <v>-38.09999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>160.478958559411</v>
+        <v>124.2399329950721</v>
       </c>
       <c r="F4" t="n">
-        <v>-38.01834893965952</v>
+        <v>-37.66694612192468</v>
       </c>
       <c r="G4" t="n">
-        <v>-37.68518844029698</v>
+        <v>-37.68518843851261</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.3331604993625447</v>
+        <v>0.01824231658792692</v>
       </c>
       <c r="I4" t="n">
-        <v>1.248616495338519</v>
+        <v>0.5057197028823266</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09137573606451695</v>
+        <v>0.05800375617923778</v>
       </c>
       <c r="K4" t="n">
-        <v>0.004156574290540823</v>
+        <v>0.176868825140811</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8102812054720014</v>
+        <v>0.3408840191736187</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1404243371044345</v>
+        <v>0.3085544157268557</v>
       </c>
       <c r="N4" t="n">
-        <v>58.95652173913044</v>
+        <v>47.38095238095238</v>
       </c>
       <c r="O4" t="n">
-        <v>444.0657860544113</v>
+        <v>413.880559049633</v>
       </c>
       <c r="P4" t="n">
-        <v>343.9022633886802</v>
+        <v>403.5175324473244</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>-1.402503212042111</v>
+        <v>0.7966239295038493</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.2732186926748875</v>
+        <v>0.3753181955943238</v>
       </c>
       <c r="T4" t="n">
-        <v>1.620247119176773</v>
+        <v>0.9295596613711358</v>
       </c>
       <c r="U4" t="n">
-        <v>38.01834893965952</v>
+        <v>37.66694612192468</v>
       </c>
       <c r="V4" t="n">
-        <v>160.478958559411</v>
+        <v>124.2399329950721</v>
       </c>
       <c r="W4" t="n">
-        <v>1.836635604470383</v>
+        <v>0.5855823483875809</v>
       </c>
       <c r="X4" t="n">
         <v>150</v>
@@ -797,78 +797,78 @@
         <v>-38.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="B5" t="n">
-        <v>416.4722222222222</v>
+        <v>243.0454545454545</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9543241708291847</v>
+        <v>0.9497228700352007</v>
       </c>
       <c r="D5" t="n">
         <v>-33.09999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>155.4528135385222</v>
+        <v>126.2113302152242</v>
       </c>
       <c r="F5" t="n">
-        <v>-33.22369307197718</v>
+        <v>-32.85498337644965</v>
       </c>
       <c r="G5" t="n">
-        <v>-32.98388033301514</v>
+        <v>-32.98388033521916</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.2398127389620458</v>
+        <v>0.1288969587695137</v>
       </c>
       <c r="I5" t="n">
-        <v>1.083676485595646</v>
+        <v>0.6116008392159509</v>
       </c>
       <c r="J5" t="n">
-        <v>0.117234709220517</v>
+        <v>0.07412652575742774</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.08660444733211867</v>
+        <v>0.1480942111826044</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8879623028170276</v>
+        <v>0.3426222055774552</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.01773663598870932</v>
+        <v>-0.0245356086904227</v>
       </c>
       <c r="N5" t="n">
-        <v>52.63888888888889</v>
+        <v>48.5</v>
       </c>
       <c r="O5" t="n">
-        <v>416.1713703951158</v>
+        <v>422.0659548383501</v>
       </c>
       <c r="P5" t="n">
-        <v>350.9067505932849</v>
+        <v>397.6822453768045</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>-1.511310037835644</v>
+        <v>0.828333158002177</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.5152312041832785</v>
+        <v>0.3540325277044525</v>
       </c>
       <c r="T5" t="n">
-        <v>1.898778393468774</v>
+        <v>0.9462026619495446</v>
       </c>
       <c r="U5" t="n">
-        <v>33.22369307197718</v>
+        <v>32.85498337644965</v>
       </c>
       <c r="V5" t="n">
-        <v>155.4528135385222</v>
+        <v>126.2113302152242</v>
       </c>
       <c r="W5" t="n">
-        <v>1.525816568209143</v>
+        <v>0.7111642276889193</v>
       </c>
       <c r="X5" t="n">
         <v>150</v>
@@ -877,78 +877,78 @@
         <v>-33.1</v>
       </c>
       <c r="Z5" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B6" t="n">
-        <v>582.1206896551724</v>
+        <v>343.9677419354838</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9639378346499328</v>
+        <v>0.9628152380141098</v>
       </c>
       <c r="D6" t="n">
         <v>-28.09999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>149.6565242912739</v>
+        <v>142.4522613718667</v>
       </c>
       <c r="F6" t="n">
-        <v>-29.19008682361353</v>
+        <v>-28.62083240429241</v>
       </c>
       <c r="G6" t="n">
-        <v>-28.40995576800576</v>
+        <v>-28.40995576350307</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.7801310556077666</v>
+        <v>-0.2108766407893408</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8908753758972715</v>
+        <v>0.3390246196904159</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.009347007675290403</v>
+        <v>0.05700993157783922</v>
       </c>
       <c r="K6" t="n">
-        <v>0.006847725672838962</v>
+        <v>0.06151127860112359</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6354639983736001</v>
+        <v>0.271934910646895</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.01962232683763225</v>
+        <v>0.1437665096398758</v>
       </c>
       <c r="N6" t="n">
-        <v>49.03448275862069</v>
+        <v>45.48387096774194</v>
       </c>
       <c r="O6" t="n">
-        <v>419.0686334874962</v>
+        <v>400.3954078144911</v>
       </c>
       <c r="P6" t="n">
-        <v>383.1390220284587</v>
+        <v>394.0830185124227</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-1.684259863945238</v>
+        <v>0.6440445116555582</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.5187061933515407</v>
+        <v>0.3341425457248434</v>
       </c>
       <c r="T6" t="n">
-        <v>1.929891728428187</v>
+        <v>0.7557727141735375</v>
       </c>
       <c r="U6" t="n">
-        <v>29.19008682361353</v>
+        <v>28.62083240429241</v>
       </c>
       <c r="V6" t="n">
-        <v>149.6565242912739</v>
+        <v>142.4522613718667</v>
       </c>
       <c r="W6" t="n">
-        <v>0.9673315928766115</v>
+        <v>0.3797860471216042</v>
       </c>
       <c r="X6" t="n">
         <v>150</v>
@@ -957,78 +957,78 @@
         <v>-28.1</v>
       </c>
       <c r="Z6" t="n">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B7" t="n">
-        <v>804.6166666666667</v>
+        <v>445.08</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9750944861672937</v>
+        <v>0.9747413373497673</v>
       </c>
       <c r="D7" t="n">
         <v>-23.09999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>148.0800678413079</v>
+        <v>145.6967559538732</v>
       </c>
       <c r="F7" t="n">
-        <v>-23.71050139122081</v>
+        <v>-23.09911244357193</v>
       </c>
       <c r="G7" t="n">
-        <v>-22.86769736418611</v>
+        <v>-22.86769729371632</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.8428040270347018</v>
+        <v>-0.2314151498556085</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8687900498525377</v>
+        <v>0.3876484017418055</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.007114325841411075</v>
+        <v>0.05010161357958851</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.008542815677117236</v>
+        <v>0.03275415245231897</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3332238780733788</v>
+        <v>0.1820910070215718</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.05584317422596546</v>
+        <v>0.07582459932667676</v>
       </c>
       <c r="N7" t="n">
-        <v>48.6</v>
+        <v>42.48</v>
       </c>
       <c r="O7" t="n">
-        <v>423.4248674192662</v>
+        <v>377.7741547944568</v>
       </c>
       <c r="P7" t="n">
-        <v>391.4068803329488</v>
+        <v>383.718277761795</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>-1.832041104883867</v>
+        <v>0.6085665295192587</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.8328728996261129</v>
+        <v>0.2653217342284893</v>
       </c>
       <c r="T7" t="n">
-        <v>2.027027216249507</v>
+        <v>0.6837185151779224</v>
       </c>
       <c r="U7" t="n">
-        <v>23.71050139122081</v>
+        <v>23.09911244357193</v>
       </c>
       <c r="V7" t="n">
-        <v>148.0800678413079</v>
+        <v>145.6967559538732</v>
       </c>
       <c r="W7" t="n">
-        <v>0.9616103931961368</v>
+        <v>0.4387971466836428</v>
       </c>
       <c r="X7" t="n">
         <v>150</v>
@@ -1037,78 +1037,78 @@
         <v>-23.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B8" t="n">
-        <v>1022.508771929825</v>
+        <v>544.8157894736842</v>
       </c>
       <c r="C8" t="n">
-        <v>0.980569832501109</v>
+        <v>0.9632528994391462</v>
       </c>
       <c r="D8" t="n">
         <v>-18.09999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>149.0794469846954</v>
+        <v>146.0929806360993</v>
       </c>
       <c r="F8" t="n">
-        <v>-19.16995966552485</v>
+        <v>-18.66684246464458</v>
       </c>
       <c r="G8" t="n">
-        <v>-18.20520396641349</v>
+        <v>-18.20520397000869</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.9647556991113551</v>
+        <v>-0.4616384946358916</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9647556991113551</v>
+        <v>0.5594740284256666</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.02796851914762967</v>
+        <v>-0.01426685504111073</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.01591524403465633</v>
+        <v>5.256683566525653e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2987321507956089</v>
+        <v>0.2042275878729816</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.004926690598895876</v>
+        <v>0.1684247406480293</v>
       </c>
       <c r="N8" t="n">
-        <v>49.05263157894737</v>
+        <v>47.6578947368421</v>
       </c>
       <c r="O8" t="n">
-        <v>427.4597750533354</v>
+        <v>417.3290062630848</v>
       </c>
       <c r="P8" t="n">
-        <v>395.8261234636227</v>
+        <v>377.9492532882085</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>-1.907299490198975</v>
+        <v>0.5563923571153528</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.9990117938390721</v>
+        <v>0.08208383284323274</v>
       </c>
       <c r="T8" t="n">
-        <v>2.16958293036635</v>
+        <v>0.5932069948451405</v>
       </c>
       <c r="U8" t="n">
-        <v>19.16995966552485</v>
+        <v>18.66684246464458</v>
       </c>
       <c r="V8" t="n">
-        <v>149.0794469846954</v>
+        <v>146.0929806360993</v>
       </c>
       <c r="W8" t="n">
-        <v>1.040362882307096</v>
+        <v>0.7162673030565403</v>
       </c>
       <c r="X8" t="n">
         <v>150</v>
@@ -1117,78 +1117,78 @@
         <v>-18.1</v>
       </c>
       <c r="Z8" t="n">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B9" t="n">
-        <v>1248.9</v>
+        <v>665.6388888888889</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9832282192442858</v>
+        <v>0.9571489529378431</v>
       </c>
       <c r="D9" t="n">
         <v>-13.09999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>148.2136740123005</v>
+        <v>142.6823158601125</v>
       </c>
       <c r="F9" t="n">
-        <v>-14.39091323711417</v>
+        <v>-14.29371136212124</v>
       </c>
       <c r="G9" t="n">
-        <v>-13.53538260579001</v>
+        <v>-13.53538203551962</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.8555306313241611</v>
+        <v>-0.7583293266016143</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8555306313241611</v>
+        <v>0.7759262188003736</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.07893643690911413</v>
+        <v>-0.006435892104501623</v>
       </c>
       <c r="K9" t="n">
-        <v>0.009631100682733994</v>
+        <v>0.009593290434805134</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2964987346805972</v>
+        <v>0.1576142343859162</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.1078586921189775</v>
+        <v>0.1346784918613992</v>
       </c>
       <c r="N9" t="n">
-        <v>48.6</v>
+        <v>48.41666666666666</v>
       </c>
       <c r="O9" t="n">
-        <v>423.4248674192662</v>
+        <v>424.0202974151994</v>
       </c>
       <c r="P9" t="n">
-        <v>391.4068803329488</v>
+        <v>364.7140369197257</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>-1.96111056092381</v>
+        <v>0.4863336600356105</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.9147430106636406</v>
+        <v>0.1802171202620034</v>
       </c>
       <c r="T9" t="n">
-        <v>2.18324638859347</v>
+        <v>0.5338967854882963</v>
       </c>
       <c r="U9" t="n">
-        <v>14.39091323711417</v>
+        <v>14.29371136212124</v>
       </c>
       <c r="V9" t="n">
-        <v>148.2136740123005</v>
+        <v>142.6823158601125</v>
       </c>
       <c r="W9" t="n">
-        <v>0.9424239509059961</v>
+        <v>1.218217422727478</v>
       </c>
       <c r="X9" t="n">
         <v>150</v>
@@ -1197,78 +1197,78 @@
         <v>-13.1</v>
       </c>
       <c r="Z9" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B10" t="n">
-        <v>1446.377777777778</v>
+        <v>797.6666666666666</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9821173067109837</v>
+        <v>0.9739898797602132</v>
       </c>
       <c r="D10" t="n">
         <v>-8.099999999999994</v>
       </c>
       <c r="E10" t="n">
-        <v>155.8863700510839</v>
+        <v>143.9253087667818</v>
       </c>
       <c r="F10" t="n">
-        <v>-8.792236766434847</v>
+        <v>-9.120716304781864</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.412366556792774</v>
+        <v>-8.412366102243347</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.3798702096420729</v>
+        <v>-0.7083502025385177</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7789439626880158</v>
+        <v>0.7573298702300415</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01254837844306976</v>
+        <v>-0.03866756597984806</v>
       </c>
       <c r="K10" t="n">
-        <v>0.06787775015526638</v>
+        <v>0.03895651735790623</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2550662005045986</v>
+        <v>0.1236216958935266</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.07282924901309283</v>
+        <v>0.03560483246774942</v>
       </c>
       <c r="N10" t="n">
-        <v>45.95555555555556</v>
+        <v>45.61538461538461</v>
       </c>
       <c r="O10" t="n">
-        <v>403.7910271488158</v>
+        <v>401.5920002583317</v>
       </c>
       <c r="P10" t="n">
-        <v>382.4689400932593</v>
+        <v>372.6745146418907</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>-1.898046122140272</v>
+        <v>0.3075761511303512</v>
       </c>
       <c r="S10" t="n">
-        <v>-1.011615816736332</v>
+        <v>0.08710692655530057</v>
       </c>
       <c r="T10" t="n">
-        <v>2.160769490456151</v>
+        <v>0.3351934096064119</v>
       </c>
       <c r="U10" t="n">
-        <v>8.792236766434847</v>
+        <v>9.120716304781864</v>
       </c>
       <c r="V10" t="n">
-        <v>155.8863700510839</v>
+        <v>143.9253087667818</v>
       </c>
       <c r="W10" t="n">
-        <v>0.9503100312811308</v>
+        <v>0.966951892094259</v>
       </c>
       <c r="X10" t="n">
         <v>150</v>
@@ -1277,78 +1277,78 @@
         <v>-8.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B11" t="n">
-        <v>1640.553846153846</v>
+        <v>920.7142857142857</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9452665181268857</v>
+        <v>0.9451246236656053</v>
       </c>
       <c r="D11" t="n">
         <v>-3.099999999999994</v>
       </c>
       <c r="E11" t="n">
-        <v>147.7003569229774</v>
+        <v>154.7435028591682</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.08558865085747</v>
+        <v>-5.343573974974126</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.162115879123986</v>
+        <v>-4.162115875665233</v>
       </c>
       <c r="H11" t="n">
-        <v>2.076527228266516</v>
+        <v>-1.181458099308893</v>
       </c>
       <c r="I11" t="n">
-        <v>2.923210709144541</v>
+        <v>1.182429375639952</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01058897554828185</v>
+        <v>-0.03325864267208597</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02998528553099067</v>
+        <v>0.08101462405800776</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3090035911411184</v>
+        <v>0.09953798020508456</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.323533931193004</v>
+        <v>-0.02528736962991467</v>
       </c>
       <c r="N11" t="n">
-        <v>49.92307692307692</v>
+        <v>47.07142857142857</v>
       </c>
       <c r="O11" t="n">
-        <v>412.0534787251691</v>
+        <v>410.5977955956079</v>
       </c>
       <c r="P11" t="n">
-        <v>384.4648191953224</v>
+        <v>382.502268023327</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>-1.891990848821564</v>
+        <v>0.06398612125743089</v>
       </c>
       <c r="S11" t="n">
-        <v>-1.07935060366094</v>
+        <v>0.07505166937995966</v>
       </c>
       <c r="T11" t="n">
-        <v>2.200808351560046</v>
+        <v>0.1015375585871199</v>
       </c>
       <c r="U11" t="n">
-        <v>2.08558865085747</v>
+        <v>5.343573974974126</v>
       </c>
       <c r="V11" t="n">
-        <v>147.7003569229774</v>
+        <v>154.7435028591682</v>
       </c>
       <c r="W11" t="n">
-        <v>3.102176079093694</v>
+        <v>1.825906569796587</v>
       </c>
       <c r="X11" t="n">
         <v>150</v>
@@ -1357,78 +1357,78 @@
         <v>-3.1</v>
       </c>
       <c r="Z11" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B12" t="n">
-        <v>1834.222222222222</v>
+        <v>1051.295454545455</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9445125153274264</v>
+        <v>0.9226054019917078</v>
       </c>
       <c r="D12" t="n">
         <v>1.900000000000006</v>
       </c>
       <c r="E12" t="n">
-        <v>143.6844127985758</v>
+        <v>143.843397243388</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6323155900581621</v>
+        <v>1.552411664130949</v>
       </c>
       <c r="G12" t="n">
         <v>1.5</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.132315590058162</v>
+        <v>0.05241166413094873</v>
       </c>
       <c r="I12" t="n">
-        <v>2.183111011219976</v>
+        <v>1.86057861889532</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.02749682200399188</v>
+        <v>-0.01591373337023521</v>
       </c>
       <c r="K12" t="n">
-        <v>0.05218934778216276</v>
+        <v>-0.05035684051814891</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2437786814989857</v>
+        <v>0.148690445099633</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1390903481384787</v>
+        <v>-0.2757037780773466</v>
       </c>
       <c r="N12" t="n">
-        <v>49.38888888888889</v>
+        <v>47.65909090909091</v>
       </c>
       <c r="O12" t="n">
-        <v>428.7151194744528</v>
+        <v>414.4404459889531</v>
       </c>
       <c r="P12" t="n">
-        <v>400.8308145412195</v>
+        <v>414.9610930818713</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>-1.940654398948601</v>
+        <v>-0.04365988435261608</v>
       </c>
       <c r="S12" t="n">
-        <v>-1.117352184787476</v>
+        <v>-0.09036075659993967</v>
       </c>
       <c r="T12" t="n">
-        <v>2.248816355665584</v>
+        <v>0.1194706490579684</v>
       </c>
       <c r="U12" t="n">
-        <v>0.6323155900581621</v>
+        <v>-1.552411664130949</v>
       </c>
       <c r="V12" t="n">
-        <v>143.6844127985758</v>
+        <v>143.843397243388</v>
       </c>
       <c r="W12" t="n">
-        <v>2.260290887536523</v>
+        <v>2.485243441391211</v>
       </c>
       <c r="X12" t="n">
         <v>150</v>
@@ -1437,78 +1437,78 @@
         <v>1.9</v>
       </c>
       <c r="Z12" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B13" t="n">
-        <v>1960.555555555556</v>
+        <v>1193</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9689828026514733</v>
+        <v>0.9408725619520174</v>
       </c>
       <c r="D13" t="n">
         <v>6.900000000000006</v>
       </c>
       <c r="E13" t="n">
-        <v>148.5324253274257</v>
+        <v>138.700000089292</v>
       </c>
       <c r="F13" t="n">
-        <v>4.605805927303605</v>
+        <v>7.069919947444666</v>
       </c>
       <c r="G13" t="n">
-        <v>6.883590418386335</v>
+        <v>6.883590571785827</v>
       </c>
       <c r="H13" t="n">
-        <v>-2.277784491082731</v>
+        <v>0.1863293756588388</v>
       </c>
       <c r="I13" t="n">
-        <v>2.277784491082731</v>
+        <v>0.376637912856207</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.09932564441206498</v>
+        <v>0.01327599485601901</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1137966004170544</v>
+        <v>0.03888633124864151</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2880019109466908</v>
+        <v>0.06852864295011241</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.4109983979622374</v>
+        <v>-0.8518828211593695</v>
       </c>
       <c r="N13" t="n">
-        <v>51</v>
+        <v>48.88888888888889</v>
       </c>
       <c r="O13" t="n">
-        <v>444.4078056164612</v>
+        <v>425.6155487031952</v>
       </c>
       <c r="P13" t="n">
-        <v>372.5264299759925</v>
+        <v>407.0702337377375</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-1.943223087827846</v>
+        <v>0.169262111770362</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.884289416419487</v>
+        <v>0.0604294561562921</v>
       </c>
       <c r="T13" t="n">
-        <v>2.155864441452001</v>
+        <v>0.1842228062300293</v>
       </c>
       <c r="U13" t="n">
-        <v>-4.605805927303605</v>
+        <v>-7.069919947444666</v>
       </c>
       <c r="V13" t="n">
-        <v>148.5324253274257</v>
+        <v>138.700000089292</v>
       </c>
       <c r="W13" t="n">
-        <v>2.325888424439223</v>
+        <v>0.5056284978306622</v>
       </c>
       <c r="X13" t="n">
         <v>150</v>
@@ -1517,3527 +1517,4087 @@
         <v>6.9</v>
       </c>
       <c r="Z13" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B14" t="n">
-        <v>2021.6</v>
+        <v>1316.333333333333</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9859626446510946</v>
+        <v>0.9651473521857061</v>
       </c>
       <c r="D14" t="n">
-        <v>16.90000000000001</v>
+        <v>11.90000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>120.8308473713893</v>
+        <v>143.6523179072681</v>
       </c>
       <c r="F14" t="n">
-        <v>15.38923714723294</v>
+        <v>12.10847141200103</v>
       </c>
       <c r="G14" t="n">
-        <v>17.00709991454513</v>
+        <v>12.29422759822129</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.617862767312193</v>
+        <v>-0.1857561862202534</v>
       </c>
       <c r="I14" t="n">
-        <v>1.617862767312193</v>
+        <v>0.3231224494185506</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1809105810663141</v>
+        <v>-0.02745837411404908</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.2277120042901515</v>
+        <v>0.05551560329243601</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3972480231174486</v>
+        <v>0.1784140720963533</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.7357651153672735</v>
+        <v>-0.7446202390312865</v>
       </c>
       <c r="N14" t="n">
-        <v>52.8</v>
+        <v>50.55555555555556</v>
       </c>
       <c r="O14" t="n">
-        <v>469.7832549858034</v>
+        <v>436.9730032520149</v>
       </c>
       <c r="P14" t="n">
-        <v>459.5090635371354</v>
+        <v>386.2859417342633</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>-1.430327417212277</v>
+        <v>0.2925257826335049</v>
       </c>
       <c r="S14" t="n">
-        <v>-1.459288094374949</v>
+        <v>0.06009606462137008</v>
       </c>
       <c r="T14" t="n">
-        <v>2.079850777440175</v>
+        <v>0.3241025414963999</v>
       </c>
       <c r="U14" t="n">
-        <v>-15.38923714723294</v>
+        <v>-12.10847141200103</v>
       </c>
       <c r="V14" t="n">
-        <v>120.8308473713893</v>
+        <v>143.6523179072681</v>
       </c>
       <c r="W14" t="n">
-        <v>1.669686459591619</v>
+        <v>0.5028788664528886</v>
       </c>
       <c r="X14" t="n">
         <v>150</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.9</v>
+        <v>11.9</v>
       </c>
       <c r="Z14" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="B15" t="n">
-        <v>2058.315789473684</v>
+        <v>1440.444444444444</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9862002009303797</v>
+        <v>0.9738241534521698</v>
       </c>
       <c r="D15" t="n">
-        <v>26.90000000000001</v>
+        <v>16.90000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>127.0682131098356</v>
+        <v>148.6601551664974</v>
       </c>
       <c r="F15" t="n">
-        <v>26.56101624555508</v>
+        <v>16.75031492679813</v>
       </c>
       <c r="G15" t="n">
-        <v>27.84517993602328</v>
+        <v>17.00708776609422</v>
       </c>
       <c r="H15" t="n">
-        <v>-1.284163690468199</v>
+        <v>-0.2567728392960828</v>
       </c>
       <c r="I15" t="n">
-        <v>1.284163690468199</v>
+        <v>0.3859214389856261</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.03788759746392818</v>
+        <v>-0.04432136010744852</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0688221920513899</v>
+        <v>0.04547967434125077</v>
       </c>
       <c r="L15" t="n">
-        <v>0.28347160587947</v>
+        <v>0.2474528505069631</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.07116656513874835</v>
+        <v>-0.8776721963121349</v>
       </c>
       <c r="N15" t="n">
-        <v>49.73684210526316</v>
+        <v>50.83333333333334</v>
       </c>
       <c r="O15" t="n">
-        <v>432.4886559713789</v>
+        <v>440.097389376104</v>
       </c>
       <c r="P15" t="n">
-        <v>379.048095117291</v>
+        <v>378.9241540729007</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>-1.648704921079051</v>
+        <v>0.3080484205212402</v>
       </c>
       <c r="S15" t="n">
-        <v>-1.09661600531326</v>
+        <v>0.03277376313057959</v>
       </c>
       <c r="T15" t="n">
-        <v>1.993790422946172</v>
+        <v>0.3686150738088012</v>
       </c>
       <c r="U15" t="n">
-        <v>-26.56101624555508</v>
+        <v>-16.75031492679813</v>
       </c>
       <c r="V15" t="n">
-        <v>127.0682131098356</v>
+        <v>148.6601551664974</v>
       </c>
       <c r="W15" t="n">
-        <v>1.40206357460174</v>
+        <v>0.5542076092949271</v>
       </c>
       <c r="X15" t="n">
         <v>150</v>
       </c>
       <c r="Y15" t="n">
-        <v>26.9</v>
+        <v>16.9</v>
       </c>
       <c r="Z15" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="B16" t="n">
-        <v>2136.288888888889</v>
+        <v>1568.615384615385</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9720080291621169</v>
+        <v>0.9690896543748568</v>
       </c>
       <c r="D16" t="n">
-        <v>31.90000000000001</v>
+        <v>21.90000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>145.1043927396902</v>
+        <v>150.8319662369358</v>
       </c>
       <c r="F16" t="n">
-        <v>31.12896682587354</v>
+        <v>21.71831543945255</v>
       </c>
       <c r="G16" t="n">
-        <v>32.6327596643745</v>
+        <v>22.14348712706708</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.503792838500959</v>
+        <v>-0.4251716876145322</v>
       </c>
       <c r="I16" t="n">
-        <v>1.503792838500959</v>
+        <v>0.5096929433058387</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.08726098769079725</v>
+        <v>-0.02335598090780877</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.1203094006944664</v>
+        <v>0.05588537496751437</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3395608531215946</v>
+        <v>0.3110301018785946</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.7269746954103187</v>
+        <v>-0.7419608979990161</v>
       </c>
       <c r="N16" t="n">
-        <v>46.93333333333333</v>
+        <v>48.84615384615385</v>
       </c>
       <c r="O16" t="n">
-        <v>410.7116187423642</v>
+        <v>425.375969381677</v>
       </c>
       <c r="P16" t="n">
-        <v>395.922128997467</v>
+        <v>378.1667791816751</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-1.566285264453632</v>
+        <v>0.3750235087677028</v>
       </c>
       <c r="S16" t="n">
-        <v>-1.21776999389475</v>
+        <v>0.04714775750360682</v>
       </c>
       <c r="T16" t="n">
-        <v>2.021394509488612</v>
+        <v>0.4485320732815442</v>
       </c>
       <c r="U16" t="n">
-        <v>-31.12896682587354</v>
+        <v>-21.71831543945255</v>
       </c>
       <c r="V16" t="n">
-        <v>145.1043927396902</v>
+        <v>150.8319662369358</v>
       </c>
       <c r="W16" t="n">
-        <v>1.608102140461956</v>
+        <v>0.7637787284818964</v>
       </c>
       <c r="X16" t="n">
         <v>150</v>
       </c>
       <c r="Y16" t="n">
-        <v>31.9</v>
+        <v>21.9</v>
       </c>
       <c r="Z16" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B17" t="n">
-        <v>2270.738095238095</v>
+        <v>1690.258064516129</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9698366404834876</v>
+        <v>0.9615426361362154</v>
       </c>
       <c r="D17" t="n">
-        <v>36.90000000000001</v>
+        <v>26.90000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>148.8034310544471</v>
+        <v>143.7883553135983</v>
       </c>
       <c r="F17" t="n">
-        <v>36.15118976573373</v>
+        <v>27.26310935198025</v>
       </c>
       <c r="G17" t="n">
-        <v>37.69292631543188</v>
+        <v>27.84518183438559</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.541736549698161</v>
+        <v>-0.5820724824053453</v>
       </c>
       <c r="I17" t="n">
-        <v>1.541736549698161</v>
+        <v>0.5931430694626536</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.08551981053062177</v>
+        <v>-0.0612974820203005</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.1784575516067683</v>
+        <v>0.04658691831678007</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4388212101824786</v>
+        <v>0.3259403728932894</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.9140135589258982</v>
+        <v>-0.8539970442702532</v>
       </c>
       <c r="N17" t="n">
-        <v>49.73809523809524</v>
+        <v>46.51612903225806</v>
       </c>
       <c r="O17" t="n">
-        <v>431.9469050448344</v>
+        <v>408.525732849495</v>
       </c>
       <c r="P17" t="n">
-        <v>384.4631760736928</v>
+        <v>407.5909829865636</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>-1.546481038794762</v>
+        <v>0.4521524961125969</v>
       </c>
       <c r="S17" t="n">
-        <v>-1.240636300289864</v>
+        <v>-0.02592483374277869</v>
       </c>
       <c r="T17" t="n">
-        <v>2.042660558701523</v>
+        <v>0.5305079722323011</v>
       </c>
       <c r="U17" t="n">
-        <v>-36.15118976573373</v>
+        <v>-27.26310935198025</v>
       </c>
       <c r="V17" t="n">
-        <v>148.8034310544471</v>
+        <v>143.7883553135983</v>
       </c>
       <c r="W17" t="n">
-        <v>1.640834186009581</v>
+        <v>0.8413749220801122</v>
       </c>
       <c r="X17" t="n">
         <v>150</v>
       </c>
       <c r="Y17" t="n">
-        <v>36.9</v>
+        <v>26.9</v>
       </c>
       <c r="Z17" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="B18" t="n">
-        <v>2421.767441860465</v>
+        <v>1797.068965517241</v>
       </c>
       <c r="C18" t="n">
-        <v>0.956249799370075</v>
+        <v>0.9530354761584539</v>
       </c>
       <c r="D18" t="n">
-        <v>41.90000000000001</v>
+        <v>31.90000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>149.2315091988515</v>
+        <v>135.3589678855317</v>
       </c>
       <c r="F18" t="n">
-        <v>40.80515876856878</v>
+        <v>32.32192115925783</v>
       </c>
       <c r="G18" t="n">
-        <v>42.4389663528382</v>
+        <v>32.63277172314477</v>
       </c>
       <c r="H18" t="n">
-        <v>-1.633807584269418</v>
+        <v>-0.3108505638869364</v>
       </c>
       <c r="I18" t="n">
-        <v>1.755321875681709</v>
+        <v>0.5025213871028297</v>
       </c>
       <c r="J18" t="n">
-        <v>0.04615451639736534</v>
+        <v>-0.1217561147731056</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.1324467621525103</v>
+        <v>0.05502678179629646</v>
       </c>
       <c r="L18" t="n">
-        <v>0.5535486110283501</v>
+        <v>0.3452062768185413</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.7179106075290247</v>
+        <v>-1.094454920585505</v>
       </c>
       <c r="N18" t="n">
-        <v>51.46511627906977</v>
+        <v>49.79310344827586</v>
       </c>
       <c r="O18" t="n">
-        <v>414.7095830162062</v>
+        <v>431.4751025342429</v>
       </c>
       <c r="P18" t="n">
-        <v>376.2305874704192</v>
+        <v>408.2393600809169</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>-1.45921506963598</v>
+        <v>0.4161041169187201</v>
       </c>
       <c r="S18" t="n">
-        <v>-1.306999726717861</v>
+        <v>-0.003721556350097313</v>
       </c>
       <c r="T18" t="n">
-        <v>2.079393484785871</v>
+        <v>0.516502052626401</v>
       </c>
       <c r="U18" t="n">
-        <v>-40.80515876856878</v>
+        <v>-32.32192115925783</v>
       </c>
       <c r="V18" t="n">
-        <v>149.2315091988515</v>
+        <v>135.3589678855317</v>
       </c>
       <c r="W18" t="n">
-        <v>1.908102833057161</v>
+        <v>0.6596647693064646</v>
       </c>
       <c r="X18" t="n">
         <v>150</v>
       </c>
       <c r="Y18" t="n">
-        <v>41.9</v>
+        <v>31.9</v>
       </c>
       <c r="Z18" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="B19" t="n">
-        <v>2562.5</v>
+        <v>1901.925925925926</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9363663796518744</v>
+        <v>0.9351090117935871</v>
       </c>
       <c r="D19" t="n">
-        <v>46.90000000000001</v>
+        <v>36.90000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>144.7303855828553</v>
+        <v>131.0870319424762</v>
       </c>
       <c r="F19" t="n">
-        <v>45.76595195431648</v>
+        <v>37.39367795182483</v>
       </c>
       <c r="G19" t="n">
-        <v>47.73906568297599</v>
+        <v>37.69291482618024</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.973113728659509</v>
+        <v>-0.2992368743554097</v>
       </c>
       <c r="I19" t="n">
-        <v>1.973113728659509</v>
+        <v>0.4966060383537101</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.009917822179005498</v>
+        <v>-0.1357966588410348</v>
       </c>
       <c r="K19" t="n">
-        <v>0.02496410166980927</v>
+        <v>0.04690980861997954</v>
       </c>
       <c r="L19" t="n">
-        <v>0.6971652619475043</v>
+        <v>0.4583556056195918</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.7667586471877299</v>
+        <v>-1.210430165702332</v>
       </c>
       <c r="N19" t="n">
-        <v>52.26190476190476</v>
+        <v>51.77777777777778</v>
       </c>
       <c r="O19" t="n">
-        <v>419.6863130286288</v>
+        <v>445.7856668942002</v>
       </c>
       <c r="P19" t="n">
-        <v>383.8329490549867</v>
+        <v>412.7282294612248</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>-1.333980458648557</v>
+        <v>0.4286820858039646</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.9223138715114588</v>
+        <v>-0.01650551997195433</v>
       </c>
       <c r="T19" t="n">
-        <v>1.847981908313816</v>
+        <v>0.6114415370924408</v>
       </c>
       <c r="U19" t="n">
-        <v>-45.76595195431648</v>
+        <v>-37.39367795182483</v>
       </c>
       <c r="V19" t="n">
-        <v>144.7303855828553</v>
+        <v>131.0870319424762</v>
       </c>
       <c r="W19" t="n">
-        <v>2.107569673451466</v>
+        <v>0.6656426851918714</v>
       </c>
       <c r="X19" t="n">
         <v>150</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.9</v>
+        <v>36.9</v>
       </c>
       <c r="Z19" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="B20" t="n">
-        <v>2702.125</v>
+        <v>1978.941176470588</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8928853962469548</v>
+        <v>0.9005114070514246</v>
       </c>
       <c r="D20" t="n">
-        <v>51.90000000000001</v>
+        <v>41.90000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>145.3494743757803</v>
+        <v>126.1224052466467</v>
       </c>
       <c r="F20" t="n">
-        <v>50.49389343256269</v>
+        <v>41.99007509157562</v>
       </c>
       <c r="G20" t="n">
-        <v>53.27214761449191</v>
+        <v>42.43896635786599</v>
       </c>
       <c r="H20" t="n">
-        <v>-2.778254181929225</v>
+        <v>-0.4488912662903773</v>
       </c>
       <c r="I20" t="n">
-        <v>2.778254181929225</v>
+        <v>0.4862541262588101</v>
       </c>
       <c r="J20" t="n">
-        <v>0.103774553105555</v>
+        <v>0.02839667582403769</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.02379195352767324</v>
+        <v>-0.08785030670031801</v>
       </c>
       <c r="L20" t="n">
-        <v>0.6245910722774776</v>
+        <v>0.3763885944287906</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.5909322717227005</v>
+        <v>-0.9725091284440014</v>
       </c>
       <c r="N20" t="n">
-        <v>50.70833333333334</v>
+        <v>50.23529411764706</v>
       </c>
       <c r="O20" t="n">
-        <v>412.3156947160438</v>
+        <v>436.1583602728876</v>
       </c>
       <c r="P20" t="n">
-        <v>391.882682757881</v>
+        <v>428.2962550169136</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>-1.003694454123896</v>
+        <v>0.5104159336178966</v>
       </c>
       <c r="S20" t="n">
-        <v>-1.078252931313445</v>
+        <v>-0.202342939848921</v>
       </c>
       <c r="T20" t="n">
-        <v>1.59741078955099</v>
+        <v>0.6549257812749021</v>
       </c>
       <c r="U20" t="n">
-        <v>-50.49389343256269</v>
+        <v>-41.99007509157562</v>
       </c>
       <c r="V20" t="n">
-        <v>145.3494743757803</v>
+        <v>126.1224052466467</v>
       </c>
       <c r="W20" t="n">
-        <v>2.884369342367685</v>
+        <v>0.6752167148696241</v>
       </c>
       <c r="X20" t="n">
         <v>150</v>
       </c>
       <c r="Y20" t="n">
-        <v>51.9</v>
+        <v>41.9</v>
       </c>
       <c r="Z20" t="n">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="B21" t="n">
-        <v>54.77551020408163</v>
+        <v>2034.933333333333</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9228952372752621</v>
+        <v>0.8592244437546158</v>
       </c>
       <c r="D21" t="n">
-        <v>-48.09999999999998</v>
+        <v>46.90000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>299.8631259399092</v>
+        <v>118.0782484415896</v>
       </c>
       <c r="F21" t="n">
-        <v>-46.73465053443579</v>
+        <v>47.09170987612102</v>
       </c>
       <c r="G21" t="n">
-        <v>-47.80828328593273</v>
+        <v>47.73905463312075</v>
       </c>
       <c r="H21" t="n">
-        <v>1.073632751496944</v>
+        <v>-0.6473447569997333</v>
       </c>
       <c r="I21" t="n">
-        <v>1.176550771442239</v>
+        <v>0.6856581995413937</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01103800018964161</v>
+        <v>-0.02555613080572433</v>
       </c>
       <c r="K21" t="n">
-        <v>0.02387080046110023</v>
+        <v>-0.1720418341380158</v>
       </c>
       <c r="L21" t="n">
-        <v>1.060134536265259</v>
+        <v>0.4632577802597684</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.1075301272060773</v>
+        <v>-0.6728642228887451</v>
       </c>
       <c r="N21" t="n">
-        <v>43.57142857142857</v>
+        <v>54</v>
       </c>
       <c r="O21" t="n">
-        <v>386.1375918666687</v>
+        <v>463.4185548610768</v>
       </c>
       <c r="P21" t="n">
-        <v>445.0007273904647</v>
+        <v>429.3959146067806</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>-1.337286061916875</v>
+        <v>0.5074124132840324</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.216537487683775</v>
+        <v>-0.001631018249205833</v>
       </c>
       <c r="T21" t="n">
-        <v>1.711316514236927</v>
+        <v>0.7277910573443104</v>
       </c>
       <c r="U21" t="n">
-        <v>46.73465053443579</v>
+        <v>-47.09170987612102</v>
       </c>
       <c r="V21" t="n">
-        <v>299.8631259399092</v>
+        <v>118.0782484415896</v>
       </c>
       <c r="W21" t="n">
-        <v>1.611656659440223</v>
+        <v>0.9497271107141589</v>
       </c>
       <c r="X21" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="Y21" t="n">
-        <v>-48.1</v>
+        <v>46.9</v>
       </c>
       <c r="Z21" t="n">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B22" t="n">
-        <v>180.7142857142857</v>
+        <v>2080</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9304981238925226</v>
+        <v>0.7890805906317779</v>
       </c>
       <c r="D22" t="n">
-        <v>-43.09999999999998</v>
+        <v>51.90000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>292.3622795108685</v>
+        <v>122.9473899823183</v>
       </c>
       <c r="F22" t="n">
-        <v>-42.61188078750241</v>
+        <v>52.60695573895696</v>
       </c>
       <c r="G22" t="n">
-        <v>-43.14635805364573</v>
+        <v>53.27214888613017</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5344772661433198</v>
+        <v>-0.6651931471732085</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9456025479086181</v>
+        <v>1.089584723534875</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.08969140952899586</v>
+        <v>0.0197806590848728</v>
       </c>
       <c r="K22" t="n">
-        <v>0.28556899194035</v>
+        <v>-0.03995292088611772</v>
       </c>
       <c r="L22" t="n">
-        <v>1.047251823349727</v>
+        <v>0.5211534927391831</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.1582383068656498</v>
+        <v>-0.8300447363980314</v>
       </c>
       <c r="N22" t="n">
-        <v>40.46938775510204</v>
+        <v>54</v>
       </c>
       <c r="O22" t="n">
-        <v>360.2689148322407</v>
+        <v>460.7590782453042</v>
       </c>
       <c r="P22" t="n">
-        <v>445.4165039767316</v>
+        <v>452.6358027235391</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>-1.494028298158629</v>
+        <v>0.4445322953890288</v>
       </c>
       <c r="S22" t="n">
-        <v>0.1742011727250437</v>
+        <v>-0.0409273235970223</v>
       </c>
       <c r="T22" t="n">
-        <v>1.844385743152118</v>
+        <v>0.7043375399181374</v>
       </c>
       <c r="U22" t="n">
-        <v>42.61188078750241</v>
+        <v>-52.60695573895696</v>
       </c>
       <c r="V22" t="n">
-        <v>292.3622795108685</v>
+        <v>122.9473899823183</v>
       </c>
       <c r="W22" t="n">
-        <v>1.492370786593093</v>
+        <v>1.224022632214425</v>
       </c>
       <c r="X22" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="Y22" t="n">
-        <v>-43.1</v>
+        <v>51.9</v>
       </c>
       <c r="Z22" t="n">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>299.3055555555555</v>
+        <v>19.5</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9303283197764282</v>
+        <v>0.7661845347146086</v>
       </c>
       <c r="D23" t="n">
-        <v>-38.09999999999999</v>
+        <v>-48.09999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>298.8242291346991</v>
+        <v>282.1314449933956</v>
       </c>
       <c r="F23" t="n">
-        <v>-37.85455561520756</v>
+        <v>-46.93492602677847</v>
       </c>
       <c r="G23" t="n">
-        <v>-37.68518844029698</v>
+        <v>-47.80829537787529</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.1693671749105853</v>
+        <v>0.8733693510968212</v>
       </c>
       <c r="I23" t="n">
-        <v>1.509679691132584</v>
+        <v>0.8733693510968212</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.1725547382080307</v>
+        <v>0.01406027532284071</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0648520190958172</v>
+        <v>-0.0001093917469543991</v>
       </c>
       <c r="L23" t="n">
-        <v>1.118513369789503</v>
+        <v>0.7607337369178023</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.02540960138126182</v>
+        <v>0.01398890069808741</v>
       </c>
       <c r="N23" t="n">
-        <v>41.75</v>
+        <v>42.75</v>
       </c>
       <c r="O23" t="n">
-        <v>368.9854482447313</v>
+        <v>383.5230409785858</v>
       </c>
       <c r="P23" t="n">
-        <v>370.284528756433</v>
+        <v>342.5039570769786</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-1.691033241249629</v>
+        <v>0.8335922109507384</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.2518343220802279</v>
+        <v>0.1213515601994585</v>
       </c>
       <c r="T23" t="n">
-        <v>2.06056410252249</v>
+        <v>1.08993518724949</v>
       </c>
       <c r="U23" t="n">
-        <v>37.85455561520756</v>
+        <v>46.93492602677847</v>
       </c>
       <c r="V23" t="n">
-        <v>298.8242291346991</v>
+        <v>282.1314449933956</v>
       </c>
       <c r="W23" t="n">
-        <v>1.860413006659556</v>
+        <v>0.9860733637119339</v>
       </c>
       <c r="X23" t="n">
         <v>300</v>
       </c>
       <c r="Y23" t="n">
-        <v>-38.1</v>
+        <v>-48.1</v>
       </c>
       <c r="Z23" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>418.6909090909091</v>
+        <v>75.25</v>
       </c>
       <c r="C24" t="n">
-        <v>0.950477050062987</v>
+        <v>0.8535879855864831</v>
       </c>
       <c r="D24" t="n">
-        <v>-33.09999999999999</v>
+        <v>-43.09999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>302.4011410270368</v>
+        <v>276.3076809622183</v>
       </c>
       <c r="F24" t="n">
-        <v>-33.52478970567915</v>
+        <v>-42.75086028348603</v>
       </c>
       <c r="G24" t="n">
-        <v>-32.98388033301514</v>
+        <v>-43.14635803198964</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.5409093726640086</v>
+        <v>0.395497748503605</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9776639975455709</v>
+        <v>0.7357969760037886</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.1184637718492124</v>
+        <v>0.07369002078171789</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1955541110378552</v>
+        <v>0.1317401207247606</v>
       </c>
       <c r="L24" t="n">
-        <v>0.5610670436385189</v>
+        <v>0.6966394434899739</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.004257427502740363</v>
+        <v>0.2254614840409676</v>
       </c>
       <c r="N24" t="n">
-        <v>46.29090909090909</v>
+        <v>47.55</v>
       </c>
       <c r="O24" t="n">
-        <v>409.228879633466</v>
+        <v>421.349410532301</v>
       </c>
       <c r="P24" t="n">
-        <v>472.3265978978496</v>
+        <v>335.5565708926748</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>-1.759721840275459</v>
+        <v>0.8814727003296831</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.2401622483072099</v>
+        <v>0.3499405856205954</v>
       </c>
       <c r="T24" t="n">
-        <v>1.846499892116088</v>
+        <v>1.172789787814781</v>
       </c>
       <c r="U24" t="n">
-        <v>33.52478970567915</v>
+        <v>42.75086028348603</v>
       </c>
       <c r="V24" t="n">
-        <v>302.4011410270368</v>
+        <v>276.3076809622183</v>
       </c>
       <c r="W24" t="n">
-        <v>1.223668218235021</v>
+        <v>0.8795863771689213</v>
       </c>
       <c r="X24" t="n">
         <v>300</v>
       </c>
       <c r="Y24" t="n">
-        <v>-33.1</v>
+        <v>-43.1</v>
       </c>
       <c r="Z24" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>591.6</v>
+        <v>147.3076923076923</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9625272630342819</v>
+        <v>0.9079684488252067</v>
       </c>
       <c r="D25" t="n">
-        <v>-28.09999999999999</v>
+        <v>-38.09999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>302.2904615605069</v>
+        <v>298.2011648812079</v>
       </c>
       <c r="F25" t="n">
-        <v>-29.39208890513263</v>
+        <v>-37.14850087581814</v>
       </c>
       <c r="G25" t="n">
-        <v>-28.40995576800576</v>
+        <v>-37.68518843851261</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.9821331371268792</v>
+        <v>0.5366875626944748</v>
       </c>
       <c r="I25" t="n">
-        <v>1.173534525190751</v>
+        <v>0.6458276658084444</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.1000948824310121</v>
+        <v>0.1946852346182356</v>
       </c>
       <c r="K25" t="n">
-        <v>0.04758978465829462</v>
+        <v>-0.04108592485771163</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4242162909964307</v>
+        <v>0.7938894404577861</v>
       </c>
       <c r="M25" t="n">
-        <v>0.03855680660612274</v>
+        <v>-0.08695446070375576</v>
       </c>
       <c r="N25" t="n">
-        <v>47.74117647058824</v>
+        <v>38.46153846153846</v>
       </c>
       <c r="O25" t="n">
-        <v>422.6636073720289</v>
+        <v>350.1256694771715</v>
       </c>
       <c r="P25" t="n">
-        <v>452.017583831074</v>
+        <v>368.3649141611769</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>-1.795385133342082</v>
+        <v>0.9658707075528985</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.4764701043542244</v>
+        <v>0.1150440707684924</v>
       </c>
       <c r="T25" t="n">
-        <v>1.926281145000283</v>
+        <v>1.251322957121235</v>
       </c>
       <c r="U25" t="n">
-        <v>29.39208890513263</v>
+        <v>37.14850087581814</v>
       </c>
       <c r="V25" t="n">
-        <v>302.2904615605069</v>
+        <v>298.2011648812079</v>
       </c>
       <c r="W25" t="n">
-        <v>1.366738620301469</v>
+        <v>0.8484004186463651</v>
       </c>
       <c r="X25" t="n">
         <v>300</v>
       </c>
       <c r="Y25" t="n">
-        <v>-28.1</v>
+        <v>-38.1</v>
       </c>
       <c r="Z25" t="n">
-        <v>85</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>817.5192307692307</v>
+        <v>241.2</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9624294129688257</v>
+        <v>0.9276390572919178</v>
       </c>
       <c r="D26" t="n">
-        <v>-23.09999999999999</v>
+        <v>-33.09999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>303.985405487632</v>
+        <v>300.1946893991096</v>
       </c>
       <c r="F26" t="n">
-        <v>-23.76918057151787</v>
+        <v>-32.90966007515731</v>
       </c>
       <c r="G26" t="n">
-        <v>-22.86769736418611</v>
+        <v>-32.98388033521916</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.9014832073317613</v>
+        <v>0.074220260061848</v>
       </c>
       <c r="I26" t="n">
-        <v>1.208870680785945</v>
+        <v>0.7081083733908951</v>
       </c>
       <c r="J26" t="n">
-        <v>0.02505415357737056</v>
+        <v>0.1105583463860622</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.07716879991558376</v>
+        <v>-0.04622808247790322</v>
       </c>
       <c r="L26" t="n">
-        <v>0.4072626119571697</v>
+        <v>0.609168361650643</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.1035855332955302</v>
+        <v>0.187192851658365</v>
       </c>
       <c r="N26" t="n">
-        <v>47.75</v>
+        <v>36.475</v>
       </c>
       <c r="O26" t="n">
-        <v>422.6394238779046</v>
+        <v>334.422713831226</v>
       </c>
       <c r="P26" t="n">
-        <v>432.2747750611616</v>
+        <v>432.5346327697069</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>-1.811395578091789</v>
+        <v>0.8418409471043535</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.9014352618935798</v>
+        <v>0.1066912497492595</v>
       </c>
       <c r="T26" t="n">
-        <v>2.078649046831291</v>
+        <v>1.112719115185421</v>
       </c>
       <c r="U26" t="n">
-        <v>23.76918057151787</v>
+        <v>32.90966007515731</v>
       </c>
       <c r="V26" t="n">
-        <v>303.985405487632</v>
+        <v>300.1946893991096</v>
       </c>
       <c r="W26" t="n">
-        <v>1.349108927198247</v>
+        <v>0.9488223740826859</v>
       </c>
       <c r="X26" t="n">
         <v>300</v>
       </c>
       <c r="Y26" t="n">
-        <v>-23.1</v>
+        <v>-33.1</v>
       </c>
       <c r="Z26" t="n">
-        <v>104</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1042.918181818182</v>
+        <v>342.2105263157895</v>
       </c>
       <c r="C27" t="n">
-        <v>0.968557494226885</v>
+        <v>0.9489061134660826</v>
       </c>
       <c r="D27" t="n">
-        <v>-18.09999999999999</v>
+        <v>-28.09999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>305.3585185460998</v>
+        <v>298.9996153512935</v>
       </c>
       <c r="F27" t="n">
-        <v>-19.18688868205944</v>
+        <v>-28.40271110263805</v>
       </c>
       <c r="G27" t="n">
-        <v>-18.20520396641349</v>
+        <v>-28.40995576350307</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.9816847156459474</v>
+        <v>0.007244660865015309</v>
       </c>
       <c r="I27" t="n">
-        <v>1.12292312770073</v>
+        <v>0.4641428508264369</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.02477892429672515</v>
+        <v>-0.02283912608334386</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.08020104121975968</v>
+        <v>0.03468214697681155</v>
       </c>
       <c r="L27" t="n">
-        <v>0.2768880591301914</v>
+        <v>0.6284210013180891</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.07578330776195469</v>
+        <v>-0.01415158154565441</v>
       </c>
       <c r="N27" t="n">
-        <v>49.22727272727273</v>
+        <v>37.05263157894737</v>
       </c>
       <c r="O27" t="n">
-        <v>434.276206686615</v>
+        <v>338.0385164787582</v>
       </c>
       <c r="P27" t="n">
-        <v>419.3266304143066</v>
+        <v>423.323367058115</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>-1.905955077760214</v>
+        <v>0.5515004042288755</v>
       </c>
       <c r="S27" t="n">
-        <v>-1.062736827063408</v>
+        <v>0.278141601156607</v>
       </c>
       <c r="T27" t="n">
-        <v>2.189598641841068</v>
+        <v>0.9857028846286122</v>
       </c>
       <c r="U27" t="n">
-        <v>19.18688868205944</v>
+        <v>28.40271110263805</v>
       </c>
       <c r="V27" t="n">
-        <v>305.3585185460998</v>
+        <v>298.9996153512935</v>
       </c>
       <c r="W27" t="n">
-        <v>1.308427152449434</v>
+        <v>0.6302981204492113</v>
       </c>
       <c r="X27" t="n">
         <v>300</v>
       </c>
       <c r="Y27" t="n">
-        <v>-18.1</v>
+        <v>-28.1</v>
       </c>
       <c r="Z27" t="n">
-        <v>110</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1259.040816326531</v>
+        <v>441.225</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9650440606911472</v>
+        <v>0.949074619145802</v>
       </c>
       <c r="D28" t="n">
-        <v>-13.09999999999999</v>
+        <v>-23.09999999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>300.9310220139467</v>
+        <v>293.2939718175722</v>
       </c>
       <c r="F28" t="n">
-        <v>-14.46988682317114</v>
+        <v>-23.09168212559143</v>
       </c>
       <c r="G28" t="n">
-        <v>-13.53538260579001</v>
+        <v>-22.86769729371632</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.934504217381127</v>
+        <v>-0.2239848318751142</v>
       </c>
       <c r="I28" t="n">
-        <v>1.170782350175595</v>
+        <v>0.5081624941812977</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.00975281810303826</v>
+        <v>-0.05053953512833616</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.1164975536585731</v>
+        <v>0.1155893576373316</v>
       </c>
       <c r="L28" t="n">
-        <v>0.3194717074328983</v>
+        <v>0.5417267918296392</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.0666304961902611</v>
+        <v>0.08669261625152347</v>
       </c>
       <c r="N28" t="n">
-        <v>48.61224489795919</v>
+        <v>36.6</v>
       </c>
       <c r="O28" t="n">
-        <v>429.0293501590097</v>
+        <v>332.870201276381</v>
       </c>
       <c r="P28" t="n">
-        <v>399.6120129789133</v>
+        <v>422.7707685994352</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>-1.891781227033543</v>
+        <v>0.498910054128147</v>
       </c>
       <c r="S28" t="n">
-        <v>-1.040184042032414</v>
+        <v>0.3378963984199519</v>
       </c>
       <c r="T28" t="n">
-        <v>2.179217656180883</v>
+        <v>0.8533613029407852</v>
       </c>
       <c r="U28" t="n">
-        <v>14.46988682317114</v>
+        <v>23.09168212559143</v>
       </c>
       <c r="V28" t="n">
-        <v>300.9310220139467</v>
+        <v>293.2939718175722</v>
       </c>
       <c r="W28" t="n">
-        <v>1.373048882132129</v>
+        <v>0.706942731365851</v>
       </c>
       <c r="X28" t="n">
         <v>300</v>
       </c>
       <c r="Y28" t="n">
-        <v>-13.1</v>
+        <v>-23.1</v>
       </c>
       <c r="Z28" t="n">
-        <v>98</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1451.511904761905</v>
+        <v>546.7674418604652</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9543074505018361</v>
+        <v>0.9553883796681775</v>
       </c>
       <c r="D29" t="n">
-        <v>-8.099999999999994</v>
+        <v>-18.09999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>296.9366035232122</v>
+        <v>286.899631130323</v>
       </c>
       <c r="F29" t="n">
-        <v>-9.164406601045725</v>
+        <v>-18.47344808111286</v>
       </c>
       <c r="G29" t="n">
-        <v>-8.412366556792774</v>
+        <v>-18.20520397000869</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.7520400442529512</v>
+        <v>-0.2682441111041754</v>
       </c>
       <c r="I29" t="n">
-        <v>1.496512039158139</v>
+        <v>0.4853222574629803</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.02563960692251992</v>
+        <v>-0.05419809655860675</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.05890013728257228</v>
+        <v>0.0310098466270247</v>
       </c>
       <c r="L29" t="n">
-        <v>0.3382428530733017</v>
+        <v>0.2847661434357741</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.08549575678578569</v>
+        <v>-0.09982036546787479</v>
       </c>
       <c r="N29" t="n">
-        <v>48.60714285714285</v>
+        <v>48.16279069767442</v>
       </c>
       <c r="O29" t="n">
-        <v>426.2306952011154</v>
+        <v>424.8353806712893</v>
       </c>
       <c r="P29" t="n">
-        <v>443.8056181250648</v>
+        <v>394.5779218103202</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-1.947150692519581</v>
+        <v>0.5123648013616946</v>
       </c>
       <c r="S29" t="n">
-        <v>-1.133157384420922</v>
+        <v>0.1155455964083619</v>
       </c>
       <c r="T29" t="n">
-        <v>2.276214623446605</v>
+        <v>0.5621696834128613</v>
       </c>
       <c r="U29" t="n">
-        <v>9.164406601045725</v>
+        <v>18.47344808111286</v>
       </c>
       <c r="V29" t="n">
-        <v>296.9366035232122</v>
+        <v>286.899631130323</v>
       </c>
       <c r="W29" t="n">
-        <v>1.694629017135963</v>
+        <v>0.6043444335663912</v>
       </c>
       <c r="X29" t="n">
         <v>300</v>
       </c>
       <c r="Y29" t="n">
-        <v>-8.1</v>
+        <v>-18.1</v>
       </c>
       <c r="Z29" t="n">
-        <v>84</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1638.546511627907</v>
+        <v>664.9215686274509</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9564880174318237</v>
+        <v>0.9493759064329254</v>
       </c>
       <c r="D30" t="n">
-        <v>-3.099999999999994</v>
+        <v>-13.09999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>299.3799661220074</v>
+        <v>296.0679455699948</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.498809664659949</v>
+        <v>-13.99640114551173</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.162115879123986</v>
+        <v>-13.53538203551962</v>
       </c>
       <c r="H30" t="n">
-        <v>1.663306214464037</v>
+        <v>-0.4610191099921063</v>
       </c>
       <c r="I30" t="n">
-        <v>2.627411294904998</v>
+        <v>0.7396908341745632</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.01782628522947604</v>
+        <v>-0.04355263520130179</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.05834232374308811</v>
+        <v>-0.004874720896188925</v>
       </c>
       <c r="L30" t="n">
-        <v>0.2685680193616499</v>
+        <v>0.2716815468823627</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.04595448772541894</v>
+        <v>-0.2553837022578804</v>
       </c>
       <c r="N30" t="n">
-        <v>47.15116279069768</v>
+        <v>46.68627450980392</v>
       </c>
       <c r="O30" t="n">
-        <v>417.3033995726702</v>
+        <v>418.1353121085322</v>
       </c>
       <c r="P30" t="n">
-        <v>425.9221257006641</v>
+        <v>391.6647890806487</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>-1.920189444999988</v>
+        <v>0.4444082589316546</v>
       </c>
       <c r="S30" t="n">
-        <v>-1.167916284423051</v>
+        <v>0.1648036753223833</v>
       </c>
       <c r="T30" t="n">
-        <v>2.256357955829004</v>
+        <v>0.5154972514551087</v>
       </c>
       <c r="U30" t="n">
-        <v>2.498809664659949</v>
+        <v>13.99640114551173</v>
       </c>
       <c r="V30" t="n">
-        <v>299.3799661220074</v>
+        <v>296.0679455699948</v>
       </c>
       <c r="W30" t="n">
-        <v>2.950905444323427</v>
+        <v>0.9069690279274712</v>
       </c>
       <c r="X30" t="n">
         <v>300</v>
       </c>
       <c r="Y30" t="n">
-        <v>-3.1</v>
+        <v>-13.1</v>
       </c>
       <c r="Z30" t="n">
-        <v>86</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1839</v>
+        <v>793.7407407407408</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9333836685576792</v>
+        <v>0.9468502567924035</v>
       </c>
       <c r="D31" t="n">
-        <v>1.900000000000006</v>
+        <v>-8.099999999999994</v>
       </c>
       <c r="E31" t="n">
-        <v>301.0907479275377</v>
+        <v>299.0674833084265</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.3023488337894036</v>
+        <v>-8.969402357860417</v>
       </c>
       <c r="G31" t="n">
-        <v>1.5</v>
+        <v>-8.412366102243347</v>
       </c>
       <c r="H31" t="n">
-        <v>-1.802348833789404</v>
+        <v>-0.5570362556170703</v>
       </c>
       <c r="I31" t="n">
-        <v>2.131563249496</v>
+        <v>1.32795776257963</v>
       </c>
       <c r="J31" t="n">
-        <v>0.005162550647612684</v>
+        <v>-0.02426535936635359</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.04575706193409055</v>
+        <v>0.01361998942139454</v>
       </c>
       <c r="L31" t="n">
-        <v>0.3272770587932464</v>
+        <v>0.1875675630026245</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.12792680144699</v>
+        <v>0.03133360191809485</v>
       </c>
       <c r="N31" t="n">
-        <v>47.15151515151515</v>
+        <v>40.98148148148148</v>
       </c>
       <c r="O31" t="n">
-        <v>418.7562870514806</v>
+        <v>370.9591725229259</v>
       </c>
       <c r="P31" t="n">
-        <v>451.0035965564265</v>
+        <v>352.0627523053457</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>-1.911708887908173</v>
+        <v>0.3190808207449586</v>
       </c>
       <c r="S31" t="n">
-        <v>-1.215995973590795</v>
+        <v>0.06543075238103946</v>
       </c>
       <c r="T31" t="n">
-        <v>2.275659769878143</v>
+        <v>0.3539828807317915</v>
       </c>
       <c r="U31" t="n">
-        <v>0.3023488337894036</v>
+        <v>8.969402357860417</v>
       </c>
       <c r="V31" t="n">
-        <v>301.0907479275377</v>
+        <v>299.0674833084265</v>
       </c>
       <c r="W31" t="n">
-        <v>2.325003987375899</v>
+        <v>1.454443747176531</v>
       </c>
       <c r="X31" t="n">
         <v>300</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.9</v>
+        <v>-8.1</v>
       </c>
       <c r="Z31" t="n">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1954.903225806452</v>
+        <v>921.9811320754717</v>
       </c>
       <c r="C32" t="n">
-        <v>0.939841235152748</v>
+        <v>0.9081439927118949</v>
       </c>
       <c r="D32" t="n">
-        <v>6.900000000000006</v>
+        <v>-3.099999999999994</v>
       </c>
       <c r="E32" t="n">
-        <v>321.3895134489188</v>
+        <v>304.5940113473088</v>
       </c>
       <c r="F32" t="n">
-        <v>3.650105834513076</v>
+        <v>-5.19150477040694</v>
       </c>
       <c r="G32" t="n">
-        <v>6.883590418386335</v>
+        <v>-4.162115875665233</v>
       </c>
       <c r="H32" t="n">
-        <v>-3.233484583873259</v>
+        <v>-1.029388894741707</v>
       </c>
       <c r="I32" t="n">
-        <v>3.233484583873259</v>
+        <v>1.885635930579379</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.01710593395561073</v>
+        <v>0.0177449096651358</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.08516158614724802</v>
+        <v>-0.03016782712087088</v>
       </c>
       <c r="L32" t="n">
-        <v>0.2579296407606758</v>
+        <v>0.1773502490312857</v>
       </c>
       <c r="M32" t="n">
-        <v>0.2204457469404016</v>
+        <v>-0.01705806397181001</v>
       </c>
       <c r="N32" t="n">
-        <v>42.87096774193548</v>
+        <v>44.9622641509434</v>
       </c>
       <c r="O32" t="n">
-        <v>376.7334903823454</v>
+        <v>399.08081935308</v>
       </c>
       <c r="P32" t="n">
-        <v>389.6061925183755</v>
+        <v>356.079710200969</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-1.869024933406189</v>
+        <v>0.1098679288877828</v>
       </c>
       <c r="S32" t="n">
-        <v>-1.112112945719888</v>
+        <v>-0.03375108131760453</v>
       </c>
       <c r="T32" t="n">
-        <v>2.186394076699064</v>
+        <v>0.1952380765860118</v>
       </c>
       <c r="U32" t="n">
-        <v>-3.650105834513076</v>
+        <v>5.19150477040694</v>
       </c>
       <c r="V32" t="n">
-        <v>321.3895134489188</v>
+        <v>304.5940113473088</v>
       </c>
       <c r="W32" t="n">
-        <v>3.385503565526048</v>
+        <v>2.027256804342052</v>
       </c>
       <c r="X32" t="n">
         <v>300</v>
       </c>
       <c r="Y32" t="n">
-        <v>6.9</v>
+        <v>-3.1</v>
       </c>
       <c r="Z32" t="n">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1990.7</v>
+        <v>1058.923076923077</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8840060148184982</v>
+        <v>0.8977507613657285</v>
       </c>
       <c r="D33" t="n">
-        <v>11.90000000000001</v>
+        <v>1.900000000000006</v>
       </c>
       <c r="E33" t="n">
-        <v>320.6308088290701</v>
+        <v>305.8083465088318</v>
       </c>
       <c r="F33" t="n">
-        <v>9.802587427059773</v>
+        <v>1.216664894270348</v>
       </c>
       <c r="G33" t="n">
-        <v>12.29422759640145</v>
+        <v>1.5</v>
       </c>
       <c r="H33" t="n">
-        <v>-2.491640169341675</v>
+        <v>-0.2833351057296525</v>
       </c>
       <c r="I33" t="n">
-        <v>2.491640169341675</v>
+        <v>1.945993436116028</v>
       </c>
       <c r="J33" t="n">
-        <v>0.01654298331235111</v>
+        <v>-0.01052766526342123</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.01902060594585323</v>
+        <v>0.01417473813894603</v>
       </c>
       <c r="L33" t="n">
-        <v>0.2344668490253003</v>
+        <v>0.1399696692677925</v>
       </c>
       <c r="M33" t="n">
-        <v>0.1466695738116879</v>
+        <v>0.08507693578381945</v>
       </c>
       <c r="N33" t="n">
-        <v>58.1</v>
+        <v>52.58461538461538</v>
       </c>
       <c r="O33" t="n">
-        <v>511.725024136957</v>
+        <v>458.4163654712992</v>
       </c>
       <c r="P33" t="n">
-        <v>355.1540264635208</v>
+        <v>409.7530380384541</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>-1.78371300416845</v>
+        <v>-0.03930535340831075</v>
       </c>
       <c r="S33" t="n">
-        <v>-1.226656698815169</v>
+        <v>-0.02660219911471011</v>
       </c>
       <c r="T33" t="n">
-        <v>2.17090177786728</v>
+        <v>0.1079635552875494</v>
       </c>
       <c r="U33" t="n">
-        <v>-9.802587427059773</v>
+        <v>-1.216664894270348</v>
       </c>
       <c r="V33" t="n">
-        <v>320.6308088290701</v>
+        <v>305.8083465088318</v>
       </c>
       <c r="W33" t="n">
-        <v>2.56900590515632</v>
+        <v>2.577994716381523</v>
       </c>
       <c r="X33" t="n">
         <v>300</v>
       </c>
       <c r="Y33" t="n">
-        <v>11.9</v>
+        <v>1.9</v>
       </c>
       <c r="Z33" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2022.652173913043</v>
+        <v>1192.883720930233</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8895383805873511</v>
+        <v>0.9355236779027178</v>
       </c>
       <c r="D34" t="n">
-        <v>16.90000000000001</v>
+        <v>6.900000000000007</v>
       </c>
       <c r="E34" t="n">
-        <v>319.1020770889223</v>
+        <v>302.5910329652459</v>
       </c>
       <c r="F34" t="n">
-        <v>14.84323574843133</v>
+        <v>6.244122084371743</v>
       </c>
       <c r="G34" t="n">
-        <v>17.00709991454513</v>
+        <v>6.883590571785826</v>
       </c>
       <c r="H34" t="n">
-        <v>-2.163864166113804</v>
+        <v>-0.639468487414084</v>
       </c>
       <c r="I34" t="n">
-        <v>2.163864166113804</v>
+        <v>1.011898009778455</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.04953157581791816</v>
+        <v>0.009403499615222757</v>
       </c>
       <c r="K34" t="n">
-        <v>0.08587821705545876</v>
+        <v>0.01256595322673762</v>
       </c>
       <c r="L34" t="n">
-        <v>0.3031581991454724</v>
+        <v>0.1207428172995502</v>
       </c>
       <c r="M34" t="n">
-        <v>0.08510691884184604</v>
+        <v>-0.1228551001567104</v>
       </c>
       <c r="N34" t="n">
-        <v>51.78260869565217</v>
+        <v>49.51162790697674</v>
       </c>
       <c r="O34" t="n">
-        <v>459.5550044855514</v>
+        <v>434.1105539761728</v>
       </c>
       <c r="P34" t="n">
-        <v>239.5413320668142</v>
+        <v>465.3857679336951</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>-1.686569546043027</v>
+        <v>0.1556281757671475</v>
       </c>
       <c r="S34" t="n">
-        <v>-1.142097894033655</v>
+        <v>0.03487571234590803</v>
       </c>
       <c r="T34" t="n">
-        <v>2.049029298766869</v>
+        <v>0.1858153722866048</v>
       </c>
       <c r="U34" t="n">
-        <v>-14.84323574843133</v>
+        <v>-6.244122084371743</v>
       </c>
       <c r="V34" t="n">
-        <v>319.1020770889223</v>
+        <v>302.5910329652459</v>
       </c>
       <c r="W34" t="n">
-        <v>2.276757923401348</v>
+        <v>1.211684147385178</v>
       </c>
       <c r="X34" t="n">
         <v>300</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.9</v>
+        <v>6.9</v>
       </c>
       <c r="Z34" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2061.333333333333</v>
+        <v>1317.279069767442</v>
       </c>
       <c r="C35" t="n">
-        <v>0.960854303280463</v>
+        <v>0.9527262416950629</v>
       </c>
       <c r="D35" t="n">
-        <v>26.90000000000001</v>
+        <v>11.90000000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>243.6736931398528</v>
+        <v>292.5742904425684</v>
       </c>
       <c r="F35" t="n">
-        <v>26.19917764032048</v>
+        <v>11.2186492177342</v>
       </c>
       <c r="G35" t="n">
-        <v>27.84517993602328</v>
+        <v>12.29422759822129</v>
       </c>
       <c r="H35" t="n">
-        <v>-1.646002295702797</v>
+        <v>-1.075578380487085</v>
       </c>
       <c r="I35" t="n">
-        <v>1.646002295702797</v>
+        <v>1.148679662808801</v>
       </c>
       <c r="J35" t="n">
-        <v>0.07016382168083152</v>
+        <v>-0.03725475564515179</v>
       </c>
       <c r="K35" t="n">
-        <v>0.2634835520863277</v>
+        <v>-0.1034055981068148</v>
       </c>
       <c r="L35" t="n">
-        <v>0.6050972423411357</v>
+        <v>0.3332399627546235</v>
       </c>
       <c r="M35" t="n">
-        <v>0.1164938081596087</v>
+        <v>-0.1035427912389268</v>
       </c>
       <c r="N35" t="n">
-        <v>32</v>
+        <v>50.41860465116279</v>
       </c>
       <c r="O35" t="n">
-        <v>290.1538822500429</v>
+        <v>444.0018500265356</v>
       </c>
       <c r="P35" t="n">
-        <v>268.0648014851861</v>
+        <v>487.7869299950198</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>-1.596521728123794</v>
+        <v>0.2910329803064436</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.7343023699871907</v>
+        <v>-0.09866540053998794</v>
       </c>
       <c r="T35" t="n">
-        <v>1.852410390137241</v>
+        <v>0.4059653456073719</v>
       </c>
       <c r="U35" t="n">
-        <v>-26.19917764032048</v>
+        <v>-11.2186492177342</v>
       </c>
       <c r="V35" t="n">
-        <v>243.6736931398528</v>
+        <v>292.5742904425684</v>
       </c>
       <c r="W35" t="n">
-        <v>1.703940934374409</v>
+        <v>1.386658128930158</v>
       </c>
       <c r="X35" t="n">
         <v>300</v>
       </c>
       <c r="Y35" t="n">
-        <v>26.9</v>
+        <v>11.9</v>
       </c>
       <c r="Z35" t="n">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2141.383333333333</v>
+        <v>1444.813953488372</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9662263712524483</v>
+        <v>0.9527149112159979</v>
       </c>
       <c r="D36" t="n">
-        <v>31.90000000000001</v>
+        <v>16.90000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>293.7806631466954</v>
+        <v>288.4255843386599</v>
       </c>
       <c r="F36" t="n">
-        <v>30.00942814345624</v>
+        <v>15.62953659777376</v>
       </c>
       <c r="G36" t="n">
-        <v>32.6327596643745</v>
+        <v>17.00708776609422</v>
       </c>
       <c r="H36" t="n">
-        <v>-2.623331520918259</v>
+        <v>-1.377551168320455</v>
       </c>
       <c r="I36" t="n">
-        <v>2.623331520918259</v>
+        <v>1.377551168320455</v>
       </c>
       <c r="J36" t="n">
-        <v>0.05222707679507863</v>
+        <v>-0.1025755788339138</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0760043419828425</v>
+        <v>-0.1157248382516527</v>
       </c>
       <c r="L36" t="n">
-        <v>0.3905116039469834</v>
+        <v>0.450000490258778</v>
       </c>
       <c r="M36" t="n">
-        <v>0.2003770868512927</v>
+        <v>0.07076718716044904</v>
       </c>
       <c r="N36" t="n">
-        <v>45.91666666666666</v>
+        <v>54.95348837209303</v>
       </c>
       <c r="O36" t="n">
-        <v>407.6816842892874</v>
+        <v>480.2069215105572</v>
       </c>
       <c r="P36" t="n">
-        <v>481.3339902297756</v>
+        <v>475.7687720805976</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>-1.435111562623199</v>
+        <v>0.26767112467333</v>
       </c>
       <c r="S36" t="n">
-        <v>-1.0213707221939</v>
+        <v>-0.1359639309308747</v>
       </c>
       <c r="T36" t="n">
-        <v>1.802711098594291</v>
+        <v>0.4879366626607542</v>
       </c>
       <c r="U36" t="n">
-        <v>-30.00942814345624</v>
+        <v>-15.62953659777376</v>
       </c>
       <c r="V36" t="n">
-        <v>293.7806631466954</v>
+        <v>288.4255843386599</v>
       </c>
       <c r="W36" t="n">
-        <v>2.778971890510647</v>
+        <v>1.624975935756974</v>
       </c>
       <c r="X36" t="n">
         <v>300</v>
       </c>
       <c r="Y36" t="n">
-        <v>31.9</v>
+        <v>16.9</v>
       </c>
       <c r="Z36" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2281.073529411765</v>
+        <v>1568.583333333333</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9527700557671857</v>
+        <v>0.9503535877265681</v>
       </c>
       <c r="D37" t="n">
-        <v>36.90000000000001</v>
+        <v>21.90000000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>301.5682123779292</v>
+        <v>293.151781139854</v>
       </c>
       <c r="F37" t="n">
-        <v>34.68015811168704</v>
+        <v>20.76684606580588</v>
       </c>
       <c r="G37" t="n">
-        <v>37.69292631543188</v>
+        <v>22.14348712706708</v>
       </c>
       <c r="H37" t="n">
-        <v>-3.012768203744844</v>
+        <v>-1.376641061261203</v>
       </c>
       <c r="I37" t="n">
-        <v>3.012768203744844</v>
+        <v>1.408813378158523</v>
       </c>
       <c r="J37" t="n">
-        <v>0.07305823798934528</v>
+        <v>-0.1203408981326168</v>
       </c>
       <c r="K37" t="n">
-        <v>0.08578237141354055</v>
+        <v>-0.07116604215197211</v>
       </c>
       <c r="L37" t="n">
-        <v>0.5743994219471551</v>
+        <v>0.6137743576566039</v>
       </c>
       <c r="M37" t="n">
-        <v>0.316716768374787</v>
+        <v>-0.01246444287572768</v>
       </c>
       <c r="N37" t="n">
-        <v>48.29411764705883</v>
+        <v>46.625</v>
       </c>
       <c r="O37" t="n">
-        <v>427.0866136057028</v>
+        <v>415.8068415640925</v>
       </c>
       <c r="P37" t="n">
-        <v>478.5105615519578</v>
+        <v>467.1689600265138</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>-1.385172032374381</v>
+        <v>0.3083977669446044</v>
       </c>
       <c r="S37" t="n">
-        <v>-0.9752852010942936</v>
+        <v>-0.076357461458857</v>
       </c>
       <c r="T37" t="n">
-        <v>1.817764885522524</v>
+        <v>0.6752261130395673</v>
       </c>
       <c r="U37" t="n">
-        <v>-34.68015811168704</v>
+        <v>-20.76684606580588</v>
       </c>
       <c r="V37" t="n">
-        <v>301.5682123779292</v>
+        <v>293.151781139854</v>
       </c>
       <c r="W37" t="n">
-        <v>3.197207782441939</v>
+        <v>1.634192719054521</v>
       </c>
       <c r="X37" t="n">
         <v>300</v>
       </c>
       <c r="Y37" t="n">
-        <v>36.9</v>
+        <v>21.9</v>
       </c>
       <c r="Z37" t="n">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2423.359375</v>
+        <v>1686.552631578947</v>
       </c>
       <c r="C38" t="n">
-        <v>0.937363526005478</v>
+        <v>0.9483156601486928</v>
       </c>
       <c r="D38" t="n">
-        <v>41.90000000000001</v>
+        <v>26.90000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>290.1313954238893</v>
+        <v>300.5650223176493</v>
       </c>
       <c r="F38" t="n">
-        <v>39.71638471862867</v>
+        <v>26.17143705403848</v>
       </c>
       <c r="G38" t="n">
-        <v>42.4389663528382</v>
+        <v>27.84518183438559</v>
       </c>
       <c r="H38" t="n">
-        <v>-2.722581634209537</v>
+        <v>-1.67374478034711</v>
       </c>
       <c r="I38" t="n">
-        <v>3.004199259455492</v>
+        <v>1.67374478034711</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.06387657180631168</v>
+        <v>-0.006769004259628126</v>
       </c>
       <c r="K38" t="n">
-        <v>0.1774641716136325</v>
+        <v>-0.1721295364545341</v>
       </c>
       <c r="L38" t="n">
-        <v>0.6436684327692715</v>
+        <v>0.5138919054152095</v>
       </c>
       <c r="M38" t="n">
-        <v>0.006029774925989675</v>
+        <v>-0.0943843541556562</v>
       </c>
       <c r="N38" t="n">
-        <v>47.21875</v>
+        <v>39.55263157894737</v>
       </c>
       <c r="O38" t="n">
-        <v>416.249632220435</v>
+        <v>357.0126822721837</v>
       </c>
       <c r="P38" t="n">
-        <v>480.6722051830153</v>
+        <v>519.8110140930625</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-1.562722581198622</v>
+        <v>0.5514938120900865</v>
       </c>
       <c r="S38" t="n">
-        <v>-0.9966045750547095</v>
+        <v>-0.2245882282826867</v>
       </c>
       <c r="T38" t="n">
-        <v>1.967062945686488</v>
+        <v>0.7448168214579457</v>
       </c>
       <c r="U38" t="n">
-        <v>-39.71638471862867</v>
+        <v>-26.17143705403848</v>
       </c>
       <c r="V38" t="n">
-        <v>290.1313954238893</v>
+        <v>300.5650223176493</v>
       </c>
       <c r="W38" t="n">
-        <v>3.213010450293764</v>
+        <v>1.851302961682066</v>
       </c>
       <c r="X38" t="n">
         <v>300</v>
       </c>
       <c r="Y38" t="n">
-        <v>41.9</v>
+        <v>26.9</v>
       </c>
       <c r="Z38" t="n">
-        <v>64</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2568.298245614035</v>
+        <v>1794.384615384615</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9325919095553951</v>
+        <v>0.9380470900412639</v>
       </c>
       <c r="D39" t="n">
-        <v>46.90000000000001</v>
+        <v>31.90000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>288.2565470529282</v>
+        <v>300.5142412075955</v>
       </c>
       <c r="F39" t="n">
-        <v>44.56564055945482</v>
+        <v>30.80740197042355</v>
       </c>
       <c r="G39" t="n">
-        <v>47.73906568297599</v>
+        <v>32.63277172314477</v>
       </c>
       <c r="H39" t="n">
-        <v>-3.173425123521171</v>
+        <v>-1.825369752721217</v>
       </c>
       <c r="I39" t="n">
-        <v>3.19525872409787</v>
+        <v>1.825369752721217</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.06387064225818898</v>
+        <v>-0.0125915641896775</v>
       </c>
       <c r="K39" t="n">
-        <v>0.1074347401920637</v>
+        <v>-0.2134241735108457</v>
       </c>
       <c r="L39" t="n">
-        <v>0.8125679695341766</v>
+        <v>0.5721731890189843</v>
       </c>
       <c r="M39" t="n">
-        <v>0.2362004979527129</v>
+        <v>0.0006858726195234038</v>
       </c>
       <c r="N39" t="n">
-        <v>45.24561403508772</v>
+        <v>40.38461538461539</v>
       </c>
       <c r="O39" t="n">
-        <v>399.3284724372846</v>
+        <v>363.2709159183945</v>
       </c>
       <c r="P39" t="n">
-        <v>463.5498242951854</v>
+        <v>523.1704283500733</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>-1.378107773113228</v>
+        <v>0.5660324452524339</v>
       </c>
       <c r="S39" t="n">
-        <v>-0.8372221684985641</v>
+        <v>-0.2447215198971333</v>
       </c>
       <c r="T39" t="n">
-        <v>1.89077612943039</v>
+        <v>0.8060913291126601</v>
       </c>
       <c r="U39" t="n">
-        <v>-44.56564055945482</v>
+        <v>-30.80740197042355</v>
       </c>
       <c r="V39" t="n">
-        <v>288.2565470529282</v>
+        <v>300.5142412075955</v>
       </c>
       <c r="W39" t="n">
-        <v>3.389731465717563</v>
+        <v>2.007911523171417</v>
       </c>
       <c r="X39" t="n">
         <v>300</v>
       </c>
       <c r="Y39" t="n">
-        <v>46.9</v>
+        <v>31.9</v>
       </c>
       <c r="Z39" t="n">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2703.95</v>
+        <v>1898.487804878049</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8554412099423322</v>
+        <v>0.9189182794122248</v>
       </c>
       <c r="D40" t="n">
-        <v>51.90000000000001</v>
+        <v>36.90000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>290.1140100117756</v>
+        <v>298.8507481288515</v>
       </c>
       <c r="F40" t="n">
-        <v>49.83678924760413</v>
+        <v>35.67442551955508</v>
       </c>
       <c r="G40" t="n">
-        <v>53.27214761449191</v>
+        <v>37.69291482618024</v>
       </c>
       <c r="H40" t="n">
-        <v>-3.435358366887772</v>
+        <v>-2.018489306625162</v>
       </c>
       <c r="I40" t="n">
-        <v>3.435358366887772</v>
+        <v>2.068600290664688</v>
       </c>
       <c r="J40" t="n">
-        <v>0.08732518001758889</v>
+        <v>0.02680878100041737</v>
       </c>
       <c r="K40" t="n">
-        <v>0.07961290399370523</v>
+        <v>-0.1869827998360498</v>
       </c>
       <c r="L40" t="n">
-        <v>1.04622764485506</v>
+        <v>0.6426056288924948</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.09452345272882094</v>
+        <v>0.0565259691094327</v>
       </c>
       <c r="N40" t="n">
-        <v>51.08333333333334</v>
+        <v>40.80487804878049</v>
       </c>
       <c r="O40" t="n">
-        <v>449.4779119565276</v>
+        <v>367.0674363317122</v>
       </c>
       <c r="P40" t="n">
-        <v>487.9033722646072</v>
+        <v>505.1261737171808</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>-1.212879667015011</v>
+        <v>0.6347085706380932</v>
       </c>
       <c r="S40" t="n">
-        <v>-0.9481302606759828</v>
+        <v>-0.2099268627427013</v>
       </c>
       <c r="T40" t="n">
-        <v>1.889671318274059</v>
+        <v>0.890230563603741</v>
       </c>
       <c r="U40" t="n">
-        <v>-49.83678924760413</v>
+        <v>-35.67442551955508</v>
       </c>
       <c r="V40" t="n">
-        <v>290.1140100117756</v>
+        <v>298.8507481288515</v>
       </c>
       <c r="W40" t="n">
-        <v>3.562218084213916</v>
+        <v>2.321540578281697</v>
       </c>
       <c r="X40" t="n">
         <v>300</v>
       </c>
       <c r="Y40" t="n">
-        <v>51.9</v>
+        <v>36.9</v>
       </c>
       <c r="Z40" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>69.23529411764706</v>
+        <v>1979.730769230769</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9169835664442988</v>
+        <v>0.883429012057851</v>
       </c>
       <c r="D41" t="n">
-        <v>-48.09999999999999</v>
+        <v>41.90000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>423.9034918766989</v>
+        <v>291.3194430395552</v>
       </c>
       <c r="F41" t="n">
-        <v>-46.30450804793517</v>
+        <v>40.85819166407721</v>
       </c>
       <c r="G41" t="n">
-        <v>-47.80828328593273</v>
+        <v>42.43896635786599</v>
       </c>
       <c r="H41" t="n">
-        <v>1.503775237997558</v>
+        <v>-1.580774693788783</v>
       </c>
       <c r="I41" t="n">
-        <v>1.503775237997558</v>
+        <v>1.678228513169285</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.45111427096881</v>
+        <v>0.0324031463219934</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.05718360562892647</v>
+        <v>-0.1232018424056934</v>
       </c>
       <c r="L41" t="n">
-        <v>1.068102665920652</v>
+        <v>0.8182623247192701</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.3129237679280717</v>
+        <v>0.02128508329137909</v>
       </c>
       <c r="N41" t="n">
-        <v>18.58823529411765</v>
+        <v>40.92307692307692</v>
       </c>
       <c r="O41" t="n">
-        <v>184.8270226589291</v>
+        <v>369.5605022499809</v>
       </c>
       <c r="P41" t="n">
-        <v>380.605716886792</v>
+        <v>423.7475681700275</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-1.771028275581135</v>
+        <v>0.5137335569928303</v>
       </c>
       <c r="S41" t="n">
-        <v>-0.3613322448847306</v>
+        <v>-0.2162515783171961</v>
       </c>
       <c r="T41" t="n">
-        <v>2.034368779382819</v>
+        <v>0.9555308409445102</v>
       </c>
       <c r="U41" t="n">
-        <v>46.30450804793517</v>
+        <v>-40.85819166407721</v>
       </c>
       <c r="V41" t="n">
-        <v>423.9034918766989</v>
+        <v>291.3194430395552</v>
       </c>
       <c r="W41" t="n">
-        <v>1.888099110162154</v>
+        <v>2.060396815544262</v>
       </c>
       <c r="X41" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="Y41" t="n">
-        <v>-48.1</v>
+        <v>41.9</v>
       </c>
       <c r="Z41" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>183.2666666666667</v>
+        <v>2033.583333333333</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9478553324598914</v>
+        <v>0.7776895449703635</v>
       </c>
       <c r="D42" t="n">
-        <v>-43.09999999999999</v>
+        <v>46.90000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>418.1107098902114</v>
+        <v>283.2742781834235</v>
       </c>
       <c r="F42" t="n">
-        <v>-42.32749300275122</v>
+        <v>46.42742413481114</v>
       </c>
       <c r="G42" t="n">
-        <v>-43.14635805364573</v>
+        <v>47.73905463312075</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8188650508945083</v>
+        <v>-1.31163049830961</v>
       </c>
       <c r="I42" t="n">
-        <v>1.05357163628142</v>
+        <v>1.528584776107246</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.7021802863918741</v>
+        <v>0.2635233740733511</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.5477255113882459</v>
+        <v>0.04227960928274752</v>
       </c>
       <c r="L42" t="n">
-        <v>1.254854574456538</v>
+        <v>0.8758934498876307</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.1116247402780264</v>
+        <v>-0.117203181035673</v>
       </c>
       <c r="N42" t="n">
-        <v>24.73333333333333</v>
+        <v>42.75</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8520185746183</v>
+        <v>383.5230409785858</v>
       </c>
       <c r="P42" t="n">
-        <v>269.2351523031862</v>
+        <v>342.5039570769786</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>-2.02831484810758</v>
+        <v>0.7633314318623666</v>
       </c>
       <c r="S42" t="n">
-        <v>-0.7066441732555508</v>
+        <v>0.2430748848638373</v>
       </c>
       <c r="T42" t="n">
-        <v>2.328360796557079</v>
+        <v>1.126876633827281</v>
       </c>
       <c r="U42" t="n">
-        <v>42.32749300275122</v>
+        <v>-46.42742413481114</v>
       </c>
       <c r="V42" t="n">
-        <v>418.1107098902114</v>
+        <v>283.2742781834235</v>
       </c>
       <c r="W42" t="n">
-        <v>1.156341407759018</v>
+        <v>1.718553414569798</v>
       </c>
       <c r="X42" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="Y42" t="n">
-        <v>-43.1</v>
+        <v>46.9</v>
       </c>
       <c r="Z42" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>306.0666666666667</v>
+        <v>2079</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9121375614948415</v>
+        <v>0.7031832275281843</v>
       </c>
       <c r="D43" t="n">
-        <v>-38.09999999999999</v>
+        <v>51.90000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>402.4206033553338</v>
+        <v>282.9246741793632</v>
       </c>
       <c r="F43" t="n">
-        <v>-36.86583598166332</v>
+        <v>51.75890279397108</v>
       </c>
       <c r="G43" t="n">
-        <v>-37.68518844029698</v>
+        <v>53.27214888613017</v>
       </c>
       <c r="H43" t="n">
-        <v>0.8193524586336522</v>
+        <v>-1.513246092159086</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9971026415795786</v>
+        <v>1.529046336092734</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.4604752285741071</v>
+        <v>0.2646636184300135</v>
       </c>
       <c r="K43" t="n">
-        <v>0.00718991996919461</v>
+        <v>-0.03026098604568267</v>
       </c>
       <c r="L43" t="n">
-        <v>0.9298950516105399</v>
+        <v>0.8152690024956569</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.7344182874371658</v>
+        <v>-0.004057520287044962</v>
       </c>
       <c r="N43" t="n">
-        <v>48.73333333333333</v>
+        <v>42.75</v>
       </c>
       <c r="O43" t="n">
-        <v>437.4793591143638</v>
+        <v>383.5230409785858</v>
       </c>
       <c r="P43" t="n">
-        <v>219.8598837213637</v>
+        <v>342.5039570769786</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>-1.855328783839642</v>
+        <v>0.6355797231657215</v>
       </c>
       <c r="S43" t="n">
-        <v>-0.2890128754601705</v>
+        <v>0.006481491709875997</v>
       </c>
       <c r="T43" t="n">
-        <v>2.036448835021173</v>
+        <v>0.9499968716010971</v>
       </c>
       <c r="U43" t="n">
-        <v>36.86583598166332</v>
+        <v>-51.75890279397108</v>
       </c>
       <c r="V43" t="n">
-        <v>402.4206033553338</v>
+        <v>282.9246741793632</v>
       </c>
       <c r="W43" t="n">
-        <v>1.347703493114998</v>
+        <v>1.773384659827751</v>
       </c>
       <c r="X43" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="Y43" t="n">
-        <v>-38.1</v>
+        <v>51.9</v>
       </c>
       <c r="Z43" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>419.2</v>
+        <v>17.1</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9402688902742937</v>
+        <v>0.7606696416384813</v>
       </c>
       <c r="D44" t="n">
-        <v>-33.09999999999999</v>
+        <v>-48.09999999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>401.8706011247426</v>
+        <v>425.4673813586569</v>
       </c>
       <c r="F44" t="n">
-        <v>-32.93694272623664</v>
+        <v>-46.71182169024863</v>
       </c>
       <c r="G44" t="n">
-        <v>-32.98388033301514</v>
+        <v>-47.80829537787529</v>
       </c>
       <c r="H44" t="n">
-        <v>0.04693760677848804</v>
+        <v>1.096473687626659</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9484391753186587</v>
+        <v>1.248842287271116</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1147528959882901</v>
+        <v>-0.4684857108686303</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.3818858001561729</v>
+        <v>-0.427834018772596</v>
       </c>
       <c r="L44" t="n">
-        <v>1.106527932950543</v>
+        <v>0.8942129503594758</v>
       </c>
       <c r="M44" t="n">
-        <v>0.04363387041220025</v>
+        <v>-0.1008079226909359</v>
       </c>
       <c r="N44" t="n">
-        <v>57.7</v>
+        <v>25</v>
       </c>
       <c r="O44" t="n">
-        <v>514.5173517521903</v>
+        <v>235.17183687228</v>
       </c>
       <c r="P44" t="n">
-        <v>179.9570780041714</v>
+        <v>148.7973667707985</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>-1.486832831604274</v>
+        <v>0.4671080919943272</v>
       </c>
       <c r="S44" t="n">
-        <v>-0.7904280971041693</v>
+        <v>-0.4154020660415604</v>
       </c>
       <c r="T44" t="n">
-        <v>2.081362075240716</v>
+        <v>1.062809356236053</v>
       </c>
       <c r="U44" t="n">
-        <v>32.93694272623664</v>
+        <v>46.71182169024863</v>
       </c>
       <c r="V44" t="n">
-        <v>401.8706011247426</v>
+        <v>425.4673813586569</v>
       </c>
       <c r="W44" t="n">
-        <v>1.215513859990311</v>
+        <v>1.342006155033635</v>
       </c>
       <c r="X44" t="n">
         <v>450</v>
       </c>
       <c r="Y44" t="n">
-        <v>-33.1</v>
+        <v>-48.1</v>
       </c>
       <c r="Z44" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B45" t="n">
-        <v>590.7857142857143</v>
+        <v>70.76923076923077</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9634817911319528</v>
+        <v>0.8234723396515439</v>
       </c>
       <c r="D45" t="n">
-        <v>-28.09999999999999</v>
+        <v>-43.09999999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>425.4471132814423</v>
+        <v>436.7319302564247</v>
       </c>
       <c r="F45" t="n">
-        <v>-28.99447302491702</v>
+        <v>-42.04142556603469</v>
       </c>
       <c r="G45" t="n">
-        <v>-28.40995576800576</v>
+        <v>-43.14635803198964</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.5845172569112664</v>
+        <v>1.104932465954947</v>
       </c>
       <c r="I45" t="n">
-        <v>0.7565459327423477</v>
+        <v>1.157612425568189</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.06652219900971952</v>
+        <v>-0.4159669209531343</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.338380276863366</v>
+        <v>-0.4832216404406614</v>
       </c>
       <c r="L45" t="n">
-        <v>0.7583102890654905</v>
+        <v>1.019201271183552</v>
       </c>
       <c r="M45" t="n">
-        <v>0.1267838325289442</v>
+        <v>-0.1818891113319755</v>
       </c>
       <c r="N45" t="n">
-        <v>40.11904761904762</v>
+        <v>26.53846153846154</v>
       </c>
       <c r="O45" t="n">
-        <v>363.8332806271878</v>
+        <v>247.9712142267866</v>
       </c>
       <c r="P45" t="n">
-        <v>235.1665390575377</v>
+        <v>174.6259662169604</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>-1.698748305996853</v>
+        <v>0.4432537710125863</v>
       </c>
       <c r="S45" t="n">
-        <v>-0.8825697444763799</v>
+        <v>-0.3160524262610359</v>
       </c>
       <c r="T45" t="n">
-        <v>2.129732332246996</v>
+        <v>1.078482727710276</v>
       </c>
       <c r="U45" t="n">
-        <v>28.99447302491702</v>
+        <v>42.04142556603469</v>
       </c>
       <c r="V45" t="n">
-        <v>425.4471132814423</v>
+        <v>436.7319302564247</v>
       </c>
       <c r="W45" t="n">
-        <v>1.082862846887461</v>
+        <v>1.447289017439878</v>
       </c>
       <c r="X45" t="n">
         <v>450</v>
       </c>
       <c r="Y45" t="n">
-        <v>-28.1</v>
+        <v>-43.1</v>
       </c>
       <c r="Z45" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B46" t="n">
-        <v>811.2</v>
+        <v>141.8947368421053</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9769933057772834</v>
+        <v>0.8915182994573199</v>
       </c>
       <c r="D46" t="n">
-        <v>-23.09999999999999</v>
+        <v>-38.09999999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>427.0604966713295</v>
+        <v>435.6694188349148</v>
       </c>
       <c r="F46" t="n">
-        <v>-23.47765624384971</v>
+        <v>-36.71927966515975</v>
       </c>
       <c r="G46" t="n">
-        <v>-22.86769736418611</v>
+        <v>-37.68518843851261</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.6099588796636062</v>
+        <v>0.9659087733528576</v>
       </c>
       <c r="I46" t="n">
-        <v>0.7965937743385193</v>
+        <v>1.06773407612733</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.2044807367650932</v>
+        <v>-0.3305207884122405</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.06660481480834636</v>
+        <v>-0.1392637516659625</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4742104615178278</v>
+        <v>0.7337444459175471</v>
       </c>
       <c r="M46" t="n">
-        <v>0.1946272069651226</v>
+        <v>-0.2220435132613777</v>
       </c>
       <c r="N46" t="n">
-        <v>37.86666666666667</v>
+        <v>26.89473684210526</v>
       </c>
       <c r="O46" t="n">
-        <v>344.6485841238519</v>
+        <v>253.0613912913483</v>
       </c>
       <c r="P46" t="n">
-        <v>253.5472033423313</v>
+        <v>195.7787704008695</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>-1.990653667220803</v>
+        <v>0.5523009095132805</v>
       </c>
       <c r="S46" t="n">
-        <v>-0.913935291456125</v>
+        <v>-0.05866057455038706</v>
       </c>
       <c r="T46" t="n">
-        <v>2.235790341786757</v>
+        <v>0.9121166217149517</v>
       </c>
       <c r="U46" t="n">
-        <v>23.47765624384971</v>
+        <v>36.71927966515975</v>
       </c>
       <c r="V46" t="n">
-        <v>427.0604966713295</v>
+        <v>435.6694188349148</v>
       </c>
       <c r="W46" t="n">
-        <v>1.065616492588241</v>
+        <v>1.217057486312481</v>
       </c>
       <c r="X46" t="n">
         <v>450</v>
       </c>
       <c r="Y46" t="n">
-        <v>-23.1</v>
+        <v>-38.1</v>
       </c>
       <c r="Z46" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B47" t="n">
-        <v>1038.755555555555</v>
+        <v>231.7741935483871</v>
       </c>
       <c r="C47" t="n">
-        <v>0.979055964541158</v>
+        <v>0.9217828521501863</v>
       </c>
       <c r="D47" t="n">
-        <v>-18.09999999999999</v>
+        <v>-33.09999999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>427.1580915949783</v>
+        <v>426.6979702528266</v>
       </c>
       <c r="F47" t="n">
-        <v>-18.65772859616904</v>
+        <v>-31.73428750285665</v>
       </c>
       <c r="G47" t="n">
-        <v>-18.20520396641349</v>
+        <v>-32.98388033521916</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.4525246297555562</v>
+        <v>1.249592832362511</v>
       </c>
       <c r="I47" t="n">
-        <v>0.8220042714877224</v>
+        <v>1.382601456577617</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.07056069591992566</v>
+        <v>-0.1952618523259332</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.04367651596905043</v>
+        <v>-0.04544997893237432</v>
       </c>
       <c r="L47" t="n">
-        <v>0.3941912068754274</v>
+        <v>0.4779202760546493</v>
       </c>
       <c r="M47" t="n">
-        <v>0.05414842000548296</v>
+        <v>-0.2241267959724438</v>
       </c>
       <c r="N47" t="n">
-        <v>37.86666666666667</v>
+        <v>16.67741935483871</v>
       </c>
       <c r="O47" t="n">
-        <v>344.6485841238519</v>
+        <v>169.3926399015221</v>
       </c>
       <c r="P47" t="n">
-        <v>253.5472033423313</v>
+        <v>183.5665270261622</v>
       </c>
       <c r="Q47" t="n">
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>-1.939588485771178</v>
+        <v>0.6832604618875325</v>
       </c>
       <c r="S47" t="n">
-        <v>-1.033917812759572</v>
+        <v>0.006415115322994779</v>
       </c>
       <c r="T47" t="n">
-        <v>2.227681020651787</v>
+        <v>0.874379786178241</v>
       </c>
       <c r="U47" t="n">
-        <v>18.65772859616904</v>
+        <v>31.73428750285665</v>
       </c>
       <c r="V47" t="n">
-        <v>427.1580915949783</v>
+        <v>426.6979702528266</v>
       </c>
       <c r="W47" t="n">
-        <v>1.2898567134316</v>
+        <v>1.659068046167624</v>
       </c>
       <c r="X47" t="n">
         <v>450</v>
       </c>
       <c r="Y47" t="n">
-        <v>-18.1</v>
+        <v>-33.1</v>
       </c>
       <c r="Z47" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B48" t="n">
-        <v>1254.5</v>
+        <v>335.0909090909091</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9815821069137415</v>
+        <v>0.9417695358589412</v>
       </c>
       <c r="D48" t="n">
-        <v>-13.09999999999999</v>
+        <v>-28.09999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>428.0713470008295</v>
+        <v>423.3185784806726</v>
       </c>
       <c r="F48" t="n">
-        <v>-13.92569107302538</v>
+        <v>-27.59858995891432</v>
       </c>
       <c r="G48" t="n">
-        <v>-13.53538260579001</v>
+        <v>-28.40995576350307</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.3903084672353723</v>
+        <v>0.8113658045887528</v>
       </c>
       <c r="I48" t="n">
-        <v>0.8481123243514503</v>
+        <v>1.246089855301162</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.0359035702959031</v>
+        <v>-0.02725518447715966</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.009225737180319432</v>
+        <v>-0.09772034005304248</v>
       </c>
       <c r="L48" t="n">
-        <v>0.3066901155458186</v>
+        <v>0.3924589334009873</v>
       </c>
       <c r="M48" t="n">
-        <v>0.04827421243985442</v>
+        <v>-0.1187576272757958</v>
       </c>
       <c r="N48" t="n">
-        <v>36.70454545454545</v>
+        <v>19.09090909090909</v>
       </c>
       <c r="O48" t="n">
-        <v>335.1543470045143</v>
+        <v>189.5755178629587</v>
       </c>
       <c r="P48" t="n">
-        <v>253.9635427043765</v>
+        <v>227.655811961577</v>
       </c>
       <c r="Q48" t="n">
         <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>-1.920467486942514</v>
+        <v>0.6233220009976851</v>
       </c>
       <c r="S48" t="n">
-        <v>-0.9335648861995196</v>
+        <v>0.08344677188894918</v>
       </c>
       <c r="T48" t="n">
-        <v>2.153817179249649</v>
+        <v>0.7341641232651233</v>
       </c>
       <c r="U48" t="n">
-        <v>13.92569107302538</v>
+        <v>27.59858995891432</v>
       </c>
       <c r="V48" t="n">
-        <v>428.0713470008295</v>
+        <v>423.3185784806726</v>
       </c>
       <c r="W48" t="n">
-        <v>1.316210957992698</v>
+        <v>1.380012720789045</v>
       </c>
       <c r="X48" t="n">
         <v>450</v>
       </c>
       <c r="Y48" t="n">
-        <v>-13.1</v>
+        <v>-28.1</v>
       </c>
       <c r="Z48" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B49" t="n">
-        <v>1444.414634146342</v>
+        <v>429.7142857142857</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9684429695213939</v>
+        <v>0.9524974906492305</v>
       </c>
       <c r="D49" t="n">
-        <v>-8.099999999999994</v>
+        <v>-23.09999999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>421.1335139877308</v>
+        <v>428.5519140018058</v>
       </c>
       <c r="F49" t="n">
-        <v>-8.418269199642717</v>
+        <v>-21.86662012136432</v>
       </c>
       <c r="G49" t="n">
-        <v>-8.412366556792774</v>
+        <v>-22.86769729371631</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.005902642849943492</v>
+        <v>1.001077172351995</v>
       </c>
       <c r="I49" t="n">
-        <v>1.534449341803236</v>
+        <v>1.256003111460759</v>
       </c>
       <c r="J49" t="n">
-        <v>0.03875731589163487</v>
+        <v>0.02746575234435689</v>
       </c>
       <c r="K49" t="n">
-        <v>0.04617348231082816</v>
+        <v>-0.1943724327424832</v>
       </c>
       <c r="L49" t="n">
-        <v>0.2006715870877768</v>
+        <v>0.3171403520432448</v>
       </c>
       <c r="M49" t="n">
-        <v>0.2550965798925552</v>
+        <v>-0.1915471297581381</v>
       </c>
       <c r="N49" t="n">
-        <v>39.51219512195122</v>
+        <v>10.07142857142857</v>
       </c>
       <c r="O49" t="n">
-        <v>357.8347226567056</v>
+        <v>116.8174756212654</v>
       </c>
       <c r="P49" t="n">
-        <v>270.7530273934369</v>
+        <v>193.5429026812816</v>
       </c>
       <c r="Q49" t="n">
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>-1.852278688606542</v>
+        <v>0.6324869612891971</v>
       </c>
       <c r="S49" t="n">
-        <v>-1.043285507372644</v>
+        <v>-0.02671685436536921</v>
       </c>
       <c r="T49" t="n">
-        <v>2.136151852942016</v>
+        <v>0.6854453683968474</v>
       </c>
       <c r="U49" t="n">
-        <v>8.418269199642717</v>
+        <v>21.86662012136432</v>
       </c>
       <c r="V49" t="n">
-        <v>421.1335139877308</v>
+        <v>428.5519140018058</v>
       </c>
       <c r="W49" t="n">
-        <v>1.913501930396153</v>
+        <v>1.354385726923965</v>
       </c>
       <c r="X49" t="n">
         <v>450</v>
       </c>
       <c r="Y49" t="n">
-        <v>-8.1</v>
+        <v>-23.1</v>
       </c>
       <c r="Z49" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B50" t="n">
-        <v>1634.309523809524</v>
+        <v>528.2142857142857</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9577220165554843</v>
+        <v>0.9644239921783733</v>
       </c>
       <c r="D50" t="n">
-        <v>-3.099999999999993</v>
+        <v>-18.09999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>420.7977224603324</v>
+        <v>431.0442230750782</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.701150698860108</v>
+        <v>-17.47226627843438</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.162115879123986</v>
+        <v>-18.20520397000869</v>
       </c>
       <c r="H50" t="n">
-        <v>1.460965180263878</v>
+        <v>0.7329376915743041</v>
       </c>
       <c r="I50" t="n">
-        <v>2.838284976182508</v>
+        <v>1.412176248481052</v>
       </c>
       <c r="J50" t="n">
-        <v>0.02011374093030159</v>
+        <v>0.1025949515560569</v>
       </c>
       <c r="K50" t="n">
-        <v>0.07305705434238552</v>
+        <v>-0.04769360516853435</v>
       </c>
       <c r="L50" t="n">
-        <v>0.1730287595395871</v>
+        <v>0.1853102894642429</v>
       </c>
       <c r="M50" t="n">
-        <v>0.5948045588555049</v>
+        <v>-0.07528087248237562</v>
       </c>
       <c r="N50" t="n">
-        <v>40.5</v>
+        <v>8.142857142857142</v>
       </c>
       <c r="O50" t="n">
-        <v>366.221877044008</v>
+        <v>101.8351257395967</v>
       </c>
       <c r="P50" t="n">
-        <v>267.4642691538235</v>
+        <v>224.905270839923</v>
       </c>
       <c r="Q50" t="n">
         <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>-1.884868712160802</v>
+        <v>0.7103614873836498</v>
       </c>
       <c r="S50" t="n">
-        <v>-1.036144051131753</v>
+        <v>-0.04587140955245569</v>
       </c>
       <c r="T50" t="n">
-        <v>2.166166683487997</v>
+        <v>0.7236102933341998</v>
       </c>
       <c r="U50" t="n">
-        <v>2.701150698860108</v>
+        <v>17.47226627843438</v>
       </c>
       <c r="V50" t="n">
-        <v>420.7977224603324</v>
+        <v>431.0442230750782</v>
       </c>
       <c r="W50" t="n">
-        <v>3.051310439490846</v>
+        <v>1.54526778960924</v>
       </c>
       <c r="X50" t="n">
         <v>450</v>
       </c>
       <c r="Y50" t="n">
-        <v>-3.1</v>
+        <v>-18.1</v>
       </c>
       <c r="Z50" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B51" t="n">
-        <v>1831.025641025641</v>
+        <v>648.5483870967741</v>
       </c>
       <c r="C51" t="n">
-        <v>0.947175168140329</v>
+        <v>0.945113422439337</v>
       </c>
       <c r="D51" t="n">
-        <v>1.900000000000006</v>
+        <v>-13.09999999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>422.3561934642261</v>
+        <v>429.8366871646406</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.8167677211559866</v>
+        <v>-13.33062927674903</v>
       </c>
       <c r="G51" t="n">
-        <v>1.5</v>
+        <v>-13.53538203551962</v>
       </c>
       <c r="H51" t="n">
-        <v>-2.316767721155987</v>
+        <v>0.2047527587705962</v>
       </c>
       <c r="I51" t="n">
-        <v>2.316767721155987</v>
+        <v>1.545775730469982</v>
       </c>
       <c r="J51" t="n">
-        <v>0.02496758651553148</v>
+        <v>0.07912504874272325</v>
       </c>
       <c r="K51" t="n">
-        <v>0.04389036798072583</v>
+        <v>-0.003120893224184375</v>
       </c>
       <c r="L51" t="n">
-        <v>0.1228996544988997</v>
+        <v>0.229566859381333</v>
       </c>
       <c r="M51" t="n">
-        <v>0.1321506293275428</v>
+        <v>0.2637465518755369</v>
       </c>
       <c r="N51" t="n">
-        <v>42.92307692307692</v>
+        <v>15.58064516129032</v>
       </c>
       <c r="O51" t="n">
-        <v>385.3524065015667</v>
+        <v>164.3020435737492</v>
       </c>
       <c r="P51" t="n">
-        <v>276.4307167452653</v>
+        <v>221.3782329538973</v>
       </c>
       <c r="Q51" t="n">
         <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>-1.878991117894349</v>
+        <v>0.5971252326378655</v>
       </c>
       <c r="S51" t="n">
-        <v>-1.129005865432624</v>
+        <v>0.1177090324975842</v>
       </c>
       <c r="T51" t="n">
-        <v>2.198571539989012</v>
+        <v>0.6631718486556212</v>
       </c>
       <c r="U51" t="n">
-        <v>0.8167677211559866</v>
+        <v>13.33062927674903</v>
       </c>
       <c r="V51" t="n">
-        <v>422.3561934642261</v>
+        <v>429.8366871646406</v>
       </c>
       <c r="W51" t="n">
-        <v>2.42430367502791</v>
+        <v>1.822478748515088</v>
       </c>
       <c r="X51" t="n">
         <v>450</v>
       </c>
       <c r="Y51" t="n">
-        <v>1.9</v>
+        <v>-13.1</v>
       </c>
       <c r="Z51" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B52" t="n">
-        <v>2022.625</v>
+        <v>783.5945945945946</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9791838517877682</v>
+        <v>0.9352011055065271</v>
       </c>
       <c r="D52" t="n">
-        <v>16.90000000000001</v>
+        <v>-8.099999999999994</v>
       </c>
       <c r="E52" t="n">
-        <v>413.8493085463565</v>
+        <v>424.9920689772871</v>
       </c>
       <c r="F52" t="n">
-        <v>13.69729222523969</v>
+        <v>-8.109556674739549</v>
       </c>
       <c r="G52" t="n">
-        <v>17.00709991454513</v>
+        <v>-8.412366102243347</v>
       </c>
       <c r="H52" t="n">
-        <v>-3.30980768930544</v>
+        <v>0.3028094275037971</v>
       </c>
       <c r="I52" t="n">
-        <v>3.30980768930544</v>
+        <v>1.497787994190729</v>
       </c>
       <c r="J52" t="n">
-        <v>0.02933416731025229</v>
+        <v>0.07617201294555698</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.1045798713531632</v>
+        <v>-0.06094009745149671</v>
       </c>
       <c r="L52" t="n">
-        <v>0.1525497862518653</v>
+        <v>0.2303954843416943</v>
       </c>
       <c r="M52" t="n">
-        <v>0.2151708054342412</v>
+        <v>-0.08325953972484133</v>
       </c>
       <c r="N52" t="n">
-        <v>13.25</v>
+        <v>22.89189189189189</v>
       </c>
       <c r="O52" t="n">
-        <v>139.0234317802634</v>
+        <v>224.1157772106326</v>
       </c>
       <c r="P52" t="n">
-        <v>380.6380781867317</v>
+        <v>249.8116606510088</v>
       </c>
       <c r="Q52" t="n">
         <v>0</v>
       </c>
       <c r="R52" t="n">
-        <v>-1.593104159333066</v>
+        <v>0.4097389001633717</v>
       </c>
       <c r="S52" t="n">
-        <v>-1.280383539956027</v>
+        <v>0.002539193410700629</v>
       </c>
       <c r="T52" t="n">
-        <v>2.04666444492356</v>
+        <v>0.4711637795276907</v>
       </c>
       <c r="U52" t="n">
-        <v>-13.69729222523969</v>
+        <v>8.109556674739549</v>
       </c>
       <c r="V52" t="n">
-        <v>413.8493085463565</v>
+        <v>424.9920689772871</v>
       </c>
       <c r="W52" t="n">
-        <v>3.393227445905847</v>
+        <v>1.835899645806601</v>
       </c>
       <c r="X52" t="n">
         <v>450</v>
       </c>
       <c r="Y52" t="n">
-        <v>16.9</v>
+        <v>-8.1</v>
       </c>
       <c r="Z52" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B53" t="n">
-        <v>2143.357142857143</v>
+        <v>911.7241379310345</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9694492700264024</v>
+        <v>0.9108910512580856</v>
       </c>
       <c r="D53" t="n">
-        <v>31.90000000000001</v>
+        <v>-3.099999999999994</v>
       </c>
       <c r="E53" t="n">
-        <v>412.5357518370564</v>
+        <v>428.9069349043956</v>
       </c>
       <c r="F53" t="n">
-        <v>30.03862154643435</v>
+        <v>-4.568329875833116</v>
       </c>
       <c r="G53" t="n">
-        <v>32.6327596643745</v>
+        <v>-4.162115875665233</v>
       </c>
       <c r="H53" t="n">
-        <v>-2.594138117940154</v>
+        <v>-0.4062140001678833</v>
       </c>
       <c r="I53" t="n">
-        <v>2.594138117940154</v>
+        <v>1.76295792936901</v>
       </c>
       <c r="J53" t="n">
-        <v>0.02832570851349077</v>
+        <v>-0.0003185592220275609</v>
       </c>
       <c r="K53" t="n">
-        <v>0.03048794686766699</v>
+        <v>-0.02308671159354492</v>
       </c>
       <c r="L53" t="n">
-        <v>0.4079703898715069</v>
+        <v>0.1346373189805356</v>
       </c>
       <c r="M53" t="n">
-        <v>0.7389727172281093</v>
+        <v>0.05559047379805073</v>
       </c>
       <c r="N53" t="n">
-        <v>36.03571428571428</v>
+        <v>29.10344827586207</v>
       </c>
       <c r="O53" t="n">
-        <v>328.826759773909</v>
+        <v>273.433451392359</v>
       </c>
       <c r="P53" t="n">
-        <v>176.1722575155206</v>
+        <v>249.5943596146454</v>
       </c>
       <c r="Q53" t="n">
         <v>0</v>
       </c>
       <c r="R53" t="n">
-        <v>-1.428852882831757</v>
+        <v>0.06909736601717645</v>
       </c>
       <c r="S53" t="n">
-        <v>-1.076897796877336</v>
+        <v>-0.006559948871274075</v>
       </c>
       <c r="T53" t="n">
-        <v>1.821939063497431</v>
+        <v>0.1790688563178857</v>
       </c>
       <c r="U53" t="n">
-        <v>-30.03862154643435</v>
+        <v>4.568329875833116</v>
       </c>
       <c r="V53" t="n">
-        <v>412.5357518370564</v>
+        <v>428.9069349043956</v>
       </c>
       <c r="W53" t="n">
-        <v>2.683823379300769</v>
+        <v>2.103017634378517</v>
       </c>
       <c r="X53" t="n">
         <v>450</v>
       </c>
       <c r="Y53" t="n">
-        <v>31.9</v>
+        <v>-3.1</v>
       </c>
       <c r="Z53" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B54" t="n">
-        <v>2285.695652173913</v>
+        <v>1047.105263157895</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9480225313566971</v>
+        <v>0.9317711951786085</v>
       </c>
       <c r="D54" t="n">
-        <v>36.90000000000001</v>
+        <v>1.900000000000006</v>
       </c>
       <c r="E54" t="n">
-        <v>414.7680698676714</v>
+        <v>423.013432541512</v>
       </c>
       <c r="F54" t="n">
-        <v>34.9339512200821</v>
+        <v>1.109545542793555</v>
       </c>
       <c r="G54" t="n">
-        <v>37.69292631543188</v>
+        <v>1.5</v>
       </c>
       <c r="H54" t="n">
-        <v>-2.758975095349788</v>
+        <v>-0.3904544572064445</v>
       </c>
       <c r="I54" t="n">
-        <v>2.758975095349788</v>
+        <v>1.146419343454713</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.04261336692713977</v>
+        <v>0.03643427658982066</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.07832445230742857</v>
+        <v>0.03406165799358394</v>
       </c>
       <c r="L54" t="n">
-        <v>0.4579526653078345</v>
+        <v>0.06412844091345987</v>
       </c>
       <c r="M54" t="n">
-        <v>0.8675843160921785</v>
+        <v>0.1737096160382887</v>
       </c>
       <c r="N54" t="n">
-        <v>48.78260869565217</v>
+        <v>33.21052631578947</v>
       </c>
       <c r="O54" t="n">
-        <v>436.5230629359687</v>
+        <v>307.3977090457552</v>
       </c>
       <c r="P54" t="n">
-        <v>155.5332528981728</v>
+        <v>282.524299724474</v>
       </c>
       <c r="Q54" t="n">
         <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>-1.509581680084451</v>
+        <v>0.0007302107714392637</v>
       </c>
       <c r="S54" t="n">
-        <v>-1.13464185119908</v>
+        <v>-0.0001461191301430628</v>
       </c>
       <c r="T54" t="n">
-        <v>1.950770523472594</v>
+        <v>0.01636167252868453</v>
       </c>
       <c r="U54" t="n">
-        <v>-34.9339512200821</v>
+        <v>-1.109545542793555</v>
       </c>
       <c r="V54" t="n">
-        <v>414.7680698676714</v>
+        <v>423.013432541512</v>
       </c>
       <c r="W54" t="n">
-        <v>2.828134132584416</v>
+        <v>1.722959118051538</v>
       </c>
       <c r="X54" t="n">
         <v>450</v>
       </c>
       <c r="Y54" t="n">
-        <v>36.9</v>
+        <v>1.9</v>
       </c>
       <c r="Z54" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B55" t="n">
-        <v>2430.423076923077</v>
+        <v>1187.526315789474</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9459335097007208</v>
+        <v>0.9401336727494942</v>
       </c>
       <c r="D55" t="n">
-        <v>41.90000000000001</v>
+        <v>6.900000000000006</v>
       </c>
       <c r="E55" t="n">
-        <v>419.3487406857736</v>
+        <v>416.1186711150101</v>
       </c>
       <c r="F55" t="n">
-        <v>39.38887145242976</v>
+        <v>5.719669846594354</v>
       </c>
       <c r="G55" t="n">
-        <v>42.43896635283819</v>
+        <v>6.883590571785827</v>
       </c>
       <c r="H55" t="n">
-        <v>-3.050094900408439</v>
+        <v>-1.163920725191473</v>
       </c>
       <c r="I55" t="n">
-        <v>3.050094900408439</v>
+        <v>1.39690095604657</v>
       </c>
       <c r="J55" t="n">
-        <v>0.08090216886591342</v>
+        <v>-0.02007374590943593</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.2177883157963877</v>
+        <v>-0.0418491298016215</v>
       </c>
       <c r="L55" t="n">
-        <v>0.6526801635764353</v>
+        <v>0.3019814565568734</v>
       </c>
       <c r="M55" t="n">
-        <v>1.17247117417248</v>
+        <v>0.7443054073168826</v>
       </c>
       <c r="N55" t="n">
-        <v>37.84615384615385</v>
+        <v>37.52631578947368</v>
       </c>
       <c r="O55" t="n">
-        <v>342.4627767548818</v>
+        <v>345.9878474338256</v>
       </c>
       <c r="P55" t="n">
-        <v>197.2090290601125</v>
+        <v>243.4660476705305</v>
       </c>
       <c r="Q55" t="n">
         <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>-1.435968540714482</v>
+        <v>0.1619053231584091</v>
       </c>
       <c r="S55" t="n">
-        <v>-1.38989598385715</v>
+        <v>-0.03322700615009509</v>
       </c>
       <c r="T55" t="n">
-        <v>2.082240054701239</v>
+        <v>0.3640521692056488</v>
       </c>
       <c r="U55" t="n">
-        <v>-39.38887145242976</v>
+        <v>-5.719669846594354</v>
       </c>
       <c r="V55" t="n">
-        <v>419.3487406857736</v>
+        <v>416.1186711150101</v>
       </c>
       <c r="W55" t="n">
-        <v>3.139785346063345</v>
+        <v>1.626947140463821</v>
       </c>
       <c r="X55" t="n">
         <v>450</v>
       </c>
       <c r="Y55" t="n">
-        <v>41.9</v>
+        <v>6.9</v>
       </c>
       <c r="Z55" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B56" t="n">
-        <v>2569.5</v>
+        <v>1311.64705882353</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9356896807607729</v>
+        <v>0.9667741955175011</v>
       </c>
       <c r="D56" t="n">
-        <v>46.90000000000001</v>
+        <v>11.90000000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>415.0416031114632</v>
+        <v>424.3056693254602</v>
       </c>
       <c r="F56" t="n">
-        <v>44.14122742308774</v>
+        <v>10.58159889868648</v>
       </c>
       <c r="G56" t="n">
-        <v>47.739065682976</v>
+        <v>12.29422759822129</v>
       </c>
       <c r="H56" t="n">
-        <v>-3.59783825988825</v>
+        <v>-1.712628699534806</v>
       </c>
       <c r="I56" t="n">
-        <v>3.59783825988825</v>
+        <v>1.718004340010949</v>
       </c>
       <c r="J56" t="n">
-        <v>0.08394081229217581</v>
+        <v>0.07618988120153206</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.6335420629047939</v>
+        <v>0.07199644117810192</v>
       </c>
       <c r="L56" t="n">
-        <v>0.7745107115981135</v>
+        <v>0.3774173373098715</v>
       </c>
       <c r="M56" t="n">
-        <v>0.9157946739545841</v>
+        <v>0.9193726067176504</v>
       </c>
       <c r="N56" t="n">
-        <v>30.86363636363636</v>
+        <v>38.14705882352941</v>
       </c>
       <c r="O56" t="n">
-        <v>287.3634676308063</v>
+        <v>348.5447929458203</v>
       </c>
       <c r="P56" t="n">
-        <v>139.9740426078379</v>
+        <v>292.8764301613743</v>
       </c>
       <c r="Q56" t="n">
         <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>-1.266634660400314</v>
+        <v>0.3870248727810326</v>
       </c>
       <c r="S56" t="n">
-        <v>-1.562777338298699</v>
+        <v>0.08479357621020193</v>
       </c>
       <c r="T56" t="n">
-        <v>2.104039468706664</v>
+        <v>0.4935211730707499</v>
       </c>
       <c r="U56" t="n">
-        <v>-44.14122742308774</v>
+        <v>-10.58159889868648</v>
       </c>
       <c r="V56" t="n">
-        <v>415.0416031114632</v>
+        <v>424.3056693254602</v>
       </c>
       <c r="W56" t="n">
-        <v>3.638765468494411</v>
+        <v>2.09056552578507</v>
       </c>
       <c r="X56" t="n">
         <v>450</v>
       </c>
       <c r="Y56" t="n">
-        <v>46.9</v>
+        <v>11.9</v>
       </c>
       <c r="Z56" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B57" t="n">
-        <v>2697.647058823529</v>
+        <v>1433.214285714286</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9096529852981707</v>
+        <v>0.9615002801774459</v>
       </c>
       <c r="D57" t="n">
-        <v>51.90000000000001</v>
+        <v>16.90000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>422.8894123608085</v>
+        <v>431.0222867304202</v>
       </c>
       <c r="F57" t="n">
-        <v>49.3848780002759</v>
+        <v>15.17939435598137</v>
       </c>
       <c r="G57" t="n">
-        <v>53.27214761449191</v>
+        <v>17.00708776609422</v>
       </c>
       <c r="H57" t="n">
-        <v>-3.887269614216007</v>
+        <v>-1.827693410112844</v>
       </c>
       <c r="I57" t="n">
-        <v>3.887269614216007</v>
+        <v>1.827693410112844</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.06968582812872122</v>
+        <v>0.1430075917554671</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.2897675876459779</v>
+        <v>0.07949761353648131</v>
       </c>
       <c r="L57" t="n">
-        <v>0.5855777926685886</v>
+        <v>0.4577637482500377</v>
       </c>
       <c r="M57" t="n">
-        <v>0.6744497181612404</v>
+        <v>0.6798383337937458</v>
       </c>
       <c r="N57" t="n">
-        <v>47.70588235294117</v>
+        <v>30.07142857142857</v>
       </c>
       <c r="O57" t="n">
-        <v>426.7823065629835</v>
+        <v>280.8665208883705</v>
       </c>
       <c r="P57" t="n">
-        <v>121.5760484447544</v>
+        <v>261.177681753074</v>
       </c>
       <c r="Q57" t="n">
         <v>0</v>
       </c>
       <c r="R57" t="n">
-        <v>-1.079470160459727</v>
+        <v>0.4736451952209574</v>
       </c>
       <c r="S57" t="n">
-        <v>-1.313750165342405</v>
+        <v>0.09648023451792383</v>
       </c>
       <c r="T57" t="n">
-        <v>1.741941262594203</v>
+        <v>0.5963292192692107</v>
       </c>
       <c r="U57" t="n">
-        <v>-49.3848780002759</v>
+        <v>-15.17939435598137</v>
       </c>
       <c r="V57" t="n">
-        <v>422.8894123608085</v>
+        <v>431.0222867304202</v>
       </c>
       <c r="W57" t="n">
-        <v>3.955375388832479</v>
+        <v>2.119849017325964</v>
       </c>
       <c r="X57" t="n">
         <v>450</v>
       </c>
       <c r="Y57" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1557.547619047619</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.9533185866594108</v>
+      </c>
+      <c r="D58" t="n">
+        <v>21.90000000000001</v>
+      </c>
+      <c r="E58" t="n">
+        <v>429.0104683972545</v>
+      </c>
+      <c r="F58" t="n">
+        <v>20.03084271818729</v>
+      </c>
+      <c r="G58" t="n">
+        <v>22.14348712706708</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-2.112644408879794</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2.112644408879794</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.159220151566173</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.0294390571323861</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.5369772030887179</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.7032087685713504</v>
+      </c>
+      <c r="N58" t="n">
+        <v>25.07142857142857</v>
+      </c>
+      <c r="O58" t="n">
+        <v>239.318049676164</v>
+      </c>
+      <c r="P58" t="n">
+        <v>277.4374910331759</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.5226097320864995</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.0850133805527772</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.6990048813560605</v>
+      </c>
+      <c r="U58" t="n">
+        <v>-20.03084271818729</v>
+      </c>
+      <c r="V58" t="n">
+        <v>429.0104683972545</v>
+      </c>
+      <c r="W58" t="n">
+        <v>2.368116470084961</v>
+      </c>
+      <c r="X58" t="n">
+        <v>450</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1678.243902439024</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.9409818199438151</v>
+      </c>
+      <c r="D59" t="n">
+        <v>26.90000000000001</v>
+      </c>
+      <c r="E59" t="n">
+        <v>429.1363319995205</v>
+      </c>
+      <c r="F59" t="n">
+        <v>25.50704718358925</v>
+      </c>
+      <c r="G59" t="n">
+        <v>27.84518183438559</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-2.338134650796341</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2.338134650796341</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.05262058791442587</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.1243104370107015</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.6007933180462841</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.7331832641534888</v>
+      </c>
+      <c r="N59" t="n">
+        <v>25.60975609756098</v>
+      </c>
+      <c r="O59" t="n">
+        <v>244.0525132897917</v>
+      </c>
+      <c r="P59" t="n">
+        <v>269.1018945752695</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.5124833701692575</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.1163377009497311</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.7608625317289923</v>
+      </c>
+      <c r="U59" t="n">
+        <v>-25.50704718358925</v>
+      </c>
+      <c r="V59" t="n">
+        <v>429.1363319995205</v>
+      </c>
+      <c r="W59" t="n">
+        <v>2.565948129412207</v>
+      </c>
+      <c r="X59" t="n">
+        <v>450</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1789.189189189189</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.9300639138345193</v>
+      </c>
+      <c r="D60" t="n">
+        <v>31.90000000000001</v>
+      </c>
+      <c r="E60" t="n">
+        <v>422.0555690606146</v>
+      </c>
+      <c r="F60" t="n">
+        <v>30.26092685652744</v>
+      </c>
+      <c r="G60" t="n">
+        <v>32.63277172314477</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-2.371844866617333</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2.371844866617333</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.1087026576167572</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.1818315160763583</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.624329525773257</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.8570930720221137</v>
+      </c>
+      <c r="N60" t="n">
+        <v>28.21621621621622</v>
+      </c>
+      <c r="O60" t="n">
+        <v>265.7589338821359</v>
+      </c>
+      <c r="P60" t="n">
+        <v>276.6988077252537</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.593020704768267</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.1881153146928206</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.8319635505050335</v>
+      </c>
+      <c r="U60" t="n">
+        <v>-30.26092685652744</v>
+      </c>
+      <c r="V60" t="n">
+        <v>422.0555690606146</v>
+      </c>
+      <c r="W60" t="n">
+        <v>2.607670149943671</v>
+      </c>
+      <c r="X60" t="n">
+        <v>450</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1894.548387096774</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.900697326685304</v>
+      </c>
+      <c r="D61" t="n">
+        <v>36.90000000000001</v>
+      </c>
+      <c r="E61" t="n">
+        <v>424.536129228526</v>
+      </c>
+      <c r="F61" t="n">
+        <v>35.1397172449211</v>
+      </c>
+      <c r="G61" t="n">
+        <v>37.69291482618024</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-2.553197581259139</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2.553197581259139</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.08281773444179778</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.2064429019527872</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.6985030038804532</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.9794854754992427</v>
+      </c>
+      <c r="N61" t="n">
+        <v>30.80645161290322</v>
+      </c>
+      <c r="O61" t="n">
+        <v>284.6710991035327</v>
+      </c>
+      <c r="P61" t="n">
+        <v>294.7863290077634</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.5904973661612111</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.2175808961231087</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.917458540727883</v>
+      </c>
+      <c r="U61" t="n">
+        <v>-35.1397172449211</v>
+      </c>
+      <c r="V61" t="n">
+        <v>424.536129228526</v>
+      </c>
+      <c r="W61" t="n">
+        <v>2.828756430682907</v>
+      </c>
+      <c r="X61" t="n">
+        <v>450</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1980.3125</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.8536748808128102</v>
+      </c>
+      <c r="D62" t="n">
+        <v>41.90000000000001</v>
+      </c>
+      <c r="E62" t="n">
+        <v>421.641033102234</v>
+      </c>
+      <c r="F62" t="n">
+        <v>40.44196252791573</v>
+      </c>
+      <c r="G62" t="n">
+        <v>42.43896635786599</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-1.997003829950255</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1.997003829950255</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-0.08282658083621673</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.2935439447781061</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.5656570774484113</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.9987026886232662</v>
+      </c>
+      <c r="N62" t="n">
+        <v>50.0625</v>
+      </c>
+      <c r="O62" t="n">
+        <v>442.9293638856776</v>
+      </c>
+      <c r="P62" t="n">
+        <v>219.0794238399867</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.3514142122199688</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.1843326439551047</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.6247133647846418</v>
+      </c>
+      <c r="U62" t="n">
+        <v>-40.44196252791573</v>
+      </c>
+      <c r="V62" t="n">
+        <v>421.641033102234</v>
+      </c>
+      <c r="W62" t="n">
+        <v>2.263990754241399</v>
+      </c>
+      <c r="X62" t="n">
+        <v>450</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B63" t="n">
+        <v>2035.333333333333</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.7981663146728775</v>
+      </c>
+      <c r="D63" t="n">
+        <v>46.90000000000001</v>
+      </c>
+      <c r="E63" t="n">
+        <v>421.3761405371865</v>
+      </c>
+      <c r="F63" t="n">
+        <v>45.70194956616946</v>
+      </c>
+      <c r="G63" t="n">
+        <v>47.73905463312075</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-2.037105066951293</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2.037105066951293</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-0.1852625684530778</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.1382181467120044</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.5678718433819584</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.7666267677172892</v>
+      </c>
+      <c r="N63" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="O63" t="n">
+        <v>469.4443187102275</v>
+      </c>
+      <c r="P63" t="n">
+        <v>192.4049223754965</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.2575911478080954</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.3062680742395666</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.6840544005647431</v>
+      </c>
+      <c r="U63" t="n">
+        <v>-45.70194956616946</v>
+      </c>
+      <c r="V63" t="n">
+        <v>421.3761405371865</v>
+      </c>
+      <c r="W63" t="n">
+        <v>2.16455806389069</v>
+      </c>
+      <c r="X63" t="n">
+        <v>450</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B64" t="n">
+        <v>2078.307692307692</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.7273389173212009</v>
+      </c>
+      <c r="D64" t="n">
+        <v>51.90000000000001</v>
+      </c>
+      <c r="E64" t="n">
+        <v>411.7383644539836</v>
+      </c>
+      <c r="F64" t="n">
+        <v>51.09987752936917</v>
+      </c>
+      <c r="G64" t="n">
+        <v>53.27214888613017</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-2.172271356760999</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2.172271356760999</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-0.2625639484754546</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.06481283716797201</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.4807467849761062</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.769940544632387</v>
+      </c>
+      <c r="N64" t="n">
+        <v>47.38461538461539</v>
+      </c>
+      <c r="O64" t="n">
+        <v>421.0388459785196</v>
+      </c>
+      <c r="P64" t="n">
+        <v>205.9658849988469</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.03881164745003821</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.09006481241088256</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0.5751004085332838</v>
+      </c>
+      <c r="U64" t="n">
+        <v>-51.09987752936917</v>
+      </c>
+      <c r="V64" t="n">
+        <v>411.7383644539836</v>
+      </c>
+      <c r="W64" t="n">
+        <v>2.348720391222271</v>
+      </c>
+      <c r="X64" t="n">
+        <v>450</v>
+      </c>
+      <c r="Y64" t="n">
         <v>51.9</v>
       </c>
-      <c r="Z57" t="n">
-        <v>17</v>
+      <c r="Z64" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/publication/analyses/outputs/rmse_z/gdpt_bin_r-z_rmse-z.xlsx
+++ b/publication/analyses/outputs/rmse_z/gdpt_bin_r-z_rmse-z.xlsx
@@ -577,28 +577,28 @@
         <v>113.5618726268878</v>
       </c>
       <c r="F2" t="n">
-        <v>-47.00632793860171</v>
+        <v>-47.00631555111244</v>
       </c>
       <c r="G2" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8019674392735736</v>
+        <v>0.801967733284756</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8300326343598969</v>
+        <v>0.8300332576322741</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3225809860580569</v>
+        <v>0.3225809871856882</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3056894920493879</v>
+        <v>0.3056894938808991</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5684279384980195</v>
+        <v>0.5684279398665308</v>
       </c>
       <c r="M2" t="n">
-        <v>0.06001517275231194</v>
+        <v>0.060015193739294</v>
       </c>
       <c r="N2" t="n">
         <v>54.92857142857143</v>
@@ -622,13 +622,13 @@
         <v>1.239515522189204</v>
       </c>
       <c r="U2" t="n">
-        <v>47.00632793860171</v>
+        <v>47.00631555111244</v>
       </c>
       <c r="V2" t="n">
         <v>113.5618726268878</v>
       </c>
       <c r="W2" t="n">
-        <v>0.9568648161900427</v>
+        <v>0.9568657451875412</v>
       </c>
       <c r="X2" t="n">
         <v>150</v>
@@ -657,28 +657,28 @@
         <v>123.3240936223589</v>
       </c>
       <c r="F3" t="n">
-        <v>-42.55264065148012</v>
+        <v>-42.55264072381193</v>
       </c>
       <c r="G3" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5937173805095204</v>
+        <v>0.5937173796832724</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7558895663044517</v>
+        <v>0.7558895637890657</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2313982092208111</v>
+        <v>0.2313982091860897</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2145340536019676</v>
+        <v>0.2145340535678683</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4861463108704414</v>
+        <v>0.486146310851</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.1261571313825665</v>
+        <v>-0.1261571314710938</v>
       </c>
       <c r="N3" t="n">
         <v>52.64705882352941</v>
@@ -702,13 +702,13 @@
         <v>1.161517163103335</v>
       </c>
       <c r="U3" t="n">
-        <v>42.55264065148012</v>
+        <v>42.55264072381193</v>
       </c>
       <c r="V3" t="n">
         <v>123.3240936223589</v>
       </c>
       <c r="W3" t="n">
-        <v>0.911055108681486</v>
+        <v>0.9110551052657967</v>
       </c>
       <c r="X3" t="n">
         <v>150</v>
@@ -737,28 +737,28 @@
         <v>124.2399329950721</v>
       </c>
       <c r="F4" t="n">
-        <v>-37.66694612192468</v>
+        <v>-37.666947471878</v>
       </c>
       <c r="G4" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01824231658792692</v>
+        <v>0.01824262259696969</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5057197028823266</v>
+        <v>0.5057198180282848</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05800375617923778</v>
+        <v>0.05800375528937029</v>
       </c>
       <c r="K4" t="n">
-        <v>0.176868825140811</v>
+        <v>0.1768688245210336</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3408840191736187</v>
+        <v>0.3408840187898248</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3085544157268557</v>
+        <v>0.3085544147166996</v>
       </c>
       <c r="N4" t="n">
         <v>47.38095238095238</v>
@@ -782,13 +782,13 @@
         <v>0.9295596613711358</v>
       </c>
       <c r="U4" t="n">
-        <v>37.66694612192468</v>
+        <v>37.666947471878</v>
       </c>
       <c r="V4" t="n">
         <v>124.2399329950721</v>
       </c>
       <c r="W4" t="n">
-        <v>0.5855823483875809</v>
+        <v>0.5855825430445462</v>
       </c>
       <c r="X4" t="n">
         <v>150</v>
@@ -817,28 +817,28 @@
         <v>126.2113302152242</v>
       </c>
       <c r="F5" t="n">
-        <v>-32.85498337644965</v>
+        <v>-32.85498337409038</v>
       </c>
       <c r="G5" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1288969587695137</v>
+        <v>0.1288969582797355</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6116008392159509</v>
+        <v>0.611600838803607</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07412652575742774</v>
+        <v>0.07412652576078668</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1480942111826044</v>
+        <v>0.1480942111850487</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3426222055774552</v>
+        <v>0.3426222055789521</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.0245356086904227</v>
+        <v>-0.02453560868874872</v>
       </c>
       <c r="N5" t="n">
         <v>48.5</v>
@@ -862,13 +862,13 @@
         <v>0.9462026619495446</v>
       </c>
       <c r="U5" t="n">
-        <v>32.85498337644965</v>
+        <v>32.85498337409038</v>
       </c>
       <c r="V5" t="n">
         <v>126.2113302152242</v>
       </c>
       <c r="W5" t="n">
-        <v>0.7111642276889193</v>
+        <v>0.7111642270844096</v>
       </c>
       <c r="X5" t="n">
         <v>150</v>
@@ -897,28 +897,28 @@
         <v>142.4522613718667</v>
       </c>
       <c r="F6" t="n">
-        <v>-28.62083240429241</v>
+        <v>-28.62083240522278</v>
       </c>
       <c r="G6" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474833</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.2108766407893408</v>
+        <v>-0.2108766404744525</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3390246196904159</v>
+        <v>0.3390246196072837</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05700993157783922</v>
+        <v>0.05700993157679678</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06151127860112359</v>
+        <v>0.06151127860017191</v>
       </c>
       <c r="L6" t="n">
-        <v>0.271934910646895</v>
+        <v>0.271934910646726</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1437665096398758</v>
+        <v>0.1437665096394832</v>
       </c>
       <c r="N6" t="n">
         <v>45.48387096774194</v>
@@ -942,13 +942,13 @@
         <v>0.7557727141735375</v>
       </c>
       <c r="U6" t="n">
-        <v>28.62083240429241</v>
+        <v>28.62083240522278</v>
       </c>
       <c r="V6" t="n">
         <v>142.4522613718667</v>
       </c>
       <c r="W6" t="n">
-        <v>0.3797860471216042</v>
+        <v>0.3797860470604409</v>
       </c>
       <c r="X6" t="n">
         <v>150</v>
@@ -977,28 +977,28 @@
         <v>145.6967559538732</v>
       </c>
       <c r="F7" t="n">
-        <v>-23.09911244357193</v>
+        <v>-23.09911251855493</v>
       </c>
       <c r="G7" t="n">
-        <v>-22.86769729371632</v>
+        <v>-22.86769740813532</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.2314151498556085</v>
+        <v>-0.2314151104196071</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3876484017418055</v>
+        <v>0.3876483884843648</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05010161357958851</v>
+        <v>0.05010161347901203</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03275415245231897</v>
+        <v>0.03275415236087838</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1820910070215718</v>
+        <v>0.1820910069874905</v>
       </c>
       <c r="M7" t="n">
-        <v>0.07582459932667676</v>
+        <v>0.07582459930036846</v>
       </c>
       <c r="N7" t="n">
         <v>42.48</v>
@@ -1022,13 +1022,13 @@
         <v>0.6837185151779224</v>
       </c>
       <c r="U7" t="n">
-        <v>23.09911244357193</v>
+        <v>23.09911251855493</v>
       </c>
       <c r="V7" t="n">
         <v>145.6967559538732</v>
       </c>
       <c r="W7" t="n">
-        <v>0.4387971466836428</v>
+        <v>0.4387971294625707</v>
       </c>
       <c r="X7" t="n">
         <v>150</v>
@@ -1057,28 +1057,28 @@
         <v>146.0929806360993</v>
       </c>
       <c r="F8" t="n">
-        <v>-18.66684246464458</v>
+        <v>-18.66684246349118</v>
       </c>
       <c r="G8" t="n">
-        <v>-18.20520397000869</v>
+        <v>-18.20520396847115</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.4616384946358916</v>
+        <v>-0.4616384950200355</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5594740284256666</v>
+        <v>0.5594740285313878</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.01426685504111073</v>
+        <v>-0.014266855040285</v>
       </c>
       <c r="K8" t="n">
-        <v>5.256683566525653e-05</v>
+        <v>5.256683677596089e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2042275878729816</v>
+        <v>0.2042275878723098</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1684247406480293</v>
+        <v>0.1684247406479622</v>
       </c>
       <c r="N8" t="n">
         <v>47.6578947368421</v>
@@ -1102,13 +1102,13 @@
         <v>0.5932069948451405</v>
       </c>
       <c r="U8" t="n">
-        <v>18.66684246464458</v>
+        <v>18.66684246349118</v>
       </c>
       <c r="V8" t="n">
         <v>146.0929806360993</v>
       </c>
       <c r="W8" t="n">
-        <v>0.7162673030565403</v>
+        <v>0.716267303188715</v>
       </c>
       <c r="X8" t="n">
         <v>150</v>
@@ -1137,28 +1137,28 @@
         <v>142.6823158601125</v>
       </c>
       <c r="F9" t="n">
-        <v>-14.29371136212124</v>
+        <v>-14.29371154670618</v>
       </c>
       <c r="G9" t="n">
-        <v>-13.53538203551962</v>
+        <v>-13.53538230868667</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.7583293266016143</v>
+        <v>-0.7583292380195052</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7759262188003736</v>
+        <v>0.7759261595016067</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.006435892104501623</v>
+        <v>-0.006435892273452893</v>
       </c>
       <c r="K9" t="n">
-        <v>0.009593290434805134</v>
+        <v>0.009593290250577981</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1576142343859162</v>
+        <v>0.157614234560334</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1346784918613992</v>
+        <v>0.1346784918606544</v>
       </c>
       <c r="N9" t="n">
         <v>48.41666666666666</v>
@@ -1182,13 +1182,13 @@
         <v>0.5338967854882963</v>
       </c>
       <c r="U9" t="n">
-        <v>14.29371136212124</v>
+        <v>14.29371154670618</v>
       </c>
       <c r="V9" t="n">
         <v>142.6823158601125</v>
       </c>
       <c r="W9" t="n">
-        <v>1.218217422727478</v>
+        <v>1.218217400463936</v>
       </c>
       <c r="X9" t="n">
         <v>150</v>
@@ -1217,28 +1217,28 @@
         <v>143.9253087667818</v>
       </c>
       <c r="F10" t="n">
-        <v>-9.120716304781864</v>
+        <v>-9.120716812840842</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.412366102243347</v>
+        <v>-8.412366981061535</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.7083502025385177</v>
+        <v>-0.7083498317793069</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7573298702300415</v>
+        <v>0.7573295750320198</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.03866756597984806</v>
+        <v>-0.03866756635061364</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03895651735790623</v>
+        <v>0.03895651635039234</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1236216958935266</v>
+        <v>0.1236216958675985</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03560483246774942</v>
+        <v>0.03560483245837093</v>
       </c>
       <c r="N10" t="n">
         <v>45.61538461538461</v>
@@ -1262,13 +1262,13 @@
         <v>0.3351934096064119</v>
       </c>
       <c r="U10" t="n">
-        <v>9.120716304781864</v>
+        <v>9.120716812840842</v>
       </c>
       <c r="V10" t="n">
         <v>143.9253087667818</v>
       </c>
       <c r="W10" t="n">
-        <v>0.966951892094259</v>
+        <v>0.966951585007739</v>
       </c>
       <c r="X10" t="n">
         <v>150</v>
@@ -1297,28 +1297,28 @@
         <v>154.7435028591682</v>
       </c>
       <c r="F11" t="n">
-        <v>-5.343573974974126</v>
+        <v>-5.343573972970082</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.162115875665233</v>
+        <v>-4.162115872956935</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.181458099308893</v>
+        <v>-1.181458100013146</v>
       </c>
       <c r="I11" t="n">
-        <v>1.182429375639952</v>
+        <v>1.182429376239458</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.03325864267208597</v>
+        <v>-0.03325864267095317</v>
       </c>
       <c r="K11" t="n">
-        <v>0.08101462405800776</v>
+        <v>0.08101462406133512</v>
       </c>
       <c r="L11" t="n">
-        <v>0.09953798020508456</v>
+        <v>0.09953798020636286</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.02528736962991467</v>
+        <v>-0.02528736962941233</v>
       </c>
       <c r="N11" t="n">
         <v>47.07142857142857</v>
@@ -1342,13 +1342,13 @@
         <v>0.1015375585871199</v>
       </c>
       <c r="U11" t="n">
-        <v>5.343573974974126</v>
+        <v>5.343573972970082</v>
       </c>
       <c r="V11" t="n">
         <v>154.7435028591682</v>
       </c>
       <c r="W11" t="n">
-        <v>1.825906569796587</v>
+        <v>1.825906570282501</v>
       </c>
       <c r="X11" t="n">
         <v>150</v>
@@ -1377,28 +1377,28 @@
         <v>143.843397243388</v>
       </c>
       <c r="F12" t="n">
-        <v>1.552411664130949</v>
+        <v>1.552411782766466</v>
       </c>
       <c r="G12" t="n">
         <v>1.5</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05241166413094873</v>
+        <v>0.05241178276646646</v>
       </c>
       <c r="I12" t="n">
-        <v>1.86057861889532</v>
+        <v>1.860578649497529</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.01591373337023521</v>
+        <v>-0.01591373337336225</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.05035684051814891</v>
+        <v>-0.05035684051068304</v>
       </c>
       <c r="L12" t="n">
-        <v>0.148690445099633</v>
+        <v>0.1486904451036372</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.2757037780773466</v>
+        <v>-0.2757037781021378</v>
       </c>
       <c r="N12" t="n">
         <v>47.65909090909091</v>
@@ -1422,13 +1422,13 @@
         <v>0.1194706490579684</v>
       </c>
       <c r="U12" t="n">
-        <v>-1.552411664130949</v>
+        <v>-1.552411782766466</v>
       </c>
       <c r="V12" t="n">
         <v>143.843397243388</v>
       </c>
       <c r="W12" t="n">
-        <v>2.485243441391211</v>
+        <v>2.485243439777138</v>
       </c>
       <c r="X12" t="n">
         <v>150</v>
@@ -1457,28 +1457,28 @@
         <v>138.700000089292</v>
       </c>
       <c r="F13" t="n">
-        <v>7.069919947444666</v>
+        <v>7.069919336574399</v>
       </c>
       <c r="G13" t="n">
-        <v>6.883590571785827</v>
+        <v>6.8835898764683</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1863293756588388</v>
+        <v>0.1863294601060982</v>
       </c>
       <c r="I13" t="n">
-        <v>0.376637912856207</v>
+        <v>0.3766379984810153</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01327599485601901</v>
+        <v>0.01327599483060264</v>
       </c>
       <c r="K13" t="n">
-        <v>0.03888633124864151</v>
+        <v>0.03888633110646032</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06852864295011241</v>
+        <v>0.06852864282614647</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.8518828211593695</v>
+        <v>-0.8518828212546156</v>
       </c>
       <c r="N13" t="n">
         <v>48.88888888888889</v>
@@ -1502,13 +1502,13 @@
         <v>0.1842228062300293</v>
       </c>
       <c r="U13" t="n">
-        <v>-7.069919947444666</v>
+        <v>-7.069919336574399</v>
       </c>
       <c r="V13" t="n">
         <v>138.700000089292</v>
       </c>
       <c r="W13" t="n">
-        <v>0.5056284978306622</v>
+        <v>0.5056286383138993</v>
       </c>
       <c r="X13" t="n">
         <v>150</v>
@@ -1537,28 +1537,28 @@
         <v>143.6523179072681</v>
       </c>
       <c r="F14" t="n">
-        <v>12.10847141200103</v>
+        <v>12.10847141114355</v>
       </c>
       <c r="G14" t="n">
-        <v>12.29422759822129</v>
+        <v>12.29422759721204</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.1857561862202534</v>
+        <v>-0.1857561860684868</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3231224494185506</v>
+        <v>0.3231224495319467</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.02745837411404908</v>
+        <v>-0.0274583741138896</v>
       </c>
       <c r="K14" t="n">
-        <v>0.05551560329243601</v>
+        <v>0.05551560329240049</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1784140720963533</v>
+        <v>0.1784140720963928</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.7446202390312865</v>
+        <v>-0.7446202390313383</v>
       </c>
       <c r="N14" t="n">
         <v>50.55555555555556</v>
@@ -1582,13 +1582,13 @@
         <v>0.3241025414963999</v>
       </c>
       <c r="U14" t="n">
-        <v>-12.10847141200103</v>
+        <v>-12.10847141114355</v>
       </c>
       <c r="V14" t="n">
         <v>143.6523179072681</v>
       </c>
       <c r="W14" t="n">
-        <v>0.5028788664528886</v>
+        <v>0.502878866280621</v>
       </c>
       <c r="X14" t="n">
         <v>150</v>
@@ -1617,28 +1617,28 @@
         <v>148.6601551664974</v>
       </c>
       <c r="F15" t="n">
-        <v>16.75031492679813</v>
+        <v>16.75032507416565</v>
       </c>
       <c r="G15" t="n">
-        <v>17.00708776609422</v>
+        <v>17.00709991497616</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.2567728392960828</v>
+        <v>-0.2567748408105086</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3859214389856261</v>
+        <v>0.385921243079056</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.04432136010744852</v>
+        <v>-0.04432136296292871</v>
       </c>
       <c r="K15" t="n">
-        <v>0.04547967434125077</v>
+        <v>0.04547967551773822</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2474528505069631</v>
+        <v>0.2474528516748665</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.8776721963121349</v>
+        <v>-0.8776721966124841</v>
       </c>
       <c r="N15" t="n">
         <v>50.83333333333334</v>
@@ -1662,13 +1662,13 @@
         <v>0.3686150738088012</v>
       </c>
       <c r="U15" t="n">
-        <v>-16.75031492679813</v>
+        <v>-16.75032507416565</v>
       </c>
       <c r="V15" t="n">
         <v>148.6601551664974</v>
       </c>
       <c r="W15" t="n">
-        <v>0.5542076092949271</v>
+        <v>0.5542099307427022</v>
       </c>
       <c r="X15" t="n">
         <v>150</v>
@@ -1697,28 +1697,28 @@
         <v>150.8319662369358</v>
       </c>
       <c r="F16" t="n">
-        <v>21.71831543945255</v>
+        <v>21.71831614183326</v>
       </c>
       <c r="G16" t="n">
-        <v>22.14348712706708</v>
+        <v>22.14348801756694</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.4251716876145322</v>
+        <v>-0.4251718757336757</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5096929433058387</v>
+        <v>0.5096929693119789</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.02335598090780877</v>
+        <v>-0.02335598134508479</v>
       </c>
       <c r="K16" t="n">
-        <v>0.05588537496751437</v>
+        <v>0.05588537502251693</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3110301018785946</v>
+        <v>0.3110301021791119</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.7419608979990161</v>
+        <v>-0.7419608979414333</v>
       </c>
       <c r="N16" t="n">
         <v>48.84615384615385</v>
@@ -1742,13 +1742,13 @@
         <v>0.4485320732815442</v>
       </c>
       <c r="U16" t="n">
-        <v>-21.71831543945255</v>
+        <v>-21.71831614183326</v>
       </c>
       <c r="V16" t="n">
         <v>150.8319662369358</v>
       </c>
       <c r="W16" t="n">
-        <v>0.7637787284818964</v>
+        <v>0.7637789951446945</v>
       </c>
       <c r="X16" t="n">
         <v>150</v>
@@ -1777,28 +1777,28 @@
         <v>143.7883553135983</v>
       </c>
       <c r="F17" t="n">
-        <v>27.26310935198025</v>
+        <v>27.26310935082755</v>
       </c>
       <c r="G17" t="n">
-        <v>27.84518183438559</v>
+        <v>27.84518183297603</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.5820724824053453</v>
+        <v>-0.5820724821484816</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5931430694626536</v>
+        <v>0.5931430692064295</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.0612974820203005</v>
+        <v>-0.06129748201944876</v>
       </c>
       <c r="K17" t="n">
-        <v>0.04658691831678007</v>
+        <v>0.04658691831680391</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3259403728932894</v>
+        <v>0.3259403728924103</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.8539970442702532</v>
+        <v>-0.8539970442701444</v>
       </c>
       <c r="N17" t="n">
         <v>46.51612903225806</v>
@@ -1822,13 +1822,13 @@
         <v>0.5305079722323011</v>
       </c>
       <c r="U17" t="n">
-        <v>-27.26310935198025</v>
+        <v>-27.26310935082755</v>
       </c>
       <c r="V17" t="n">
         <v>143.7883553135983</v>
       </c>
       <c r="W17" t="n">
-        <v>0.8413749220801122</v>
+        <v>0.841374921757986</v>
       </c>
       <c r="X17" t="n">
         <v>150</v>
@@ -1857,28 +1857,28 @@
         <v>135.3589678855317</v>
       </c>
       <c r="F18" t="n">
-        <v>32.32192115925783</v>
+        <v>32.32192115786344</v>
       </c>
       <c r="G18" t="n">
-        <v>32.63277172314477</v>
+        <v>32.63277172154561</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.3108505638869364</v>
+        <v>-0.3108505636821651</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5025213871028297</v>
+        <v>0.5025213870762516</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.1217561147731056</v>
+        <v>-0.1217561147722157</v>
       </c>
       <c r="K18" t="n">
-        <v>0.05502678179629646</v>
+        <v>0.05502678179622002</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3452062768185413</v>
+        <v>0.3452062768179507</v>
       </c>
       <c r="M18" t="n">
-        <v>-1.094454920585505</v>
+        <v>-1.094454920585132</v>
       </c>
       <c r="N18" t="n">
         <v>49.79310344827586</v>
@@ -1902,13 +1902,13 @@
         <v>0.516502052626401</v>
       </c>
       <c r="U18" t="n">
-        <v>-32.32192115925783</v>
+        <v>-32.32192115786344</v>
       </c>
       <c r="V18" t="n">
         <v>135.3589678855317</v>
       </c>
       <c r="W18" t="n">
-        <v>0.6596647693064646</v>
+        <v>0.6596647691543884</v>
       </c>
       <c r="X18" t="n">
         <v>150</v>
@@ -1937,28 +1937,28 @@
         <v>131.0870319424762</v>
       </c>
       <c r="F19" t="n">
-        <v>37.39367795182483</v>
+        <v>37.39367645337885</v>
       </c>
       <c r="G19" t="n">
-        <v>37.69291482618024</v>
+        <v>37.69291322976678</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.2992368743554097</v>
+        <v>-0.2992367763879289</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4966060383537101</v>
+        <v>0.496606197216136</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.1357966588410348</v>
+        <v>-0.135796657874643</v>
       </c>
       <c r="K19" t="n">
-        <v>0.04690980861997954</v>
+        <v>0.04690980829693209</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4583556056195918</v>
+        <v>0.4583556053692763</v>
       </c>
       <c r="M19" t="n">
-        <v>-1.210430165702332</v>
+        <v>-1.210430165221513</v>
       </c>
       <c r="N19" t="n">
         <v>51.77777777777778</v>
@@ -1982,13 +1982,13 @@
         <v>0.6114415370924408</v>
       </c>
       <c r="U19" t="n">
-        <v>-37.39367795182483</v>
+        <v>-37.39367645337885</v>
       </c>
       <c r="V19" t="n">
         <v>131.0870319424762</v>
       </c>
       <c r="W19" t="n">
-        <v>0.6656426851918714</v>
+        <v>0.6656427305807584</v>
       </c>
       <c r="X19" t="n">
         <v>150</v>
@@ -2017,28 +2017,28 @@
         <v>126.1224052466467</v>
       </c>
       <c r="F20" t="n">
-        <v>41.99007509157562</v>
+        <v>41.9900750807606</v>
       </c>
       <c r="G20" t="n">
-        <v>42.43896635786599</v>
+        <v>42.43896634641209</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.4488912662903773</v>
+        <v>-0.4488912656514848</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4862541262588101</v>
+        <v>0.4862541269964119</v>
       </c>
       <c r="J20" t="n">
-        <v>0.02839667582403769</v>
+        <v>0.02839667582752187</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.08785030670031801</v>
+        <v>-0.0878503067043004</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3763885944287906</v>
+        <v>0.3763885944283148</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.9725091284440014</v>
+        <v>-0.9725091284425071</v>
       </c>
       <c r="N20" t="n">
         <v>50.23529411764706</v>
@@ -2062,13 +2062,13 @@
         <v>0.6549257812749021</v>
       </c>
       <c r="U20" t="n">
-        <v>-41.99007509157562</v>
+        <v>-41.9900750807606</v>
       </c>
       <c r="V20" t="n">
         <v>126.1224052466467</v>
       </c>
       <c r="W20" t="n">
-        <v>0.6752167148696241</v>
+        <v>0.6752167143927739</v>
       </c>
       <c r="X20" t="n">
         <v>150</v>
@@ -2097,28 +2097,28 @@
         <v>118.0782484415896</v>
       </c>
       <c r="F21" t="n">
-        <v>47.09170987612102</v>
+        <v>47.09172125896166</v>
       </c>
       <c r="G21" t="n">
-        <v>47.73905463312075</v>
+        <v>47.73906567743065</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.6473447569997333</v>
+        <v>-0.6473444184689929</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6856581995413937</v>
+        <v>0.6856568762238154</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.02555613080572433</v>
+        <v>-0.02555613453108284</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.1720418341380158</v>
+        <v>-0.1720418338806667</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4632577802597684</v>
+        <v>0.4632577809818458</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.6728642228887451</v>
+        <v>-0.6728642284239144</v>
       </c>
       <c r="N21" t="n">
         <v>54</v>
@@ -2142,13 +2142,13 @@
         <v>0.7277910573443104</v>
       </c>
       <c r="U21" t="n">
-        <v>-47.09170987612102</v>
+        <v>-47.09172125896166</v>
       </c>
       <c r="V21" t="n">
         <v>118.0782484415896</v>
       </c>
       <c r="W21" t="n">
-        <v>0.9497271107141589</v>
+        <v>0.949726050911346</v>
       </c>
       <c r="X21" t="n">
         <v>150</v>
@@ -2177,28 +2177,28 @@
         <v>122.9473899823183</v>
       </c>
       <c r="F22" t="n">
-        <v>52.60695573895696</v>
+        <v>52.60695635954847</v>
       </c>
       <c r="G22" t="n">
-        <v>53.27214888613017</v>
+        <v>53.27214946097494</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.6651931471732085</v>
+        <v>-0.665193101426467</v>
       </c>
       <c r="I22" t="n">
-        <v>1.089584723534875</v>
+        <v>1.089584609544183</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0197806590848728</v>
+        <v>0.01978065893323825</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.03995292088611772</v>
+        <v>-0.03995292076631074</v>
       </c>
       <c r="L22" t="n">
-        <v>0.5211534927391831</v>
+        <v>0.5211534927891041</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.8300447363980314</v>
+        <v>-0.8300447364201572</v>
       </c>
       <c r="N22" t="n">
         <v>54</v>
@@ -2222,13 +2222,13 @@
         <v>0.7043375399181374</v>
       </c>
       <c r="U22" t="n">
-        <v>-52.60695573895696</v>
+        <v>-52.60695635954847</v>
       </c>
       <c r="V22" t="n">
         <v>122.9473899823183</v>
       </c>
       <c r="W22" t="n">
-        <v>1.224022632214425</v>
+        <v>1.224022515507336</v>
       </c>
       <c r="X22" t="n">
         <v>150</v>
@@ -2257,28 +2257,28 @@
         <v>282.1314449933956</v>
       </c>
       <c r="F23" t="n">
-        <v>-46.93492602677847</v>
+        <v>-46.93491910805165</v>
       </c>
       <c r="G23" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8733693510968212</v>
+        <v>0.8733641763455479</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8733693510968212</v>
+        <v>0.8733641763455479</v>
       </c>
       <c r="J23" t="n">
-        <v>0.01406027532284071</v>
+        <v>0.01406027599742288</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.0001093917469543991</v>
+        <v>-0.0001093913936228546</v>
       </c>
       <c r="L23" t="n">
-        <v>0.7607337369178023</v>
+        <v>0.7607337399575038</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01398890069808741</v>
+        <v>0.01398890121576398</v>
       </c>
       <c r="N23" t="n">
         <v>42.75</v>
@@ -2302,13 +2302,13 @@
         <v>1.08993518724949</v>
       </c>
       <c r="U23" t="n">
-        <v>46.93492602677847</v>
+        <v>46.93491910805165</v>
       </c>
       <c r="V23" t="n">
         <v>282.1314449933956</v>
       </c>
       <c r="W23" t="n">
-        <v>0.9860733637119339</v>
+        <v>0.9860681653495107</v>
       </c>
       <c r="X23" t="n">
         <v>300</v>
@@ -2337,28 +2337,28 @@
         <v>276.3076809622183</v>
       </c>
       <c r="F24" t="n">
-        <v>-42.75086028348603</v>
+        <v>-42.7508603315772</v>
       </c>
       <c r="G24" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="H24" t="n">
-        <v>0.395497748503605</v>
+        <v>0.3954977719180029</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7357969760037886</v>
+        <v>0.7357970082808883</v>
       </c>
       <c r="J24" t="n">
-        <v>0.07369002078171789</v>
+        <v>0.07369002077590281</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1317401207247606</v>
+        <v>0.1317401207185604</v>
       </c>
       <c r="L24" t="n">
-        <v>0.6966394434899739</v>
+        <v>0.696639443463747</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2254614840409676</v>
+        <v>0.2254614840015997</v>
       </c>
       <c r="N24" t="n">
         <v>47.55</v>
@@ -2382,13 +2382,13 @@
         <v>1.172789787814781</v>
       </c>
       <c r="U24" t="n">
-        <v>42.75086028348603</v>
+        <v>42.7508603315772</v>
       </c>
       <c r="V24" t="n">
         <v>276.3076809622183</v>
       </c>
       <c r="W24" t="n">
-        <v>0.8795863771689213</v>
+        <v>0.8795864140520057</v>
       </c>
       <c r="X24" t="n">
         <v>300</v>
@@ -2417,28 +2417,28 @@
         <v>298.2011648812079</v>
       </c>
       <c r="F25" t="n">
-        <v>-37.14850087581814</v>
+        <v>-37.1485017590872</v>
       </c>
       <c r="G25" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5366875626944748</v>
+        <v>0.5366883353877794</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6458276658084444</v>
+        <v>0.645828558883655</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1946852346182356</v>
+        <v>0.1946852343453243</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.04108592485771163</v>
+        <v>-0.04108592505935386</v>
       </c>
       <c r="L25" t="n">
-        <v>0.7938894404577861</v>
+        <v>0.7938894398391361</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.08695446070375576</v>
+        <v>-0.08695446152721027</v>
       </c>
       <c r="N25" t="n">
         <v>38.46153846153846</v>
@@ -2462,13 +2462,13 @@
         <v>1.251322957121235</v>
       </c>
       <c r="U25" t="n">
-        <v>37.14850087581814</v>
+        <v>37.1485017590872</v>
       </c>
       <c r="V25" t="n">
         <v>298.2011648812079</v>
       </c>
       <c r="W25" t="n">
-        <v>0.8484004186463651</v>
+        <v>0.8484011377855171</v>
       </c>
       <c r="X25" t="n">
         <v>300</v>
@@ -2497,28 +2497,28 @@
         <v>300.1946893991096</v>
       </c>
       <c r="F26" t="n">
-        <v>-32.90966007515731</v>
+        <v>-32.90966007332056</v>
       </c>
       <c r="G26" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="H26" t="n">
-        <v>0.074220260061848</v>
+        <v>0.07422025904956127</v>
       </c>
       <c r="I26" t="n">
-        <v>0.7081083733908951</v>
+        <v>0.7081083730586435</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1105583463860622</v>
+        <v>0.110558346388099</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.04622808247790322</v>
+        <v>-0.04622808247643597</v>
       </c>
       <c r="L26" t="n">
-        <v>0.609168361650643</v>
+        <v>0.6091683616517871</v>
       </c>
       <c r="M26" t="n">
-        <v>0.187192851658365</v>
+        <v>0.187192851659002</v>
       </c>
       <c r="N26" t="n">
         <v>36.475</v>
@@ -2542,13 +2542,13 @@
         <v>1.112719115185421</v>
       </c>
       <c r="U26" t="n">
-        <v>32.90966007515731</v>
+        <v>32.90966007332056</v>
       </c>
       <c r="V26" t="n">
         <v>300.1946893991096</v>
       </c>
       <c r="W26" t="n">
-        <v>0.9488223740826859</v>
+        <v>0.9488223740156446</v>
       </c>
       <c r="X26" t="n">
         <v>300</v>
@@ -2577,28 +2577,28 @@
         <v>298.9996153512935</v>
       </c>
       <c r="F27" t="n">
-        <v>-28.40271110263805</v>
+        <v>-28.4027111034218</v>
       </c>
       <c r="G27" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474833</v>
       </c>
       <c r="H27" t="n">
-        <v>0.007244660865015309</v>
+        <v>0.007244661326527154</v>
       </c>
       <c r="I27" t="n">
-        <v>0.4641428508264369</v>
+        <v>0.4641428509045131</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.02283912608334386</v>
+        <v>-0.02283912608407085</v>
       </c>
       <c r="K27" t="n">
-        <v>0.03468214697681155</v>
+        <v>0.03468214697612271</v>
       </c>
       <c r="L27" t="n">
-        <v>0.6284210013180891</v>
+        <v>0.6284210013181294</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.01415158154565441</v>
+        <v>-0.01415158154566537</v>
       </c>
       <c r="N27" t="n">
         <v>37.05263157894737</v>
@@ -2622,13 +2622,13 @@
         <v>0.9857028846286122</v>
       </c>
       <c r="U27" t="n">
-        <v>28.40271110263805</v>
+        <v>28.4027111034218</v>
       </c>
       <c r="V27" t="n">
         <v>298.9996153512935</v>
       </c>
       <c r="W27" t="n">
-        <v>0.6302981204492113</v>
+        <v>0.6302981204811503</v>
       </c>
       <c r="X27" t="n">
         <v>300</v>
@@ -2657,28 +2657,28 @@
         <v>293.2939718175722</v>
       </c>
       <c r="F28" t="n">
-        <v>-23.09168212559143</v>
+        <v>-23.09168219581312</v>
       </c>
       <c r="G28" t="n">
-        <v>-22.86769729371632</v>
+        <v>-22.86769740813532</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.2239848318751142</v>
+        <v>-0.2239847876778039</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5081624941812977</v>
+        <v>0.5081624969854217</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.05053953512833616</v>
+        <v>-0.05053953521979724</v>
       </c>
       <c r="K28" t="n">
-        <v>0.1155893576373316</v>
+        <v>0.1155893575536531</v>
       </c>
       <c r="L28" t="n">
-        <v>0.5417267918296392</v>
+        <v>0.5417267918819423</v>
       </c>
       <c r="M28" t="n">
-        <v>0.08669261625152347</v>
+        <v>0.08669261623720541</v>
       </c>
       <c r="N28" t="n">
         <v>36.6</v>
@@ -2702,13 +2702,13 @@
         <v>0.8533613029407852</v>
       </c>
       <c r="U28" t="n">
-        <v>23.09168212559143</v>
+        <v>23.09168219581312</v>
       </c>
       <c r="V28" t="n">
         <v>293.2939718175722</v>
       </c>
       <c r="W28" t="n">
-        <v>0.706942731365851</v>
+        <v>0.7069427216806101</v>
       </c>
       <c r="X28" t="n">
         <v>300</v>
@@ -2737,28 +2737,28 @@
         <v>286.899631130323</v>
       </c>
       <c r="F29" t="n">
-        <v>-18.47344808111286</v>
+        <v>-18.47344807986214</v>
       </c>
       <c r="G29" t="n">
-        <v>-18.20520397000869</v>
+        <v>-18.20520396847115</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.2682441111041754</v>
+        <v>-0.2682441113909929</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4853222574629803</v>
+        <v>0.4853222572726941</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.05419809655860675</v>
+        <v>-0.05419809655752739</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0310098466270247</v>
+        <v>0.03100984662845073</v>
       </c>
       <c r="L29" t="n">
-        <v>0.2847661434357741</v>
+        <v>0.284766143436182</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.09982036546787479</v>
+        <v>-0.0998203654680089</v>
       </c>
       <c r="N29" t="n">
         <v>48.16279069767442</v>
@@ -2782,13 +2782,13 @@
         <v>0.5621696834128613</v>
       </c>
       <c r="U29" t="n">
-        <v>18.47344808111286</v>
+        <v>18.47344807986214</v>
       </c>
       <c r="V29" t="n">
         <v>286.899631130323</v>
       </c>
       <c r="W29" t="n">
-        <v>0.6043444335663912</v>
+        <v>0.6043444333932844</v>
       </c>
       <c r="X29" t="n">
         <v>300</v>
@@ -2817,28 +2817,28 @@
         <v>296.0679455699948</v>
       </c>
       <c r="F30" t="n">
-        <v>-13.99640114551173</v>
+        <v>-13.99640134390451</v>
       </c>
       <c r="G30" t="n">
-        <v>-13.53538203551962</v>
+        <v>-13.53538230868667</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.4610191099921063</v>
+        <v>-0.4610190352178438</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7396908341745632</v>
+        <v>0.7396908953252481</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.04355263520130179</v>
+        <v>-0.04355263542881617</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.004874720896188925</v>
+        <v>-0.004874721140595564</v>
       </c>
       <c r="L30" t="n">
-        <v>0.2716815468823627</v>
+        <v>0.2716815470204998</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.2553837022578804</v>
+        <v>-0.2553837022222316</v>
       </c>
       <c r="N30" t="n">
         <v>46.68627450980392</v>
@@ -2862,13 +2862,13 @@
         <v>0.5154972514551087</v>
       </c>
       <c r="U30" t="n">
-        <v>13.99640114551173</v>
+        <v>13.99640134390451</v>
       </c>
       <c r="V30" t="n">
         <v>296.0679455699948</v>
       </c>
       <c r="W30" t="n">
-        <v>0.9069690279274712</v>
+        <v>0.9069691145129969</v>
       </c>
       <c r="X30" t="n">
         <v>300</v>
@@ -2897,28 +2897,28 @@
         <v>299.0674833084265</v>
       </c>
       <c r="F31" t="n">
-        <v>-8.969402357860417</v>
+        <v>-8.969402763395184</v>
       </c>
       <c r="G31" t="n">
-        <v>-8.412366102243347</v>
+        <v>-8.412366981061535</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.5570362556170703</v>
+        <v>-0.5570357823336496</v>
       </c>
       <c r="I31" t="n">
-        <v>1.32795776257963</v>
+        <v>1.327957878658198</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.02426535936635359</v>
+        <v>-0.02426535956660453</v>
       </c>
       <c r="K31" t="n">
-        <v>0.01361998942139454</v>
+        <v>0.01361998889848706</v>
       </c>
       <c r="L31" t="n">
-        <v>0.1875675630026245</v>
+        <v>0.1875675635331435</v>
       </c>
       <c r="M31" t="n">
-        <v>0.03133360191809485</v>
+        <v>0.03133360193571327</v>
       </c>
       <c r="N31" t="n">
         <v>40.98148148148148</v>
@@ -2942,13 +2942,13 @@
         <v>0.3539828807317915</v>
       </c>
       <c r="U31" t="n">
-        <v>8.969402357860417</v>
+        <v>8.969402763395184</v>
       </c>
       <c r="V31" t="n">
         <v>299.0674833084265</v>
       </c>
       <c r="W31" t="n">
-        <v>1.454443747176531</v>
+        <v>1.454443926604007</v>
       </c>
       <c r="X31" t="n">
         <v>300</v>
@@ -2977,28 +2977,28 @@
         <v>304.5940113473088</v>
       </c>
       <c r="F32" t="n">
-        <v>-5.19150477040694</v>
+        <v>-5.191504768709333</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.162115875665233</v>
+        <v>-4.162115872956935</v>
       </c>
       <c r="H32" t="n">
-        <v>-1.029388894741707</v>
+        <v>-1.029388895752398</v>
       </c>
       <c r="I32" t="n">
-        <v>1.885635930579379</v>
+        <v>1.885635929927523</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0177449096651358</v>
+        <v>0.01774490966570557</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.03016782712087088</v>
+        <v>-0.03016782711919239</v>
       </c>
       <c r="L32" t="n">
-        <v>0.1773502490312857</v>
+        <v>0.1773502490288794</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.01705806397181001</v>
+        <v>-0.01705806397197985</v>
       </c>
       <c r="N32" t="n">
         <v>44.9622641509434</v>
@@ -3022,13 +3022,13 @@
         <v>0.1952380765860118</v>
       </c>
       <c r="U32" t="n">
-        <v>5.19150477040694</v>
+        <v>5.191504768709333</v>
       </c>
       <c r="V32" t="n">
         <v>304.5940113473088</v>
       </c>
       <c r="W32" t="n">
-        <v>2.027256804342052</v>
+        <v>2.027256803735556</v>
       </c>
       <c r="X32" t="n">
         <v>300</v>
@@ -3057,28 +3057,28 @@
         <v>305.8083465088318</v>
       </c>
       <c r="F33" t="n">
-        <v>1.216664894270348</v>
+        <v>1.216665028957058</v>
       </c>
       <c r="G33" t="n">
         <v>1.5</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.2833351057296525</v>
+        <v>-0.2833349710429423</v>
       </c>
       <c r="I33" t="n">
-        <v>1.945993436116028</v>
+        <v>1.945993434613854</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.01052766526342123</v>
+        <v>-0.0105276652770945</v>
       </c>
       <c r="K33" t="n">
-        <v>0.01417473813894603</v>
+        <v>0.01417473814721063</v>
       </c>
       <c r="L33" t="n">
-        <v>0.1399696692677925</v>
+        <v>0.1399696692702508</v>
       </c>
       <c r="M33" t="n">
-        <v>0.08507693578381945</v>
+        <v>0.08507693578464876</v>
       </c>
       <c r="N33" t="n">
         <v>52.58461538461538</v>
@@ -3102,13 +3102,13 @@
         <v>0.1079635552875494</v>
       </c>
       <c r="U33" t="n">
-        <v>-1.216664894270348</v>
+        <v>-1.216665028957058</v>
       </c>
       <c r="V33" t="n">
         <v>305.8083465088318</v>
       </c>
       <c r="W33" t="n">
-        <v>2.577994716381523</v>
+        <v>2.57799472044338</v>
       </c>
       <c r="X33" t="n">
         <v>300</v>
@@ -3137,28 +3137,28 @@
         <v>302.5910329652459</v>
       </c>
       <c r="F34" t="n">
-        <v>6.244122084371743</v>
+        <v>6.244121355367938</v>
       </c>
       <c r="G34" t="n">
-        <v>6.883590571785826</v>
+        <v>6.8835898764683</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.639468487414084</v>
+        <v>-0.6394685211003616</v>
       </c>
       <c r="I34" t="n">
-        <v>1.011898009778455</v>
+        <v>1.011898240152284</v>
       </c>
       <c r="J34" t="n">
-        <v>0.009403499615222757</v>
+        <v>0.00940349951439245</v>
       </c>
       <c r="K34" t="n">
-        <v>0.01256595322673762</v>
+        <v>0.01256595290087479</v>
       </c>
       <c r="L34" t="n">
-        <v>0.1207428172995502</v>
+        <v>0.1207428176842393</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.1228551001567104</v>
+        <v>-0.1228551001982988</v>
       </c>
       <c r="N34" t="n">
         <v>49.51162790697674</v>
@@ -3182,13 +3182,13 @@
         <v>0.1858153722866048</v>
       </c>
       <c r="U34" t="n">
-        <v>-6.244122084371743</v>
+        <v>-6.244121355367938</v>
       </c>
       <c r="V34" t="n">
         <v>302.5910329652459</v>
       </c>
       <c r="W34" t="n">
-        <v>1.211684147385178</v>
+        <v>1.211684412291339</v>
       </c>
       <c r="X34" t="n">
         <v>300</v>
@@ -3217,28 +3217,28 @@
         <v>292.5742904425684</v>
       </c>
       <c r="F35" t="n">
-        <v>11.2186492177342</v>
+        <v>11.21864921660144</v>
       </c>
       <c r="G35" t="n">
-        <v>12.29422759822129</v>
+        <v>12.29422759721204</v>
       </c>
       <c r="H35" t="n">
-        <v>-1.075578380487085</v>
+        <v>-1.075578380610603</v>
       </c>
       <c r="I35" t="n">
-        <v>1.148679662808801</v>
+        <v>1.148679663157202</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.03725475564515179</v>
+        <v>-0.0372547556451703</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.1034055981068148</v>
+        <v>-0.1034055981074914</v>
       </c>
       <c r="L35" t="n">
-        <v>0.3332399627546235</v>
+        <v>0.3332399627551633</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.1035427912389268</v>
+        <v>-0.1035427912385511</v>
       </c>
       <c r="N35" t="n">
         <v>50.41860465116279</v>
@@ -3262,13 +3262,13 @@
         <v>0.4059653456073719</v>
       </c>
       <c r="U35" t="n">
-        <v>-11.2186492177342</v>
+        <v>-11.21864921660144</v>
       </c>
       <c r="V35" t="n">
         <v>292.5742904425684</v>
       </c>
       <c r="W35" t="n">
-        <v>1.386658128930158</v>
+        <v>1.386658129280108</v>
       </c>
       <c r="X35" t="n">
         <v>300</v>
@@ -3297,28 +3297,28 @@
         <v>288.4255843386599</v>
       </c>
       <c r="F36" t="n">
-        <v>15.62953659777376</v>
+        <v>15.62955112359276</v>
       </c>
       <c r="G36" t="n">
-        <v>17.00708776609422</v>
+        <v>17.00709991497616</v>
       </c>
       <c r="H36" t="n">
-        <v>-1.377551168320455</v>
+        <v>-1.377548791383406</v>
       </c>
       <c r="I36" t="n">
-        <v>1.377551168320455</v>
+        <v>1.377548791383406</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.1025755788339138</v>
+        <v>-0.1025755827345291</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.1157248382516527</v>
+        <v>-0.1157248288907109</v>
       </c>
       <c r="L36" t="n">
-        <v>0.450000490258778</v>
+        <v>0.4500004869203212</v>
       </c>
       <c r="M36" t="n">
-        <v>0.07076718716044904</v>
+        <v>0.070767179875223</v>
       </c>
       <c r="N36" t="n">
         <v>54.95348837209303</v>
@@ -3342,13 +3342,13 @@
         <v>0.4879366626607542</v>
       </c>
       <c r="U36" t="n">
-        <v>-15.62953659777376</v>
+        <v>-15.62955112359276</v>
       </c>
       <c r="V36" t="n">
         <v>288.4255843386599</v>
       </c>
       <c r="W36" t="n">
-        <v>1.624975935756974</v>
+        <v>1.624972962218431</v>
       </c>
       <c r="X36" t="n">
         <v>300</v>
@@ -3377,28 +3377,28 @@
         <v>293.151781139854</v>
       </c>
       <c r="F37" t="n">
-        <v>20.76684606580588</v>
+        <v>20.76684693742288</v>
       </c>
       <c r="G37" t="n">
-        <v>22.14348712706708</v>
+        <v>22.14348801756694</v>
       </c>
       <c r="H37" t="n">
-        <v>-1.376641061261203</v>
+        <v>-1.376641080144061</v>
       </c>
       <c r="I37" t="n">
-        <v>1.408813378158523</v>
+        <v>1.408813340182372</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.1203408981326168</v>
+        <v>-0.1203408985330198</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.07116604215197211</v>
+        <v>-0.07116604167224151</v>
       </c>
       <c r="L37" t="n">
-        <v>0.6137743576566039</v>
+        <v>0.6137743580313074</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.01246444287572768</v>
+        <v>-0.01246444336085525</v>
       </c>
       <c r="N37" t="n">
         <v>46.625</v>
@@ -3422,13 +3422,13 @@
         <v>0.6752261130395673</v>
       </c>
       <c r="U37" t="n">
-        <v>-20.76684606580588</v>
+        <v>-20.76684693742288</v>
       </c>
       <c r="V37" t="n">
         <v>293.151781139854</v>
       </c>
       <c r="W37" t="n">
-        <v>1.634192719054521</v>
+        <v>1.634192708805627</v>
       </c>
       <c r="X37" t="n">
         <v>300</v>
@@ -3457,28 +3457,28 @@
         <v>300.5650223176493</v>
       </c>
       <c r="F38" t="n">
-        <v>26.17143705403848</v>
+        <v>26.17143705271793</v>
       </c>
       <c r="G38" t="n">
-        <v>27.84518183438559</v>
+        <v>27.84518183297603</v>
       </c>
       <c r="H38" t="n">
-        <v>-1.67374478034711</v>
+        <v>-1.673744780258102</v>
       </c>
       <c r="I38" t="n">
-        <v>1.67374478034711</v>
+        <v>1.673744780258102</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.006769004259628126</v>
+        <v>-0.006769004259269865</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.1721295364545341</v>
+        <v>-0.1721295364551691</v>
       </c>
       <c r="L38" t="n">
-        <v>0.5138919054152095</v>
+        <v>0.5138919054148975</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.0943843541556562</v>
+        <v>-0.09438435415501752</v>
       </c>
       <c r="N38" t="n">
         <v>39.55263157894737</v>
@@ -3502,13 +3502,13 @@
         <v>0.7448168214579457</v>
       </c>
       <c r="U38" t="n">
-        <v>-26.17143705403848</v>
+        <v>-26.17143705271793</v>
       </c>
       <c r="V38" t="n">
         <v>300.5650223176493</v>
       </c>
       <c r="W38" t="n">
-        <v>1.851302961682066</v>
+        <v>1.851302961724282</v>
       </c>
       <c r="X38" t="n">
         <v>300</v>
@@ -3537,28 +3537,28 @@
         <v>300.5142412075955</v>
       </c>
       <c r="F39" t="n">
-        <v>30.80740197042355</v>
+        <v>30.8074019689025</v>
       </c>
       <c r="G39" t="n">
-        <v>32.63277172314477</v>
+        <v>32.63277172154561</v>
       </c>
       <c r="H39" t="n">
-        <v>-1.825369752721217</v>
+        <v>-1.825369752643111</v>
       </c>
       <c r="I39" t="n">
-        <v>1.825369752721217</v>
+        <v>1.825369752643111</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.0125915641896775</v>
+        <v>-0.01259156418950114</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.2134241735108457</v>
+        <v>-0.2134241735118776</v>
       </c>
       <c r="L39" t="n">
-        <v>0.5721731890189843</v>
+        <v>0.5721731890192505</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0006858726195234038</v>
+        <v>0.0006858726204309806</v>
       </c>
       <c r="N39" t="n">
         <v>40.38461538461539</v>
@@ -3582,13 +3582,13 @@
         <v>0.8060913291126601</v>
       </c>
       <c r="U39" t="n">
-        <v>-30.80740197042355</v>
+        <v>-30.8074019689025</v>
       </c>
       <c r="V39" t="n">
         <v>300.5142412075955</v>
       </c>
       <c r="W39" t="n">
-        <v>2.007911523171417</v>
+        <v>2.007911523191156</v>
       </c>
       <c r="X39" t="n">
         <v>300</v>
@@ -3617,28 +3617,28 @@
         <v>298.8507481288515</v>
       </c>
       <c r="F40" t="n">
-        <v>35.67442551955508</v>
+        <v>35.67442404085923</v>
       </c>
       <c r="G40" t="n">
-        <v>37.69291482618024</v>
+        <v>37.69291322976678</v>
       </c>
       <c r="H40" t="n">
-        <v>-2.018489306625162</v>
+        <v>-2.018489188907552</v>
       </c>
       <c r="I40" t="n">
-        <v>2.068600290664688</v>
+        <v>2.068600343417675</v>
       </c>
       <c r="J40" t="n">
-        <v>0.02680878100041737</v>
+        <v>0.02680878099809791</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.1869827998360498</v>
+        <v>-0.1869828008890128</v>
       </c>
       <c r="L40" t="n">
-        <v>0.6426056288924948</v>
+        <v>0.6426056296365804</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0565259691094327</v>
+        <v>0.05652596971961629</v>
       </c>
       <c r="N40" t="n">
         <v>40.80487804878049</v>
@@ -3662,13 +3662,13 @@
         <v>0.890230563603741</v>
       </c>
       <c r="U40" t="n">
-        <v>-35.67442551955508</v>
+        <v>-35.67442404085923</v>
       </c>
       <c r="V40" t="n">
         <v>298.8507481288515</v>
       </c>
       <c r="W40" t="n">
-        <v>2.321540578281697</v>
+        <v>2.321540661356444</v>
       </c>
       <c r="X40" t="n">
         <v>300</v>
@@ -3697,28 +3697,28 @@
         <v>291.3194430395552</v>
       </c>
       <c r="F41" t="n">
-        <v>40.85819166407721</v>
+        <v>40.85819165571962</v>
       </c>
       <c r="G41" t="n">
-        <v>42.43896635786599</v>
+        <v>42.43896634641209</v>
       </c>
       <c r="H41" t="n">
-        <v>-1.580774693788783</v>
+        <v>-1.580774690692473</v>
       </c>
       <c r="I41" t="n">
-        <v>1.678228513169285</v>
+        <v>1.678228511363407</v>
       </c>
       <c r="J41" t="n">
-        <v>0.0324031463219934</v>
+        <v>0.03240314631986508</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.1232018424056934</v>
+        <v>-0.1232018424076857</v>
       </c>
       <c r="L41" t="n">
-        <v>0.8182623247192701</v>
+        <v>0.818262324715628</v>
       </c>
       <c r="M41" t="n">
-        <v>0.02128508329137909</v>
+        <v>0.0212850832937034</v>
       </c>
       <c r="N41" t="n">
         <v>40.92307692307692</v>
@@ -3742,13 +3742,13 @@
         <v>0.9555308409445102</v>
       </c>
       <c r="U41" t="n">
-        <v>-40.85819166407721</v>
+        <v>-40.85819165571962</v>
       </c>
       <c r="V41" t="n">
         <v>291.3194430395552</v>
       </c>
       <c r="W41" t="n">
-        <v>2.060396815544262</v>
+        <v>2.060396813346571</v>
       </c>
       <c r="X41" t="n">
         <v>300</v>
@@ -3777,28 +3777,28 @@
         <v>283.2742781834235</v>
       </c>
       <c r="F42" t="n">
-        <v>46.42742413481114</v>
+        <v>46.42743044895735</v>
       </c>
       <c r="G42" t="n">
-        <v>47.73905463312075</v>
+        <v>47.73906567743065</v>
       </c>
       <c r="H42" t="n">
-        <v>-1.31163049830961</v>
+        <v>-1.311635228473311</v>
       </c>
       <c r="I42" t="n">
-        <v>1.528584776107246</v>
+        <v>1.5285881845961</v>
       </c>
       <c r="J42" t="n">
-        <v>0.2635233740733511</v>
+        <v>0.2635233766176294</v>
       </c>
       <c r="K42" t="n">
-        <v>0.04227960928274752</v>
+        <v>0.04227961009495346</v>
       </c>
       <c r="L42" t="n">
-        <v>0.8758934498876307</v>
+        <v>0.8758934496732764</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.117203181035673</v>
+        <v>-0.1172031709878869</v>
       </c>
       <c r="N42" t="n">
         <v>42.75</v>
@@ -3822,13 +3822,13 @@
         <v>1.126876633827281</v>
       </c>
       <c r="U42" t="n">
-        <v>-46.42742413481114</v>
+        <v>-46.42743044895735</v>
       </c>
       <c r="V42" t="n">
         <v>283.2742781834235</v>
       </c>
       <c r="W42" t="n">
-        <v>1.718553414569798</v>
+        <v>1.718555041509171</v>
       </c>
       <c r="X42" t="n">
         <v>300</v>
@@ -3857,28 +3857,28 @@
         <v>282.9246741793632</v>
       </c>
       <c r="F43" t="n">
-        <v>51.75890279397108</v>
+        <v>51.75890312305764</v>
       </c>
       <c r="G43" t="n">
-        <v>53.27214888613017</v>
+        <v>53.27214946097494</v>
       </c>
       <c r="H43" t="n">
-        <v>-1.513246092159086</v>
+        <v>-1.513246337917301</v>
       </c>
       <c r="I43" t="n">
-        <v>1.529046336092734</v>
+        <v>1.529046441561518</v>
       </c>
       <c r="J43" t="n">
-        <v>0.2646636184300135</v>
+        <v>0.2646636185068563</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.03026098604568267</v>
+        <v>-0.03026098602758148</v>
       </c>
       <c r="L43" t="n">
-        <v>0.8152690024956569</v>
+        <v>0.815269002409836</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.004057520287044962</v>
+        <v>-0.004057519864899643</v>
       </c>
       <c r="N43" t="n">
         <v>42.75</v>
@@ -3902,13 +3902,13 @@
         <v>0.9499968716010971</v>
       </c>
       <c r="U43" t="n">
-        <v>-51.75890279397108</v>
+        <v>-51.75890312305764</v>
       </c>
       <c r="V43" t="n">
         <v>282.9246741793632</v>
       </c>
       <c r="W43" t="n">
-        <v>1.773384659827751</v>
+        <v>1.773384787282833</v>
       </c>
       <c r="X43" t="n">
         <v>300</v>
@@ -3937,28 +3937,28 @@
         <v>425.4673813586569</v>
       </c>
       <c r="F44" t="n">
-        <v>-46.71182169024863</v>
+        <v>-46.71182596641729</v>
       </c>
       <c r="G44" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="H44" t="n">
-        <v>1.096473687626659</v>
+        <v>1.096457317979907</v>
       </c>
       <c r="I44" t="n">
-        <v>1.248842287271116</v>
+        <v>1.248829816267737</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.4684857108686303</v>
+        <v>-0.4684857132567529</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.427834018772596</v>
+        <v>-0.427834021760524</v>
       </c>
       <c r="L44" t="n">
-        <v>0.8942129503594758</v>
+        <v>0.8942129542076234</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.1008079226909359</v>
+        <v>-0.1008079526939291</v>
       </c>
       <c r="N44" t="n">
         <v>25</v>
@@ -3982,13 +3982,13 @@
         <v>1.062809356236053</v>
       </c>
       <c r="U44" t="n">
-        <v>46.71182169024863</v>
+        <v>46.71182596641729</v>
       </c>
       <c r="V44" t="n">
         <v>425.4673813586569</v>
       </c>
       <c r="W44" t="n">
-        <v>1.342006155033635</v>
+        <v>1.341993120192763</v>
       </c>
       <c r="X44" t="n">
         <v>450</v>
@@ -4017,28 +4017,28 @@
         <v>436.7319302564247</v>
       </c>
       <c r="F45" t="n">
-        <v>-42.04142556603469</v>
+        <v>-42.04142554792701</v>
       </c>
       <c r="G45" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="H45" t="n">
-        <v>1.104932465954947</v>
+        <v>1.104932555568193</v>
       </c>
       <c r="I45" t="n">
-        <v>1.157612425568189</v>
+        <v>1.157612476119059</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.4159669209531343</v>
+        <v>-0.4159669208986391</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.4832216404406614</v>
+        <v>-0.4832216403865486</v>
       </c>
       <c r="L45" t="n">
-        <v>1.019201271183552</v>
+        <v>1.0192012711284</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.1818891113319755</v>
+        <v>-0.1818891111556597</v>
       </c>
       <c r="N45" t="n">
         <v>26.53846153846154</v>
@@ -4062,13 +4062,13 @@
         <v>1.078482727710276</v>
       </c>
       <c r="U45" t="n">
-        <v>42.04142556603469</v>
+        <v>42.04142554792701</v>
       </c>
       <c r="V45" t="n">
         <v>436.7319302564247</v>
       </c>
       <c r="W45" t="n">
-        <v>1.447289017439878</v>
+        <v>1.447289074981073</v>
       </c>
       <c r="X45" t="n">
         <v>450</v>
@@ -4097,28 +4097,28 @@
         <v>435.6694188349148</v>
       </c>
       <c r="F46" t="n">
-        <v>-36.71927966515975</v>
+        <v>-36.71927935785021</v>
       </c>
       <c r="G46" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9659087733528576</v>
+        <v>0.9659107366247639</v>
       </c>
       <c r="I46" t="n">
-        <v>1.06773407612733</v>
+        <v>1.067735381094518</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.3305207884122405</v>
+        <v>-0.3305207870553795</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.1392637516659625</v>
+        <v>-0.139263750705296</v>
       </c>
       <c r="L46" t="n">
-        <v>0.7337444459175471</v>
+        <v>0.7337444453504993</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.2220435132613777</v>
+        <v>-0.2220435110180713</v>
       </c>
       <c r="N46" t="n">
         <v>26.89473684210526</v>
@@ -4142,13 +4142,13 @@
         <v>0.9121166217149517</v>
       </c>
       <c r="U46" t="n">
-        <v>36.71927966515975</v>
+        <v>36.71927935785021</v>
       </c>
       <c r="V46" t="n">
         <v>435.6694188349148</v>
       </c>
       <c r="W46" t="n">
-        <v>1.217057486312481</v>
+        <v>1.217059061727251</v>
       </c>
       <c r="X46" t="n">
         <v>450</v>
@@ -4177,28 +4177,28 @@
         <v>426.6979702528266</v>
       </c>
       <c r="F47" t="n">
-        <v>-31.73428750285665</v>
+        <v>-31.73428750420794</v>
       </c>
       <c r="G47" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="H47" t="n">
-        <v>1.249592832362511</v>
+        <v>1.24959282816218</v>
       </c>
       <c r="I47" t="n">
-        <v>1.382601456577617</v>
+        <v>1.382601454006167</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.1952618523259332</v>
+        <v>-0.1952618523310178</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.04544997893237432</v>
+        <v>-0.04544997893597839</v>
       </c>
       <c r="L47" t="n">
-        <v>0.4779202760546493</v>
+        <v>0.477920276055546</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.2241267959724438</v>
+        <v>-0.2241267959744529</v>
       </c>
       <c r="N47" t="n">
         <v>16.67741935483871</v>
@@ -4222,13 +4222,13 @@
         <v>0.874379786178241</v>
       </c>
       <c r="U47" t="n">
-        <v>31.73428750285665</v>
+        <v>31.73428750420794</v>
       </c>
       <c r="V47" t="n">
         <v>426.6979702528266</v>
       </c>
       <c r="W47" t="n">
-        <v>1.659068046167624</v>
+        <v>1.65906804246129</v>
       </c>
       <c r="X47" t="n">
         <v>450</v>
@@ -4257,28 +4257,28 @@
         <v>423.3185784806726</v>
       </c>
       <c r="F48" t="n">
-        <v>-27.59858995891432</v>
+        <v>-27.59858995853943</v>
       </c>
       <c r="G48" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474833</v>
       </c>
       <c r="H48" t="n">
-        <v>0.8113658045887528</v>
+        <v>0.8113658062088959</v>
       </c>
       <c r="I48" t="n">
-        <v>1.246089855301162</v>
+        <v>1.246089856292062</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.02725518447715966</v>
+        <v>-0.02725518447532711</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.09772034005304248</v>
+        <v>-0.09772034005146614</v>
       </c>
       <c r="L48" t="n">
-        <v>0.3924589334009873</v>
+        <v>0.3924589334005473</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.1187576272757958</v>
+        <v>-0.1187576272753962</v>
       </c>
       <c r="N48" t="n">
         <v>19.09090909090909</v>
@@ -4302,13 +4302,13 @@
         <v>0.7341641232651233</v>
       </c>
       <c r="U48" t="n">
-        <v>27.59858995891432</v>
+        <v>27.59858995853943</v>
       </c>
       <c r="V48" t="n">
         <v>423.3185784806726</v>
       </c>
       <c r="W48" t="n">
-        <v>1.380012720789045</v>
+        <v>1.380012722246494</v>
       </c>
       <c r="X48" t="n">
         <v>450</v>
@@ -4337,28 +4337,28 @@
         <v>428.5519140018058</v>
       </c>
       <c r="F49" t="n">
-        <v>-21.86662012136432</v>
+        <v>-21.86662005176779</v>
       </c>
       <c r="G49" t="n">
-        <v>-22.86769729371631</v>
+        <v>-22.86769740813532</v>
       </c>
       <c r="H49" t="n">
-        <v>1.001077172351995</v>
+        <v>1.001077356367526</v>
       </c>
       <c r="I49" t="n">
-        <v>1.256003111460759</v>
+        <v>1.256003276253683</v>
       </c>
       <c r="J49" t="n">
-        <v>0.02746575234435689</v>
+        <v>0.02746575256461753</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.1943724327424832</v>
+        <v>-0.1943724325414673</v>
       </c>
       <c r="L49" t="n">
-        <v>0.3171403520432448</v>
+        <v>0.3171403519734515</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.1915471297581381</v>
+        <v>-0.1915471297141937</v>
       </c>
       <c r="N49" t="n">
         <v>10.07142857142857</v>
@@ -4382,13 +4382,13 @@
         <v>0.6854453683968474</v>
       </c>
       <c r="U49" t="n">
-        <v>21.86662012136432</v>
+        <v>21.86662005176779</v>
       </c>
       <c r="V49" t="n">
         <v>428.5519140018058</v>
       </c>
       <c r="W49" t="n">
-        <v>1.354385726923965</v>
+        <v>1.354385886408872</v>
       </c>
       <c r="X49" t="n">
         <v>450</v>
@@ -4417,28 +4417,28 @@
         <v>431.0442230750782</v>
       </c>
       <c r="F50" t="n">
-        <v>-17.47226627843438</v>
+        <v>-17.47226627930023</v>
       </c>
       <c r="G50" t="n">
-        <v>-18.20520397000869</v>
+        <v>-18.20520396847115</v>
       </c>
       <c r="H50" t="n">
-        <v>0.7329376915743041</v>
+        <v>0.7329376891709144</v>
       </c>
       <c r="I50" t="n">
-        <v>1.412176248481052</v>
+        <v>1.412176246411735</v>
       </c>
       <c r="J50" t="n">
-        <v>0.1025949515560569</v>
+        <v>0.1025949515533168</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.04769360516853435</v>
+        <v>-0.0476936051725111</v>
       </c>
       <c r="L50" t="n">
-        <v>0.1853102894642429</v>
+        <v>0.1853102894638885</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.07528087248237562</v>
+        <v>-0.07528087248206476</v>
       </c>
       <c r="N50" t="n">
         <v>8.142857142857142</v>
@@ -4462,13 +4462,13 @@
         <v>0.7236102933341998</v>
       </c>
       <c r="U50" t="n">
-        <v>17.47226627843438</v>
+        <v>17.47226627930023</v>
       </c>
       <c r="V50" t="n">
         <v>431.0442230750782</v>
       </c>
       <c r="W50" t="n">
-        <v>1.54526778960924</v>
+        <v>1.54526778785813</v>
       </c>
       <c r="X50" t="n">
         <v>450</v>
@@ -4497,28 +4497,28 @@
         <v>429.8366871646406</v>
       </c>
       <c r="F51" t="n">
-        <v>-13.33062927674903</v>
+        <v>-13.33062918106781</v>
       </c>
       <c r="G51" t="n">
-        <v>-13.53538203551962</v>
+        <v>-13.53538230868667</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2047527587705962</v>
+        <v>0.2047531276188564</v>
       </c>
       <c r="I51" t="n">
-        <v>1.545775730469982</v>
+        <v>1.545775996515956</v>
       </c>
       <c r="J51" t="n">
-        <v>0.07912504874272325</v>
+        <v>0.07912504931330512</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.003120893224184375</v>
+        <v>-0.003120892608134427</v>
       </c>
       <c r="L51" t="n">
-        <v>0.229566859381333</v>
+        <v>0.2295668597197065</v>
       </c>
       <c r="M51" t="n">
-        <v>0.2637465518755369</v>
+        <v>0.2637465518177619</v>
       </c>
       <c r="N51" t="n">
         <v>15.58064516129032</v>
@@ -4542,13 +4542,13 @@
         <v>0.6631718486556212</v>
       </c>
       <c r="U51" t="n">
-        <v>13.33062927674903</v>
+        <v>13.33062918106781</v>
       </c>
       <c r="V51" t="n">
         <v>429.8366871646406</v>
       </c>
       <c r="W51" t="n">
-        <v>1.822478748515088</v>
+        <v>1.822478952462323</v>
       </c>
       <c r="X51" t="n">
         <v>450</v>
@@ -4577,28 +4577,28 @@
         <v>424.9920689772871</v>
       </c>
       <c r="F52" t="n">
-        <v>-8.109556674739549</v>
+        <v>-8.109556580952754</v>
       </c>
       <c r="G52" t="n">
-        <v>-8.412366102243347</v>
+        <v>-8.412366981061535</v>
       </c>
       <c r="H52" t="n">
-        <v>0.3028094275037971</v>
+        <v>0.3028104001087808</v>
       </c>
       <c r="I52" t="n">
-        <v>1.497787994190729</v>
+        <v>1.497788752454372</v>
       </c>
       <c r="J52" t="n">
-        <v>0.07617201294555698</v>
+        <v>0.07617201362886189</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.06094009745149671</v>
+        <v>-0.06094009562633016</v>
       </c>
       <c r="L52" t="n">
-        <v>0.2303954843416943</v>
+        <v>0.2303954848420873</v>
       </c>
       <c r="M52" t="n">
-        <v>-0.08325953972484133</v>
+        <v>-0.0832595397406764</v>
       </c>
       <c r="N52" t="n">
         <v>22.89189189189189</v>
@@ -4622,13 +4622,13 @@
         <v>0.4711637795276907</v>
       </c>
       <c r="U52" t="n">
-        <v>8.109556674739549</v>
+        <v>8.109556580952754</v>
       </c>
       <c r="V52" t="n">
         <v>424.9920689772871</v>
       </c>
       <c r="W52" t="n">
-        <v>1.835899645806601</v>
+        <v>1.835900256762144</v>
       </c>
       <c r="X52" t="n">
         <v>450</v>
@@ -4657,28 +4657,28 @@
         <v>428.9069349043956</v>
       </c>
       <c r="F53" t="n">
-        <v>-4.568329875833116</v>
+        <v>-4.568329875859291</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.162115875665233</v>
+        <v>-4.162115872956935</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.4062140001678833</v>
+        <v>-0.4062140029023567</v>
       </c>
       <c r="I53" t="n">
-        <v>1.76295792936901</v>
+        <v>1.762957928023881</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.0003185592220275609</v>
+        <v>-0.0003185592240692688</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.02308671159354492</v>
+        <v>-0.02308671160001404</v>
       </c>
       <c r="L53" t="n">
-        <v>0.1346373189805356</v>
+        <v>0.1346373189750389</v>
       </c>
       <c r="M53" t="n">
-        <v>0.05559047379805073</v>
+        <v>0.05559047379788205</v>
       </c>
       <c r="N53" t="n">
         <v>29.10344827586207</v>
@@ -4702,13 +4702,13 @@
         <v>0.1790688563178857</v>
       </c>
       <c r="U53" t="n">
-        <v>4.568329875833116</v>
+        <v>4.568329875859291</v>
       </c>
       <c r="V53" t="n">
         <v>428.9069349043956</v>
       </c>
       <c r="W53" t="n">
-        <v>2.103017634378517</v>
+        <v>2.103017633060728</v>
       </c>
       <c r="X53" t="n">
         <v>450</v>
@@ -4737,28 +4737,28 @@
         <v>423.013432541512</v>
       </c>
       <c r="F54" t="n">
-        <v>1.109545542793555</v>
+        <v>1.109545569563955</v>
       </c>
       <c r="G54" t="n">
         <v>1.5</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.3904544572064445</v>
+        <v>-0.3904544304360448</v>
       </c>
       <c r="I54" t="n">
-        <v>1.146419343454713</v>
+        <v>1.146419243552089</v>
       </c>
       <c r="J54" t="n">
-        <v>0.03643427658982066</v>
+        <v>0.03643427661682427</v>
       </c>
       <c r="K54" t="n">
-        <v>0.03406165799358394</v>
+        <v>0.03406165797054159</v>
       </c>
       <c r="L54" t="n">
-        <v>0.06412844091345987</v>
+        <v>0.06412844091965639</v>
       </c>
       <c r="M54" t="n">
-        <v>0.1737096160382887</v>
+        <v>0.1737096160655759</v>
       </c>
       <c r="N54" t="n">
         <v>33.21052631578947</v>
@@ -4782,13 +4782,13 @@
         <v>0.01636167252868453</v>
       </c>
       <c r="U54" t="n">
-        <v>-1.109545542793555</v>
+        <v>-1.109545569563955</v>
       </c>
       <c r="V54" t="n">
         <v>423.013432541512</v>
       </c>
       <c r="W54" t="n">
-        <v>1.722959118051538</v>
+        <v>1.722959067854949</v>
       </c>
       <c r="X54" t="n">
         <v>450</v>
@@ -4817,28 +4817,28 @@
         <v>416.1186711150101</v>
       </c>
       <c r="F55" t="n">
-        <v>5.719669846594354</v>
+        <v>5.719669689625297</v>
       </c>
       <c r="G55" t="n">
-        <v>6.883590571785827</v>
+        <v>6.8835898764683</v>
       </c>
       <c r="H55" t="n">
-        <v>-1.163920725191473</v>
+        <v>-1.163920186843004</v>
       </c>
       <c r="I55" t="n">
-        <v>1.39690095604657</v>
+        <v>1.396900595342712</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.02007374590943593</v>
+        <v>-0.02007374577745804</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.0418491298016215</v>
+        <v>-0.04184912933171812</v>
       </c>
       <c r="L55" t="n">
-        <v>0.3019814565568734</v>
+        <v>0.301981456904138</v>
       </c>
       <c r="M55" t="n">
-        <v>0.7443054073168826</v>
+        <v>0.7443054074316191</v>
       </c>
       <c r="N55" t="n">
         <v>37.52631578947368</v>
@@ -4862,13 +4862,13 @@
         <v>0.3640521692056488</v>
       </c>
       <c r="U55" t="n">
-        <v>-5.719669846594354</v>
+        <v>-5.719669689625297</v>
       </c>
       <c r="V55" t="n">
         <v>416.1186711150101</v>
       </c>
       <c r="W55" t="n">
-        <v>1.626947140463821</v>
+        <v>1.626946858741863</v>
       </c>
       <c r="X55" t="n">
         <v>450</v>
@@ -4897,28 +4897,28 @@
         <v>424.3056693254602</v>
       </c>
       <c r="F56" t="n">
-        <v>10.58159889868648</v>
+        <v>10.5815988983367</v>
       </c>
       <c r="G56" t="n">
-        <v>12.29422759822129</v>
+        <v>12.29422759721204</v>
       </c>
       <c r="H56" t="n">
-        <v>-1.712628699534806</v>
+        <v>-1.712628698875336</v>
       </c>
       <c r="I56" t="n">
-        <v>1.718004340010949</v>
+        <v>1.71800433934773</v>
       </c>
       <c r="J56" t="n">
-        <v>0.07618988120153206</v>
+        <v>0.07618988120154814</v>
       </c>
       <c r="K56" t="n">
-        <v>0.07199644117810192</v>
+        <v>0.07199644117892426</v>
       </c>
       <c r="L56" t="n">
-        <v>0.3774173373098715</v>
+        <v>0.3774173373098981</v>
       </c>
       <c r="M56" t="n">
-        <v>0.9193726067176504</v>
+        <v>0.9193726067172323</v>
       </c>
       <c r="N56" t="n">
         <v>38.14705882352941</v>
@@ -4942,13 +4942,13 @@
         <v>0.4935211730707499</v>
       </c>
       <c r="U56" t="n">
-        <v>-10.58159889868648</v>
+        <v>-10.5815988983367</v>
       </c>
       <c r="V56" t="n">
         <v>424.3056693254602</v>
       </c>
       <c r="W56" t="n">
-        <v>2.09056552578507</v>
+        <v>2.090565525325759</v>
       </c>
       <c r="X56" t="n">
         <v>450</v>
@@ -4977,28 +4977,28 @@
         <v>431.0222867304202</v>
       </c>
       <c r="F57" t="n">
-        <v>15.17939435598137</v>
+        <v>15.17939507842338</v>
       </c>
       <c r="G57" t="n">
-        <v>17.00708776609422</v>
+        <v>17.00709991497616</v>
       </c>
       <c r="H57" t="n">
-        <v>-1.827693410112844</v>
+        <v>-1.827704836552788</v>
       </c>
       <c r="I57" t="n">
-        <v>1.827693410112844</v>
+        <v>1.827704836552788</v>
       </c>
       <c r="J57" t="n">
-        <v>0.1430075917554671</v>
+        <v>0.1430075981964884</v>
       </c>
       <c r="K57" t="n">
-        <v>0.07949761353648131</v>
+        <v>0.07949760294424124</v>
       </c>
       <c r="L57" t="n">
-        <v>0.4577637482500377</v>
+        <v>0.4577637529574113</v>
       </c>
       <c r="M57" t="n">
-        <v>0.6798383337937458</v>
+        <v>0.6798383415098787</v>
       </c>
       <c r="N57" t="n">
         <v>30.07142857142857</v>
@@ -5022,13 +5022,13 @@
         <v>0.5963292192692107</v>
       </c>
       <c r="U57" t="n">
-        <v>-15.17939435598137</v>
+        <v>-15.17939507842338</v>
       </c>
       <c r="V57" t="n">
         <v>431.0222867304202</v>
       </c>
       <c r="W57" t="n">
-        <v>2.119849017325964</v>
+        <v>2.11985775438232</v>
       </c>
       <c r="X57" t="n">
         <v>450</v>
@@ -5057,28 +5057,28 @@
         <v>429.0104683972545</v>
       </c>
       <c r="F58" t="n">
-        <v>20.03084271818729</v>
+        <v>20.03084269359098</v>
       </c>
       <c r="G58" t="n">
-        <v>22.14348712706708</v>
+        <v>22.14348801756694</v>
       </c>
       <c r="H58" t="n">
-        <v>-2.112644408879794</v>
+        <v>-2.11264532397596</v>
       </c>
       <c r="I58" t="n">
-        <v>2.112644408879794</v>
+        <v>2.11264532397596</v>
       </c>
       <c r="J58" t="n">
-        <v>0.159220151566173</v>
+        <v>0.1592201524297876</v>
       </c>
       <c r="K58" t="n">
-        <v>0.0294390571323861</v>
+        <v>0.02943905653300658</v>
       </c>
       <c r="L58" t="n">
-        <v>0.5369772030887179</v>
+        <v>0.5369772035223188</v>
       </c>
       <c r="M58" t="n">
-        <v>0.7032087685713504</v>
+        <v>0.7032087690723098</v>
       </c>
       <c r="N58" t="n">
         <v>25.07142857142857</v>
@@ -5102,13 +5102,13 @@
         <v>0.6990048813560605</v>
       </c>
       <c r="U58" t="n">
-        <v>-20.03084271818729</v>
+        <v>-20.03084269359098</v>
       </c>
       <c r="V58" t="n">
         <v>429.0104683972545</v>
       </c>
       <c r="W58" t="n">
-        <v>2.368116470084961</v>
+        <v>2.368117226636779</v>
       </c>
       <c r="X58" t="n">
         <v>450</v>
@@ -5137,28 +5137,28 @@
         <v>429.1363319995205</v>
       </c>
       <c r="F59" t="n">
-        <v>25.50704718358925</v>
+        <v>25.50704718363741</v>
       </c>
       <c r="G59" t="n">
-        <v>27.84518183438559</v>
+        <v>27.84518183297603</v>
       </c>
       <c r="H59" t="n">
-        <v>-2.338134650796341</v>
+        <v>-2.338134649338623</v>
       </c>
       <c r="I59" t="n">
-        <v>2.338134650796341</v>
+        <v>2.338134649338623</v>
       </c>
       <c r="J59" t="n">
-        <v>0.05262058791442587</v>
+        <v>0.05262058791334569</v>
       </c>
       <c r="K59" t="n">
-        <v>0.1243104370107015</v>
+        <v>0.124310437011511</v>
       </c>
       <c r="L59" t="n">
-        <v>0.6007933180462841</v>
+        <v>0.6007933180458508</v>
       </c>
       <c r="M59" t="n">
-        <v>0.7331832641534888</v>
+        <v>0.7331832641528168</v>
       </c>
       <c r="N59" t="n">
         <v>25.60975609756098</v>
@@ -5182,13 +5182,13 @@
         <v>0.7608625317289923</v>
       </c>
       <c r="U59" t="n">
-        <v>-25.50704718358925</v>
+        <v>-25.50704718363741</v>
       </c>
       <c r="V59" t="n">
         <v>429.1363319995205</v>
       </c>
       <c r="W59" t="n">
-        <v>2.565948129412207</v>
+        <v>2.565948128102043</v>
       </c>
       <c r="X59" t="n">
         <v>450</v>
@@ -5217,28 +5217,28 @@
         <v>422.0555690606146</v>
       </c>
       <c r="F60" t="n">
-        <v>30.26092685652744</v>
+        <v>30.26092685644637</v>
       </c>
       <c r="G60" t="n">
-        <v>32.63277172314477</v>
+        <v>32.63277172154561</v>
       </c>
       <c r="H60" t="n">
-        <v>-2.371844866617333</v>
+        <v>-2.371844865099239</v>
       </c>
       <c r="I60" t="n">
-        <v>2.371844866617333</v>
+        <v>2.371844865099239</v>
       </c>
       <c r="J60" t="n">
-        <v>0.1087026576167572</v>
+        <v>0.1087026576158127</v>
       </c>
       <c r="K60" t="n">
-        <v>0.1818315160763583</v>
+        <v>0.1818315160777141</v>
       </c>
       <c r="L60" t="n">
-        <v>0.624329525773257</v>
+        <v>0.624329525773248</v>
       </c>
       <c r="M60" t="n">
-        <v>0.8570930720221137</v>
+        <v>0.8570930720208785</v>
       </c>
       <c r="N60" t="n">
         <v>28.21621621621622</v>
@@ -5262,13 +5262,13 @@
         <v>0.8319635505050335</v>
       </c>
       <c r="U60" t="n">
-        <v>-30.26092685652744</v>
+        <v>-30.26092685644637</v>
       </c>
       <c r="V60" t="n">
         <v>422.0555690606146</v>
       </c>
       <c r="W60" t="n">
-        <v>2.607670149943671</v>
+        <v>2.607670148689514</v>
       </c>
       <c r="X60" t="n">
         <v>450</v>
@@ -5297,28 +5297,28 @@
         <v>424.536129228526</v>
       </c>
       <c r="F61" t="n">
-        <v>35.1397172449211</v>
+        <v>35.13971699982241</v>
       </c>
       <c r="G61" t="n">
-        <v>37.69291482618024</v>
+        <v>37.69291322976678</v>
       </c>
       <c r="H61" t="n">
-        <v>-2.553197581259139</v>
+        <v>-2.553196229944372</v>
       </c>
       <c r="I61" t="n">
-        <v>2.553197581259139</v>
+        <v>2.553196229944372</v>
       </c>
       <c r="J61" t="n">
-        <v>0.08281773444179778</v>
+        <v>0.08281773360300734</v>
       </c>
       <c r="K61" t="n">
-        <v>0.2064429019527872</v>
+        <v>0.2064429036268482</v>
       </c>
       <c r="L61" t="n">
-        <v>0.6985030038804532</v>
+        <v>0.6985030040945135</v>
       </c>
       <c r="M61" t="n">
-        <v>0.9794854754992427</v>
+        <v>0.979485474273432</v>
       </c>
       <c r="N61" t="n">
         <v>30.80645161290322</v>
@@ -5342,13 +5342,13 @@
         <v>0.917458540727883</v>
       </c>
       <c r="U61" t="n">
-        <v>-35.1397172449211</v>
+        <v>-35.13971699982241</v>
       </c>
       <c r="V61" t="n">
         <v>424.536129228526</v>
       </c>
       <c r="W61" t="n">
-        <v>2.828756430682907</v>
+        <v>2.828755226551718</v>
       </c>
       <c r="X61" t="n">
         <v>450</v>
@@ -5377,28 +5377,28 @@
         <v>421.641033102234</v>
       </c>
       <c r="F62" t="n">
-        <v>40.44196252791573</v>
+        <v>40.44196252274597</v>
       </c>
       <c r="G62" t="n">
-        <v>42.43896635786599</v>
+        <v>42.43896634641209</v>
       </c>
       <c r="H62" t="n">
-        <v>-1.997003829950255</v>
+        <v>-1.997003823666118</v>
       </c>
       <c r="I62" t="n">
-        <v>1.997003829950255</v>
+        <v>1.997003823666118</v>
       </c>
       <c r="J62" t="n">
-        <v>-0.08282658083621673</v>
+        <v>-0.08282658083652583</v>
       </c>
       <c r="K62" t="n">
-        <v>0.2935439447781061</v>
+        <v>0.2935439447858021</v>
       </c>
       <c r="L62" t="n">
-        <v>0.5656570774484113</v>
+        <v>0.5656570774397328</v>
       </c>
       <c r="M62" t="n">
-        <v>0.9987026886232662</v>
+        <v>0.9987026886178998</v>
       </c>
       <c r="N62" t="n">
         <v>50.0625</v>
@@ -5422,13 +5422,13 @@
         <v>0.6247133647846418</v>
       </c>
       <c r="U62" t="n">
-        <v>-40.44196252791573</v>
+        <v>-40.44196252274597</v>
       </c>
       <c r="V62" t="n">
         <v>421.641033102234</v>
       </c>
       <c r="W62" t="n">
-        <v>2.263990754241399</v>
+        <v>2.263990746301447</v>
       </c>
       <c r="X62" t="n">
         <v>450</v>
@@ -5457,28 +5457,28 @@
         <v>421.3761405371865</v>
       </c>
       <c r="F63" t="n">
-        <v>45.70194956616946</v>
+        <v>45.70195472671612</v>
       </c>
       <c r="G63" t="n">
-        <v>47.73905463312075</v>
+        <v>47.73906567743065</v>
       </c>
       <c r="H63" t="n">
-        <v>-2.037105066951293</v>
+        <v>-2.037110950714542</v>
       </c>
       <c r="I63" t="n">
-        <v>2.037105066951293</v>
+        <v>2.037110950714542</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.1852625684530778</v>
+        <v>-0.1852625667631197</v>
       </c>
       <c r="K63" t="n">
-        <v>0.1382181467120044</v>
+        <v>0.1382181458046801</v>
       </c>
       <c r="L63" t="n">
-        <v>0.5678718433819584</v>
+        <v>0.5678718476429616</v>
       </c>
       <c r="M63" t="n">
-        <v>0.7666267677172892</v>
+        <v>0.76662676521423</v>
       </c>
       <c r="N63" t="n">
         <v>53.2</v>
@@ -5502,13 +5502,13 @@
         <v>0.6840544005647431</v>
       </c>
       <c r="U63" t="n">
-        <v>-45.70194956616946</v>
+        <v>-45.70195472671612</v>
       </c>
       <c r="V63" t="n">
         <v>421.3761405371865</v>
       </c>
       <c r="W63" t="n">
-        <v>2.16455806389069</v>
+        <v>2.16456620203529</v>
       </c>
       <c r="X63" t="n">
         <v>450</v>
@@ -5537,28 +5537,28 @@
         <v>411.7383644539836</v>
       </c>
       <c r="F64" t="n">
-        <v>51.09987752936917</v>
+        <v>51.09987773250899</v>
       </c>
       <c r="G64" t="n">
-        <v>53.27214888613017</v>
+        <v>53.27214946097494</v>
       </c>
       <c r="H64" t="n">
-        <v>-2.172271356760999</v>
+        <v>-2.172271728465946</v>
       </c>
       <c r="I64" t="n">
-        <v>2.172271356760999</v>
+        <v>2.172271728465946</v>
       </c>
       <c r="J64" t="n">
-        <v>-0.2625639484754546</v>
+        <v>-0.262563948406445</v>
       </c>
       <c r="K64" t="n">
-        <v>0.06481283716797201</v>
+        <v>0.06481283704062527</v>
       </c>
       <c r="L64" t="n">
-        <v>0.4807467849761062</v>
+        <v>0.4807467850362698</v>
       </c>
       <c r="M64" t="n">
-        <v>0.769940544632387</v>
+        <v>0.7699405442631266</v>
       </c>
       <c r="N64" t="n">
         <v>47.38461538461539</v>
@@ -5582,13 +5582,13 @@
         <v>0.5751004085332838</v>
       </c>
       <c r="U64" t="n">
-        <v>-51.09987752936917</v>
+        <v>-51.09987773250899</v>
       </c>
       <c r="V64" t="n">
         <v>411.7383644539836</v>
       </c>
       <c r="W64" t="n">
-        <v>2.348720391222271</v>
+        <v>2.34872080244223</v>
       </c>
       <c r="X64" t="n">
         <v>450</v>

--- a/publication/analyses/outputs/rmse_z/gdpt_bin_r-z_rmse-z.xlsx
+++ b/publication/analyses/outputs/rmse_z/gdpt_bin_r-z_rmse-z.xlsx
@@ -577,28 +577,28 @@
         <v>113.5618726268878</v>
       </c>
       <c r="F2" t="n">
-        <v>-47.00631555111244</v>
+        <v>-47.00631554844963</v>
       </c>
       <c r="G2" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181186</v>
       </c>
       <c r="H2" t="n">
-        <v>0.801967733284756</v>
+        <v>0.8019677333622356</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8300332576322741</v>
+        <v>0.8300332577764392</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3225809871856882</v>
+        <v>0.3225809871859074</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3056894938808991</v>
+        <v>0.3056894938811833</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5684279398665308</v>
+        <v>0.568427939866736</v>
       </c>
       <c r="M2" t="n">
-        <v>0.060015193739294</v>
+        <v>0.06001519374380239</v>
       </c>
       <c r="N2" t="n">
         <v>54.92857142857143</v>
@@ -622,13 +622,13 @@
         <v>1.239515522189204</v>
       </c>
       <c r="U2" t="n">
-        <v>47.00631555111244</v>
+        <v>47.00631554844963</v>
       </c>
       <c r="V2" t="n">
         <v>113.5618726268878</v>
       </c>
       <c r="W2" t="n">
-        <v>0.9568657451875412</v>
+        <v>0.9568657453991134</v>
       </c>
       <c r="X2" t="n">
         <v>150</v>
@@ -657,28 +657,28 @@
         <v>123.3240936223589</v>
       </c>
       <c r="F3" t="n">
-        <v>-42.55264072381193</v>
+        <v>-42.55264099097229</v>
       </c>
       <c r="G3" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5937173796832724</v>
+        <v>0.5937173775309955</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7558895637890657</v>
+        <v>0.7558895549988975</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2313982091860897</v>
+        <v>0.2313982090575852</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2145340535678683</v>
+        <v>0.2145340534419735</v>
       </c>
       <c r="L3" t="n">
-        <v>0.486146310851</v>
+        <v>0.486146310779127</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.1261571314710938</v>
+        <v>-0.1261571317980467</v>
       </c>
       <c r="N3" t="n">
         <v>52.64705882352941</v>
@@ -702,13 +702,13 @@
         <v>1.161517163103335</v>
       </c>
       <c r="U3" t="n">
-        <v>42.55264072381193</v>
+        <v>42.55264099097229</v>
       </c>
       <c r="V3" t="n">
         <v>123.3240936223589</v>
       </c>
       <c r="W3" t="n">
-        <v>0.9110551052657967</v>
+        <v>0.9110550932693614</v>
       </c>
       <c r="X3" t="n">
         <v>150</v>
@@ -737,28 +737,28 @@
         <v>124.2399329950721</v>
       </c>
       <c r="F4" t="n">
-        <v>-37.666947471878</v>
+        <v>-37.66694772953044</v>
       </c>
       <c r="G4" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01824262259696969</v>
+        <v>0.01824268423892727</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5057198180282848</v>
+        <v>0.5057198401841205</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05800375528937029</v>
+        <v>0.05800375511982939</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1768688245210336</v>
+        <v>0.1768688244025097</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3408840187898248</v>
+        <v>0.3408840187165494</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3085544147166996</v>
+        <v>0.3085544145235647</v>
       </c>
       <c r="N4" t="n">
         <v>47.38095238095238</v>
@@ -782,13 +782,13 @@
         <v>0.9295596613711358</v>
       </c>
       <c r="U4" t="n">
-        <v>37.666947471878</v>
+        <v>37.66694772953044</v>
       </c>
       <c r="V4" t="n">
         <v>124.2399329950721</v>
       </c>
       <c r="W4" t="n">
-        <v>0.5855825430445462</v>
+        <v>0.5855825802345455</v>
       </c>
       <c r="X4" t="n">
         <v>150</v>
@@ -817,28 +817,28 @@
         <v>126.2113302152242</v>
       </c>
       <c r="F5" t="n">
-        <v>-32.85498337409038</v>
+        <v>-32.85498517769916</v>
       </c>
       <c r="G5" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1288969582797355</v>
+        <v>0.128897341953094</v>
       </c>
       <c r="I5" t="n">
-        <v>0.611600838803607</v>
+        <v>0.611601152823678</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07412652576078668</v>
+        <v>0.07412652316249856</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1480942111850487</v>
+        <v>0.148094209343278</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3426222055789521</v>
+        <v>0.3426222044267755</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.02453560868874872</v>
+        <v>-0.02453560996793123</v>
       </c>
       <c r="N5" t="n">
         <v>48.5</v>
@@ -862,13 +862,13 @@
         <v>0.9462026619495446</v>
       </c>
       <c r="U5" t="n">
-        <v>32.85498337409038</v>
+        <v>32.85498517769916</v>
       </c>
       <c r="V5" t="n">
         <v>126.2113302152242</v>
       </c>
       <c r="W5" t="n">
-        <v>0.7111642270844096</v>
+        <v>0.7111646914526536</v>
       </c>
       <c r="X5" t="n">
         <v>150</v>
@@ -897,28 +897,28 @@
         <v>142.4522613718667</v>
       </c>
       <c r="F6" t="n">
-        <v>-28.62083240522278</v>
+        <v>-28.62083741241995</v>
       </c>
       <c r="G6" t="n">
-        <v>-28.40995576474833</v>
+        <v>-28.40996244040846</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.2108766404744525</v>
+        <v>-0.2108749720114849</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3390246196072837</v>
+        <v>0.3390241863805111</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05700993157679678</v>
+        <v>0.05700992604718177</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06151127860017191</v>
+        <v>0.06151127366530868</v>
       </c>
       <c r="L6" t="n">
-        <v>0.271934910646726</v>
+        <v>0.2719349098832335</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1437665096394832</v>
+        <v>0.1437665074906057</v>
       </c>
       <c r="N6" t="n">
         <v>45.48387096774194</v>
@@ -942,13 +942,13 @@
         <v>0.7557727141735375</v>
       </c>
       <c r="U6" t="n">
-        <v>28.62083240522278</v>
+        <v>28.62083741241995</v>
       </c>
       <c r="V6" t="n">
         <v>142.4522613718667</v>
       </c>
       <c r="W6" t="n">
-        <v>0.3797860470604409</v>
+        <v>0.3797857333568722</v>
       </c>
       <c r="X6" t="n">
         <v>150</v>
@@ -977,28 +977,28 @@
         <v>145.6967559538732</v>
       </c>
       <c r="F7" t="n">
-        <v>-23.09911251855493</v>
+        <v>-23.09911246994095</v>
       </c>
       <c r="G7" t="n">
-        <v>-22.86769740813532</v>
+        <v>-22.86769733400464</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.2314151104196071</v>
+        <v>-0.2314151359363106</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3876483884843648</v>
+        <v>0.3876483970702801</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05010161347901203</v>
+        <v>0.05010161354410798</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03275415236087838</v>
+        <v>0.03275415242018199</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1820910069874905</v>
+        <v>0.1820910070095533</v>
       </c>
       <c r="M7" t="n">
-        <v>0.07582459930036846</v>
+        <v>0.07582459931741238</v>
       </c>
       <c r="N7" t="n">
         <v>42.48</v>
@@ -1022,13 +1022,13 @@
         <v>0.6837185151779224</v>
       </c>
       <c r="U7" t="n">
-        <v>23.09911251855493</v>
+        <v>23.09911246994095</v>
       </c>
       <c r="V7" t="n">
         <v>145.6967559538732</v>
       </c>
       <c r="W7" t="n">
-        <v>0.4387971294625707</v>
+        <v>0.4387971406134212</v>
       </c>
       <c r="X7" t="n">
         <v>150</v>
@@ -1057,28 +1057,28 @@
         <v>146.0929806360993</v>
       </c>
       <c r="F8" t="n">
-        <v>-18.66684246349118</v>
+        <v>-18.6668424611919</v>
       </c>
       <c r="G8" t="n">
-        <v>-18.20520396847115</v>
+        <v>-18.20520396538731</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.4616384950200355</v>
+        <v>-0.4616384958045941</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5594740285313878</v>
+        <v>0.5594740287523023</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.014266855040285</v>
+        <v>-0.0142668550386343</v>
       </c>
       <c r="K8" t="n">
-        <v>5.256683677596089e-05</v>
+        <v>5.256683919478626e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2042275878723098</v>
+        <v>0.2042275878709646</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1684247406479622</v>
+        <v>0.1684247406478121</v>
       </c>
       <c r="N8" t="n">
         <v>47.6578947368421</v>
@@ -1102,13 +1102,13 @@
         <v>0.5932069948451405</v>
       </c>
       <c r="U8" t="n">
-        <v>18.66684246349118</v>
+        <v>18.6668424611919</v>
       </c>
       <c r="V8" t="n">
         <v>146.0929806360993</v>
       </c>
       <c r="W8" t="n">
-        <v>0.716267303188715</v>
+        <v>0.7162673034674938</v>
       </c>
       <c r="X8" t="n">
         <v>150</v>
@@ -1137,28 +1137,28 @@
         <v>142.6823158601125</v>
       </c>
       <c r="F9" t="n">
-        <v>-14.29371154670618</v>
+        <v>-14.29371158255351</v>
       </c>
       <c r="G9" t="n">
-        <v>-13.53538230868667</v>
+        <v>-13.53538236173275</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.7583292380195052</v>
+        <v>-0.7583292208207579</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7759261595016067</v>
+        <v>0.7759261479876659</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.006435892273452893</v>
+        <v>-0.006435892306234974</v>
       </c>
       <c r="K9" t="n">
-        <v>0.009593290250577981</v>
+        <v>0.009593290214777676</v>
       </c>
       <c r="L9" t="n">
-        <v>0.157614234560334</v>
+        <v>0.1576142345941287</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1346784918606544</v>
+        <v>0.1346784918605023</v>
       </c>
       <c r="N9" t="n">
         <v>48.41666666666666</v>
@@ -1182,13 +1182,13 @@
         <v>0.5338967854882963</v>
       </c>
       <c r="U9" t="n">
-        <v>14.29371154670618</v>
+        <v>14.29371158255351</v>
       </c>
       <c r="V9" t="n">
         <v>142.6823158601125</v>
       </c>
       <c r="W9" t="n">
-        <v>1.218217400463936</v>
+        <v>1.218217396151751</v>
       </c>
       <c r="X9" t="n">
         <v>150</v>
@@ -1217,28 +1217,28 @@
         <v>143.9253087667818</v>
       </c>
       <c r="F10" t="n">
-        <v>-9.120716812840842</v>
+        <v>-9.120716298803899</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.412366981061535</v>
+        <v>-8.412366091911087</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.7083498317793069</v>
+        <v>-0.7083502068928125</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7573295750320198</v>
+        <v>0.7573298736964542</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.03866756635061364</v>
+        <v>-0.03866756597548351</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03895651635039234</v>
+        <v>0.03895651736974351</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1236216958675985</v>
+        <v>0.1236216958938475</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03560483245837093</v>
+        <v>0.03560483246785676</v>
       </c>
       <c r="N10" t="n">
         <v>45.61538461538461</v>
@@ -1262,13 +1262,13 @@
         <v>0.3351934096064119</v>
       </c>
       <c r="U10" t="n">
-        <v>9.120716812840842</v>
+        <v>9.120716298803899</v>
       </c>
       <c r="V10" t="n">
         <v>143.9253087667818</v>
       </c>
       <c r="W10" t="n">
-        <v>0.966951585007739</v>
+        <v>0.9669518957015505</v>
       </c>
       <c r="X10" t="n">
         <v>150</v>
@@ -1297,28 +1297,28 @@
         <v>154.7435028591682</v>
       </c>
       <c r="F11" t="n">
-        <v>-5.343573972970082</v>
+        <v>-5.343573975069971</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.162115872956935</v>
+        <v>-4.162115875790267</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.181458100013146</v>
+        <v>-1.181458099279703</v>
       </c>
       <c r="I11" t="n">
-        <v>1.182429376239458</v>
+        <v>1.182429375615738</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.03325864267095317</v>
+        <v>-0.03325864267210932</v>
       </c>
       <c r="K11" t="n">
-        <v>0.08101462406133512</v>
+        <v>0.08101462405784739</v>
       </c>
       <c r="L11" t="n">
-        <v>0.09953798020636286</v>
+        <v>0.09953798020502339</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.02528736962941233</v>
+        <v>-0.02528736962993515</v>
       </c>
       <c r="N11" t="n">
         <v>47.07142857142857</v>
@@ -1342,13 +1342,13 @@
         <v>0.1015375585871199</v>
       </c>
       <c r="U11" t="n">
-        <v>5.343573972970082</v>
+        <v>5.343573975069971</v>
       </c>
       <c r="V11" t="n">
         <v>154.7435028591682</v>
       </c>
       <c r="W11" t="n">
-        <v>1.825906570282501</v>
+        <v>1.825906569776674</v>
       </c>
       <c r="X11" t="n">
         <v>150</v>
@@ -1377,28 +1377,28 @@
         <v>143.843397243388</v>
       </c>
       <c r="F12" t="n">
-        <v>1.552411782766466</v>
+        <v>1.552411832480377</v>
       </c>
       <c r="G12" t="n">
         <v>1.5</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05241178276646646</v>
+        <v>0.05241183248037655</v>
       </c>
       <c r="I12" t="n">
-        <v>1.860578649497529</v>
+        <v>1.860578662356416</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.01591373337336225</v>
+        <v>-0.01591373337454885</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.05035684051068304</v>
+        <v>-0.05035684050768778</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1486904451036372</v>
+        <v>0.1486904451051142</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.2757037781021378</v>
+        <v>-0.2757037781121718</v>
       </c>
       <c r="N12" t="n">
         <v>47.65909090909091</v>
@@ -1422,13 +1422,13 @@
         <v>0.1194706490579684</v>
       </c>
       <c r="U12" t="n">
-        <v>-1.552411782766466</v>
+        <v>-1.552411832480377</v>
       </c>
       <c r="V12" t="n">
         <v>143.843397243388</v>
       </c>
       <c r="W12" t="n">
-        <v>2.485243439777138</v>
+        <v>2.485243438994036</v>
       </c>
       <c r="X12" t="n">
         <v>150</v>
@@ -1457,28 +1457,28 @@
         <v>138.700000089292</v>
       </c>
       <c r="F13" t="n">
-        <v>7.069919336574399</v>
+        <v>7.069919947944113</v>
       </c>
       <c r="G13" t="n">
-        <v>6.8835898764683</v>
+        <v>6.883590572356015</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1863294601060982</v>
+        <v>0.1863293755880985</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3766379984810153</v>
+        <v>0.3766379127856733</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01327599483060264</v>
+        <v>0.0132759948559727</v>
       </c>
       <c r="K13" t="n">
-        <v>0.03888633110646032</v>
+        <v>0.03888633124873098</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06852864282614647</v>
+        <v>0.06852864295017243</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.8518828212546156</v>
+        <v>-0.8518828211592923</v>
       </c>
       <c r="N13" t="n">
         <v>48.88888888888889</v>
@@ -1502,13 +1502,13 @@
         <v>0.1842228062300293</v>
       </c>
       <c r="U13" t="n">
-        <v>-7.069919336574399</v>
+        <v>-7.069919947944113</v>
       </c>
       <c r="V13" t="n">
         <v>138.700000089292</v>
       </c>
       <c r="W13" t="n">
-        <v>0.5056286383138993</v>
+        <v>0.5056284977154895</v>
       </c>
       <c r="X13" t="n">
         <v>150</v>
@@ -1537,28 +1537,28 @@
         <v>143.6523179072681</v>
       </c>
       <c r="F14" t="n">
-        <v>12.10847141114355</v>
+        <v>12.10847027902142</v>
       </c>
       <c r="G14" t="n">
-        <v>12.29422759721204</v>
+        <v>12.29422626908773</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.1857561860684868</v>
+        <v>-0.1857559900663069</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3231224495319467</v>
+        <v>0.3231225978571744</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.0274583741138896</v>
+        <v>-0.02745837397694591</v>
       </c>
       <c r="K14" t="n">
-        <v>0.05551560329240049</v>
+        <v>0.05551560327405506</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1784140720963928</v>
+        <v>0.1784140721813287</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.7446202390313383</v>
+        <v>-0.7446202390994716</v>
       </c>
       <c r="N14" t="n">
         <v>50.55555555555556</v>
@@ -1582,13 +1582,13 @@
         <v>0.3241025414963999</v>
       </c>
       <c r="U14" t="n">
-        <v>-12.10847141114355</v>
+        <v>-12.10847027902142</v>
       </c>
       <c r="V14" t="n">
         <v>143.6523179072681</v>
       </c>
       <c r="W14" t="n">
-        <v>0.502878866280621</v>
+        <v>0.5028786396459178</v>
       </c>
       <c r="X14" t="n">
         <v>150</v>
@@ -1617,28 +1617,28 @@
         <v>148.6601551664974</v>
       </c>
       <c r="F15" t="n">
-        <v>16.75032507416565</v>
+        <v>16.75032507265092</v>
       </c>
       <c r="G15" t="n">
-        <v>17.00709991497616</v>
+        <v>17.0070999131628</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.2567748408105086</v>
+        <v>-0.2567748405118763</v>
       </c>
       <c r="I15" t="n">
-        <v>0.385921243079056</v>
+        <v>0.3859212431079148</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.04432136296292871</v>
+        <v>-0.04432136296248501</v>
       </c>
       <c r="K15" t="n">
-        <v>0.04547967551773822</v>
+        <v>0.04547967551753611</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2474528516748665</v>
+        <v>0.2474528516746776</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.8776721966124841</v>
+        <v>-0.8776721966124444</v>
       </c>
       <c r="N15" t="n">
         <v>50.83333333333334</v>
@@ -1662,13 +1662,13 @@
         <v>0.3686150738088012</v>
       </c>
       <c r="U15" t="n">
-        <v>-16.75032507416565</v>
+        <v>-16.75032507265092</v>
       </c>
       <c r="V15" t="n">
         <v>148.6601551664974</v>
       </c>
       <c r="W15" t="n">
-        <v>0.5542099307427022</v>
+        <v>0.5542099303959476</v>
       </c>
       <c r="X15" t="n">
         <v>150</v>
@@ -1697,28 +1697,28 @@
         <v>150.8319662369358</v>
       </c>
       <c r="F16" t="n">
-        <v>21.71831614183326</v>
+        <v>21.71831568116416</v>
       </c>
       <c r="G16" t="n">
-        <v>22.14348801756694</v>
+        <v>22.14348743371205</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.4251718757336757</v>
+        <v>-0.4251717525478881</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5096929693119789</v>
+        <v>0.5096929523789946</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.02335598134508479</v>
+        <v>-0.02335598105842416</v>
       </c>
       <c r="K16" t="n">
-        <v>0.05588537502251693</v>
+        <v>0.05588537498654452</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3110301021791119</v>
+        <v>0.3110301019822286</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.7419608979414333</v>
+        <v>-0.7419608979792773</v>
       </c>
       <c r="N16" t="n">
         <v>48.84615384615385</v>
@@ -1742,13 +1742,13 @@
         <v>0.4485320732815442</v>
       </c>
       <c r="U16" t="n">
-        <v>-21.71831614183326</v>
+        <v>-21.71831568116416</v>
       </c>
       <c r="V16" t="n">
         <v>150.8319662369358</v>
       </c>
       <c r="W16" t="n">
-        <v>0.7637789951446945</v>
+        <v>0.7637788204272259</v>
       </c>
       <c r="X16" t="n">
         <v>150</v>
@@ -1777,28 +1777,28 @@
         <v>143.7883553135983</v>
       </c>
       <c r="F17" t="n">
-        <v>27.26310935082755</v>
+        <v>27.26310935316111</v>
       </c>
       <c r="G17" t="n">
-        <v>27.84518183297603</v>
+        <v>27.8451818358611</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.5820724821484816</v>
+        <v>-0.5820724826999963</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5931430692064295</v>
+        <v>0.5931430697481462</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.06129748201944876</v>
+        <v>-0.06129748202117698</v>
       </c>
       <c r="K17" t="n">
-        <v>0.04658691831680391</v>
+        <v>0.04658691831694693</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3259403728924103</v>
+        <v>0.3259403728941897</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.8539970442701444</v>
+        <v>-0.8539970442703593</v>
       </c>
       <c r="N17" t="n">
         <v>46.51612903225806</v>
@@ -1822,13 +1822,13 @@
         <v>0.5305079722323011</v>
       </c>
       <c r="U17" t="n">
-        <v>-27.26310935082755</v>
+        <v>-27.26310935316111</v>
       </c>
       <c r="V17" t="n">
         <v>143.7883553135983</v>
       </c>
       <c r="W17" t="n">
-        <v>0.841374921757986</v>
+        <v>0.8413749224344271</v>
       </c>
       <c r="X17" t="n">
         <v>150</v>
@@ -1857,28 +1857,28 @@
         <v>135.3589678855317</v>
       </c>
       <c r="F18" t="n">
-        <v>32.32192115786344</v>
+        <v>32.32191710123372</v>
       </c>
       <c r="G18" t="n">
-        <v>32.63277172154561</v>
+        <v>32.63276711592759</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.3108505636821651</v>
+        <v>-0.3108500146938715</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5025213870762516</v>
+        <v>0.5025213085559311</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.1217561147722157</v>
+        <v>-0.1217561119614262</v>
       </c>
       <c r="K18" t="n">
-        <v>0.05502678179622002</v>
+        <v>0.05502678130017691</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3452062768179507</v>
+        <v>0.3452062748550549</v>
       </c>
       <c r="M18" t="n">
-        <v>-1.094454920585132</v>
+        <v>-1.094454919482114</v>
       </c>
       <c r="N18" t="n">
         <v>49.79310344827586</v>
@@ -1902,13 +1902,13 @@
         <v>0.516502052626401</v>
       </c>
       <c r="U18" t="n">
-        <v>-32.32192115786344</v>
+        <v>-32.32191710123372</v>
       </c>
       <c r="V18" t="n">
         <v>135.3589678855317</v>
       </c>
       <c r="W18" t="n">
-        <v>0.6596647691543884</v>
+        <v>0.6596643349021982</v>
       </c>
       <c r="X18" t="n">
         <v>150</v>
@@ -1937,28 +1937,28 @@
         <v>131.0870319424762</v>
       </c>
       <c r="F19" t="n">
-        <v>37.39367645337885</v>
+        <v>37.39368870594408</v>
       </c>
       <c r="G19" t="n">
-        <v>37.69291322976678</v>
+        <v>37.69292631788438</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.2992367763879289</v>
+        <v>-0.2992376119402967</v>
       </c>
       <c r="I19" t="n">
-        <v>0.496606197216136</v>
+        <v>0.4966049141201902</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.135796657874643</v>
+        <v>-0.135796665798722</v>
       </c>
       <c r="K19" t="n">
-        <v>0.04690980829693209</v>
+        <v>0.04690981096252211</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4583556053692763</v>
+        <v>0.4583556074484458</v>
       </c>
       <c r="M19" t="n">
-        <v>-1.210430165221513</v>
+        <v>-1.21043016917388</v>
       </c>
       <c r="N19" t="n">
         <v>51.77777777777778</v>
@@ -1982,13 +1982,13 @@
         <v>0.6114415370924408</v>
       </c>
       <c r="U19" t="n">
-        <v>-37.39367645337885</v>
+        <v>-37.39368870594408</v>
       </c>
       <c r="V19" t="n">
         <v>131.0870319424762</v>
       </c>
       <c r="W19" t="n">
-        <v>0.6656427305807584</v>
+        <v>0.6656423858122474</v>
       </c>
       <c r="X19" t="n">
         <v>150</v>
@@ -2017,28 +2017,28 @@
         <v>126.1224052466467</v>
       </c>
       <c r="F20" t="n">
-        <v>41.9900750807606</v>
+        <v>41.99007508178298</v>
       </c>
       <c r="G20" t="n">
-        <v>42.43896634641209</v>
+        <v>42.43896634748509</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.4488912656514848</v>
+        <v>-0.448891265702119</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4862541269964119</v>
+        <v>0.4862541269204457</v>
       </c>
       <c r="J20" t="n">
-        <v>0.02839667582752187</v>
+        <v>0.02839667582723597</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.0878503067043004</v>
+        <v>-0.08785030670385903</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3763885944283148</v>
+        <v>0.3763885944283213</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.9725091284425071</v>
+        <v>-0.9725091284426609</v>
       </c>
       <c r="N20" t="n">
         <v>50.23529411764706</v>
@@ -2062,13 +2062,13 @@
         <v>0.6549257812749021</v>
       </c>
       <c r="U20" t="n">
-        <v>-41.9900750807606</v>
+        <v>-41.99007508178298</v>
       </c>
       <c r="V20" t="n">
         <v>126.1224052466467</v>
       </c>
       <c r="W20" t="n">
-        <v>0.6752167143927739</v>
+        <v>0.6752167144253431</v>
       </c>
       <c r="X20" t="n">
         <v>150</v>
@@ -2097,28 +2097,28 @@
         <v>118.0782484415896</v>
       </c>
       <c r="F21" t="n">
-        <v>47.09172125896166</v>
+        <v>47.09171196088373</v>
       </c>
       <c r="G21" t="n">
-        <v>47.73906567743065</v>
+        <v>47.7390566550323</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.6473444184689929</v>
+        <v>-0.6473446941485658</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6856568762238154</v>
+        <v>0.6856579565328744</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.02555613453108284</v>
+        <v>-0.02555613148898223</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.1720418338806667</v>
+        <v>-0.1720418340908585</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4632577809818458</v>
+        <v>0.4632577803917822</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.6728642284239144</v>
+        <v>-0.6728642239043993</v>
       </c>
       <c r="N21" t="n">
         <v>54</v>
@@ -2142,13 +2142,13 @@
         <v>0.7277910573443104</v>
       </c>
       <c r="U21" t="n">
-        <v>-47.09172125896166</v>
+        <v>-47.09171196088373</v>
       </c>
       <c r="V21" t="n">
         <v>118.0782484415896</v>
       </c>
       <c r="W21" t="n">
-        <v>0.949726050911346</v>
+        <v>0.9497269152891249</v>
       </c>
       <c r="X21" t="n">
         <v>150</v>
@@ -2177,28 +2177,28 @@
         <v>122.9473899823183</v>
       </c>
       <c r="F22" t="n">
-        <v>52.60695635954847</v>
+        <v>52.60695637334382</v>
       </c>
       <c r="G22" t="n">
-        <v>53.27214946097494</v>
+        <v>53.27214947375982</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.665193101426467</v>
+        <v>-0.6651931004159988</v>
       </c>
       <c r="I22" t="n">
-        <v>1.089584609544183</v>
+        <v>1.089584607011947</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01978065893323825</v>
+        <v>0.01978065892991292</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.03995292076631074</v>
+        <v>-0.03995292076364858</v>
       </c>
       <c r="L22" t="n">
-        <v>0.5211534927891041</v>
+        <v>0.5211534927902036</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.8300447364201572</v>
+        <v>-0.8300447364206457</v>
       </c>
       <c r="N22" t="n">
         <v>54</v>
@@ -2222,13 +2222,13 @@
         <v>0.7043375399181374</v>
       </c>
       <c r="U22" t="n">
-        <v>-52.60695635954847</v>
+        <v>-52.60695637334382</v>
       </c>
       <c r="V22" t="n">
         <v>122.9473899823183</v>
       </c>
       <c r="W22" t="n">
-        <v>1.224022515507336</v>
+        <v>1.224022512917101</v>
       </c>
       <c r="X22" t="n">
         <v>150</v>
@@ -2257,28 +2257,28 @@
         <v>282.1314449933956</v>
       </c>
       <c r="F23" t="n">
-        <v>-46.93491910805165</v>
+        <v>-46.93491910656436</v>
       </c>
       <c r="G23" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8733641763455479</v>
+        <v>0.8733641752475153</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8733641763455479</v>
+        <v>0.8733641752475153</v>
       </c>
       <c r="J23" t="n">
-        <v>0.01406027599742288</v>
+        <v>0.01406027599750103</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.0001093913936228546</v>
+        <v>-0.0001093913937021985</v>
       </c>
       <c r="L23" t="n">
-        <v>0.7607337399575038</v>
+        <v>0.7607337399582108</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01398890121576398</v>
+        <v>0.01398890121587293</v>
       </c>
       <c r="N23" t="n">
         <v>42.75</v>
@@ -2302,13 +2302,13 @@
         <v>1.08993518724949</v>
       </c>
       <c r="U23" t="n">
-        <v>46.93491910805165</v>
+        <v>46.93491910656436</v>
       </c>
       <c r="V23" t="n">
         <v>282.1314449933956</v>
       </c>
       <c r="W23" t="n">
-        <v>0.9860681653495107</v>
+        <v>0.9860681642445984</v>
       </c>
       <c r="X23" t="n">
         <v>300</v>
@@ -2337,28 +2337,28 @@
         <v>276.3076809622183</v>
       </c>
       <c r="F24" t="n">
-        <v>-42.7508603315772</v>
+        <v>-42.75086050926105</v>
       </c>
       <c r="G24" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3954977719180029</v>
+        <v>0.3954978592422407</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7357970082808883</v>
+        <v>0.7357971278128546</v>
       </c>
       <c r="J24" t="n">
-        <v>0.07369002077590281</v>
+        <v>0.07369002075425471</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1317401207185604</v>
+        <v>0.1317401206956213</v>
       </c>
       <c r="L24" t="n">
-        <v>0.696639443463747</v>
+        <v>0.696639443366787</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2254614840015997</v>
+        <v>0.2254614838562585</v>
       </c>
       <c r="N24" t="n">
         <v>47.55</v>
@@ -2382,13 +2382,13 @@
         <v>1.172789787814781</v>
       </c>
       <c r="U24" t="n">
-        <v>42.7508603315772</v>
+        <v>42.75086050926105</v>
       </c>
       <c r="V24" t="n">
         <v>276.3076809622183</v>
       </c>
       <c r="W24" t="n">
-        <v>0.8795864140520057</v>
+        <v>0.8795865507104728</v>
       </c>
       <c r="X24" t="n">
         <v>300</v>
@@ -2417,28 +2417,28 @@
         <v>298.2011648812079</v>
       </c>
       <c r="F25" t="n">
-        <v>-37.1485017590872</v>
+        <v>-37.14850192773727</v>
       </c>
       <c r="G25" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5366883353877794</v>
+        <v>0.536688486032101</v>
       </c>
       <c r="I25" t="n">
-        <v>0.645828558883655</v>
+        <v>0.6458287307220874</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1946852343453243</v>
+        <v>0.1946852342933033</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.04108592505935386</v>
+        <v>-0.04108592509790516</v>
       </c>
       <c r="L25" t="n">
-        <v>0.7938894398391361</v>
+        <v>0.7938894397211145</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.08695446152721027</v>
+        <v>-0.08695446168375162</v>
       </c>
       <c r="N25" t="n">
         <v>38.46153846153846</v>
@@ -2462,13 +2462,13 @@
         <v>1.251322957121235</v>
       </c>
       <c r="U25" t="n">
-        <v>37.1485017590872</v>
+        <v>37.14850192773727</v>
       </c>
       <c r="V25" t="n">
         <v>298.2011648812079</v>
       </c>
       <c r="W25" t="n">
-        <v>0.8484011377855171</v>
+        <v>0.8484012765759094</v>
       </c>
       <c r="X25" t="n">
         <v>300</v>
@@ -2497,28 +2497,28 @@
         <v>300.1946893991096</v>
       </c>
       <c r="F26" t="n">
-        <v>-32.90966007332056</v>
+        <v>-32.90966147566537</v>
       </c>
       <c r="G26" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="H26" t="n">
-        <v>0.07422025904956127</v>
+        <v>0.07422104398689058</v>
       </c>
       <c r="I26" t="n">
-        <v>0.7081083730586435</v>
+        <v>0.7081086281571054</v>
       </c>
       <c r="J26" t="n">
-        <v>0.110558346388099</v>
+        <v>0.1105583447979164</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.04622808247643597</v>
+        <v>-0.04622808359513469</v>
       </c>
       <c r="L26" t="n">
-        <v>0.6091683616517871</v>
+        <v>0.6091683607727033</v>
       </c>
       <c r="M26" t="n">
-        <v>0.187192851659002</v>
+        <v>0.1871928511689033</v>
       </c>
       <c r="N26" t="n">
         <v>36.475</v>
@@ -2542,13 +2542,13 @@
         <v>1.112719115185421</v>
       </c>
       <c r="U26" t="n">
-        <v>32.90966007332056</v>
+        <v>32.90966147566537</v>
       </c>
       <c r="V26" t="n">
         <v>300.1946893991096</v>
       </c>
       <c r="W26" t="n">
-        <v>0.9488223740156446</v>
+        <v>0.9488224286466279</v>
       </c>
       <c r="X26" t="n">
         <v>300</v>
@@ -2577,28 +2577,28 @@
         <v>298.9996153512935</v>
       </c>
       <c r="F27" t="n">
-        <v>-28.4027111034218</v>
+        <v>-28.40271531576331</v>
       </c>
       <c r="G27" t="n">
-        <v>-28.40995576474833</v>
+        <v>-28.40996244040846</v>
       </c>
       <c r="H27" t="n">
-        <v>0.007244661326527154</v>
+        <v>0.007247124645157487</v>
       </c>
       <c r="I27" t="n">
-        <v>0.4641428509045131</v>
+        <v>0.4641432795856171</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.02283912608407085</v>
+        <v>-0.02283913005031701</v>
       </c>
       <c r="K27" t="n">
-        <v>0.03468214697612271</v>
+        <v>0.0346821434445499</v>
       </c>
       <c r="L27" t="n">
-        <v>0.6284210013181294</v>
+        <v>0.6284210013953715</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.01415158154566537</v>
+        <v>-0.01415158162935962</v>
       </c>
       <c r="N27" t="n">
         <v>37.05263157894737</v>
@@ -2622,13 +2622,13 @@
         <v>0.9857028846286122</v>
       </c>
       <c r="U27" t="n">
-        <v>28.4027111034218</v>
+        <v>28.40271531576331</v>
       </c>
       <c r="V27" t="n">
         <v>298.9996153512935</v>
       </c>
       <c r="W27" t="n">
-        <v>0.6302981204811503</v>
+        <v>0.6302983014764879</v>
       </c>
       <c r="X27" t="n">
         <v>300</v>
@@ -2657,28 +2657,28 @@
         <v>293.2939718175722</v>
       </c>
       <c r="F28" t="n">
-        <v>-23.09168219581312</v>
+        <v>-23.09168215025494</v>
       </c>
       <c r="G28" t="n">
-        <v>-22.86769740813532</v>
+        <v>-22.86769733400464</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.2239847876778039</v>
+        <v>-0.2239848162503019</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5081624969854217</v>
+        <v>0.5081624951795579</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.05053953521979724</v>
+        <v>-0.05053953516059265</v>
       </c>
       <c r="K28" t="n">
-        <v>0.1155893575536531</v>
+        <v>0.1155893576079663</v>
       </c>
       <c r="L28" t="n">
-        <v>0.5417267918819423</v>
+        <v>0.5417267918480124</v>
       </c>
       <c r="M28" t="n">
-        <v>0.08669261623720541</v>
+        <v>0.08669261624654609</v>
       </c>
       <c r="N28" t="n">
         <v>36.6</v>
@@ -2702,13 +2702,13 @@
         <v>0.8533613029407852</v>
       </c>
       <c r="U28" t="n">
-        <v>23.09168219581312</v>
+        <v>23.09168215025494</v>
       </c>
       <c r="V28" t="n">
         <v>293.2939718175722</v>
       </c>
       <c r="W28" t="n">
-        <v>0.7069427216806101</v>
+        <v>0.7069427279546165</v>
       </c>
       <c r="X28" t="n">
         <v>300</v>
@@ -2737,28 +2737,28 @@
         <v>286.899631130323</v>
       </c>
       <c r="F29" t="n">
-        <v>-18.47344807986214</v>
+        <v>-18.47344807737023</v>
       </c>
       <c r="G29" t="n">
-        <v>-18.20520396847115</v>
+        <v>-18.20520396538731</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.2682441113909929</v>
+        <v>-0.2682441119829175</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4853222572726941</v>
+        <v>0.4853222569139533</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.05419809655752739</v>
+        <v>-0.05419809655533298</v>
       </c>
       <c r="K29" t="n">
-        <v>0.03100984662845073</v>
+        <v>0.03100984663151731</v>
       </c>
       <c r="L29" t="n">
-        <v>0.284766143436182</v>
+        <v>0.2847661434369303</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.0998203654680089</v>
+        <v>-0.09982036546829799</v>
       </c>
       <c r="N29" t="n">
         <v>48.16279069767442</v>
@@ -2782,13 +2782,13 @@
         <v>0.5621696834128613</v>
       </c>
       <c r="U29" t="n">
-        <v>18.47344807986214</v>
+        <v>18.47344807737023</v>
       </c>
       <c r="V29" t="n">
         <v>286.899631130323</v>
       </c>
       <c r="W29" t="n">
-        <v>0.6043444333932844</v>
+        <v>0.6043444330738864</v>
       </c>
       <c r="X29" t="n">
         <v>300</v>
@@ -2817,28 +2817,28 @@
         <v>296.0679455699948</v>
       </c>
       <c r="F30" t="n">
-        <v>-13.99640134390451</v>
+        <v>-13.99640138244352</v>
       </c>
       <c r="G30" t="n">
-        <v>-13.53538230868667</v>
+        <v>-13.53538236173275</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.4610190352178438</v>
+        <v>-0.4610190207107733</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7396908953252481</v>
+        <v>0.7396909072522543</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.04355263542881617</v>
+        <v>-0.0435526354729902</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.004874721140595564</v>
+        <v>-0.004874721188104963</v>
       </c>
       <c r="L30" t="n">
-        <v>0.2716815470204998</v>
+        <v>0.2716815470472401</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.2553837022222316</v>
+        <v>-0.2553837022153188</v>
       </c>
       <c r="N30" t="n">
         <v>46.68627450980392</v>
@@ -2862,13 +2862,13 @@
         <v>0.5154972514551087</v>
       </c>
       <c r="U30" t="n">
-        <v>13.99640134390451</v>
+        <v>13.99640138244352</v>
       </c>
       <c r="V30" t="n">
         <v>296.0679455699948</v>
       </c>
       <c r="W30" t="n">
-        <v>0.9069691145129969</v>
+        <v>0.9069691313701163</v>
       </c>
       <c r="X30" t="n">
         <v>300</v>
@@ -2897,28 +2897,28 @@
         <v>299.0674833084265</v>
       </c>
       <c r="F31" t="n">
-        <v>-8.969402763395184</v>
+        <v>-8.969402353088773</v>
       </c>
       <c r="G31" t="n">
-        <v>-8.412366981061535</v>
+        <v>-8.412366091911087</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.5570357823336496</v>
+        <v>-0.5570362611776851</v>
       </c>
       <c r="I31" t="n">
-        <v>1.327957878658198</v>
+        <v>1.327957761210422</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.02426535956660453</v>
+        <v>-0.02426535936399248</v>
       </c>
       <c r="K31" t="n">
-        <v>0.01361998889848706</v>
+        <v>0.01361998942753573</v>
       </c>
       <c r="L31" t="n">
-        <v>0.1875675635331435</v>
+        <v>0.1875675629964887</v>
       </c>
       <c r="M31" t="n">
-        <v>0.03133360193571327</v>
+        <v>0.03133360191788425</v>
       </c>
       <c r="N31" t="n">
         <v>40.98148148148148</v>
@@ -2942,13 +2942,13 @@
         <v>0.3539828807317915</v>
       </c>
       <c r="U31" t="n">
-        <v>8.969402763395184</v>
+        <v>8.969402353088773</v>
       </c>
       <c r="V31" t="n">
         <v>299.0674833084265</v>
       </c>
       <c r="W31" t="n">
-        <v>1.454443926604007</v>
+        <v>1.454443745061806</v>
       </c>
       <c r="X31" t="n">
         <v>300</v>
@@ -2977,28 +2977,28 @@
         <v>304.5940113473088</v>
       </c>
       <c r="F32" t="n">
-        <v>-5.191504768709333</v>
+        <v>-5.191504770488502</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.162115872956935</v>
+        <v>-4.162115875790267</v>
       </c>
       <c r="H32" t="n">
-        <v>-1.029388895752398</v>
+        <v>-1.029388894698235</v>
       </c>
       <c r="I32" t="n">
-        <v>1.885635929927523</v>
+        <v>1.885635930609782</v>
       </c>
       <c r="J32" t="n">
-        <v>0.01774490966570557</v>
+        <v>0.01774490966514733</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.03016782711919239</v>
+        <v>-0.0301678271209465</v>
       </c>
       <c r="L32" t="n">
-        <v>0.1773502490288794</v>
+        <v>0.1773502490314457</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.01705806397197985</v>
+        <v>-0.01705806397180189</v>
       </c>
       <c r="N32" t="n">
         <v>44.9622641509434</v>
@@ -3022,13 +3022,13 @@
         <v>0.1952380765860118</v>
       </c>
       <c r="U32" t="n">
-        <v>5.191504768709333</v>
+        <v>5.191504770488502</v>
       </c>
       <c r="V32" t="n">
         <v>304.5940113473088</v>
       </c>
       <c r="W32" t="n">
-        <v>2.027256803735556</v>
+        <v>2.027256804369272</v>
       </c>
       <c r="X32" t="n">
         <v>300</v>
@@ -3057,28 +3057,28 @@
         <v>305.8083465088318</v>
       </c>
       <c r="F33" t="n">
-        <v>1.216665028957058</v>
+        <v>1.216665085906644</v>
       </c>
       <c r="G33" t="n">
         <v>1.5</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.2833349710429423</v>
+        <v>-0.2833349140933562</v>
       </c>
       <c r="I33" t="n">
-        <v>1.945993434613854</v>
+        <v>1.94599343405894</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.0105276652770945</v>
+        <v>-0.01052766528302347</v>
       </c>
       <c r="K33" t="n">
-        <v>0.01417473814721063</v>
+        <v>0.01417473815079864</v>
       </c>
       <c r="L33" t="n">
-        <v>0.1399696692702508</v>
+        <v>0.13996966927128</v>
       </c>
       <c r="M33" t="n">
-        <v>0.08507693578464876</v>
+        <v>0.0850769357847407</v>
       </c>
       <c r="N33" t="n">
         <v>52.58461538461538</v>
@@ -3102,13 +3102,13 @@
         <v>0.1079635552875494</v>
       </c>
       <c r="U33" t="n">
-        <v>-1.216665028957058</v>
+        <v>-1.216665085906644</v>
       </c>
       <c r="V33" t="n">
         <v>305.8083465088318</v>
       </c>
       <c r="W33" t="n">
-        <v>2.57799472044338</v>
+        <v>2.57799472264154</v>
       </c>
       <c r="X33" t="n">
         <v>300</v>
@@ -3137,28 +3137,28 @@
         <v>302.5910329652459</v>
       </c>
       <c r="F34" t="n">
-        <v>6.244121355367938</v>
+        <v>6.244122084968032</v>
       </c>
       <c r="G34" t="n">
-        <v>6.8835898764683</v>
+        <v>6.883590572356014</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.6394685211003616</v>
+        <v>-0.6394684873879833</v>
       </c>
       <c r="I34" t="n">
-        <v>1.011898240152284</v>
+        <v>1.011898009589921</v>
       </c>
       <c r="J34" t="n">
-        <v>0.00940349951439245</v>
+        <v>0.009403499615233334</v>
       </c>
       <c r="K34" t="n">
-        <v>0.01256595290087479</v>
+        <v>0.01256595322700498</v>
       </c>
       <c r="L34" t="n">
-        <v>0.1207428176842393</v>
+        <v>0.1207428172991778</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.1228551001982988</v>
+        <v>-0.1228551001566772</v>
       </c>
       <c r="N34" t="n">
         <v>49.51162790697674</v>
@@ -3182,13 +3182,13 @@
         <v>0.1858153722866048</v>
       </c>
       <c r="U34" t="n">
-        <v>-6.244121355367938</v>
+        <v>-6.244122084968032</v>
       </c>
       <c r="V34" t="n">
         <v>302.5910329652459</v>
       </c>
       <c r="W34" t="n">
-        <v>1.211684412291339</v>
+        <v>1.211684147168886</v>
       </c>
       <c r="X34" t="n">
         <v>300</v>
@@ -3217,28 +3217,28 @@
         <v>292.5742904425684</v>
       </c>
       <c r="F35" t="n">
-        <v>11.21864921660144</v>
+        <v>11.21864772347263</v>
       </c>
       <c r="G35" t="n">
-        <v>12.29422759721204</v>
+        <v>12.29422626908773</v>
       </c>
       <c r="H35" t="n">
-        <v>-1.075578380610603</v>
+        <v>-1.075578545615097</v>
       </c>
       <c r="I35" t="n">
-        <v>1.148679663157202</v>
+        <v>1.148680123053969</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.0372547556451703</v>
+        <v>-0.03725475573564518</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.1034055981074914</v>
+        <v>-0.1034055989932866</v>
       </c>
       <c r="L35" t="n">
-        <v>0.3332399627551633</v>
+        <v>0.3332399634873163</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.1035427912385511</v>
+        <v>-0.1035427907452865</v>
       </c>
       <c r="N35" t="n">
         <v>50.41860465116279</v>
@@ -3262,13 +3262,13 @@
         <v>0.4059653456073719</v>
       </c>
       <c r="U35" t="n">
-        <v>-11.21864921660144</v>
+        <v>-11.21864772347263</v>
       </c>
       <c r="V35" t="n">
         <v>292.5742904425684</v>
       </c>
       <c r="W35" t="n">
-        <v>1.386658129280108</v>
+        <v>1.386658590545728</v>
       </c>
       <c r="X35" t="n">
         <v>300</v>
@@ -3297,28 +3297,28 @@
         <v>288.4255843386599</v>
       </c>
       <c r="F36" t="n">
-        <v>15.62955112359276</v>
+        <v>15.62955112142477</v>
       </c>
       <c r="G36" t="n">
-        <v>17.00709991497616</v>
+        <v>17.0070999131628</v>
       </c>
       <c r="H36" t="n">
-        <v>-1.377548791383406</v>
+        <v>-1.377548791738033</v>
       </c>
       <c r="I36" t="n">
-        <v>1.377548791383406</v>
+        <v>1.377548791738033</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.1025755827345291</v>
+        <v>-0.1025755827339256</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.1157248288907109</v>
+        <v>-0.1157248288920969</v>
       </c>
       <c r="L36" t="n">
-        <v>0.4500004869203212</v>
+        <v>0.4500004869207939</v>
       </c>
       <c r="M36" t="n">
-        <v>0.070767179875223</v>
+        <v>0.07076717987630356</v>
       </c>
       <c r="N36" t="n">
         <v>54.95348837209303</v>
@@ -3342,13 +3342,13 @@
         <v>0.4879366626607542</v>
       </c>
       <c r="U36" t="n">
-        <v>-15.62955112359276</v>
+        <v>-15.62955112142477</v>
       </c>
       <c r="V36" t="n">
         <v>288.4255843386599</v>
       </c>
       <c r="W36" t="n">
-        <v>1.624972962218431</v>
+        <v>1.624972962661623</v>
       </c>
       <c r="X36" t="n">
         <v>300</v>
@@ -3377,28 +3377,28 @@
         <v>293.151781139854</v>
       </c>
       <c r="F37" t="n">
-        <v>20.76684693742288</v>
+        <v>20.76684636565829</v>
       </c>
       <c r="G37" t="n">
-        <v>22.14348801756694</v>
+        <v>22.14348743371205</v>
       </c>
       <c r="H37" t="n">
-        <v>-1.376641080144061</v>
+        <v>-1.376641068053765</v>
       </c>
       <c r="I37" t="n">
-        <v>1.408813340182372</v>
+        <v>1.4088133653964</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.1203408985330198</v>
+        <v>-0.1203408982703159</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.07116604167224151</v>
+        <v>-0.07116604198698855</v>
       </c>
       <c r="L37" t="n">
-        <v>0.6137743580313074</v>
+        <v>0.6137743577862307</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.01246444336085525</v>
+        <v>-0.01246444304269285</v>
       </c>
       <c r="N37" t="n">
         <v>46.625</v>
@@ -3422,13 +3422,13 @@
         <v>0.6752261130395673</v>
       </c>
       <c r="U37" t="n">
-        <v>-20.76684693742288</v>
+        <v>-20.76684636565829</v>
       </c>
       <c r="V37" t="n">
         <v>293.151781139854</v>
       </c>
       <c r="W37" t="n">
-        <v>1.634192708805627</v>
+        <v>1.634192715905606</v>
       </c>
       <c r="X37" t="n">
         <v>300</v>
@@ -3457,28 +3457,28 @@
         <v>300.5650223176493</v>
       </c>
       <c r="F38" t="n">
-        <v>26.17143705271793</v>
+        <v>26.17143705538512</v>
       </c>
       <c r="G38" t="n">
-        <v>27.84518183297603</v>
+        <v>27.8451818358611</v>
       </c>
       <c r="H38" t="n">
-        <v>-1.673744780258102</v>
+        <v>-1.673744780475983</v>
       </c>
       <c r="I38" t="n">
-        <v>1.673744780258102</v>
+        <v>1.673744780475983</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.006769004259269865</v>
+        <v>-0.00676900426002865</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.1721295364551691</v>
+        <v>-0.1721295364536029</v>
       </c>
       <c r="L38" t="n">
-        <v>0.5138919054148975</v>
+        <v>0.5138919054152822</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.09438435415501752</v>
+        <v>-0.09438435415628546</v>
       </c>
       <c r="N38" t="n">
         <v>39.55263157894737</v>
@@ -3502,13 +3502,13 @@
         <v>0.7448168214579457</v>
       </c>
       <c r="U38" t="n">
-        <v>-26.17143705271793</v>
+        <v>-26.17143705538512</v>
       </c>
       <c r="V38" t="n">
         <v>300.5650223176493</v>
       </c>
       <c r="W38" t="n">
-        <v>1.851302961724282</v>
+        <v>1.851302961676727</v>
       </c>
       <c r="X38" t="n">
         <v>300</v>
@@ -3537,28 +3537,28 @@
         <v>300.5142412075955</v>
       </c>
       <c r="F39" t="n">
-        <v>30.8074019689025</v>
+        <v>30.80739757671461</v>
       </c>
       <c r="G39" t="n">
-        <v>32.63277172154561</v>
+        <v>32.63276711592759</v>
       </c>
       <c r="H39" t="n">
-        <v>-1.825369752643111</v>
+        <v>-1.825369539212984</v>
       </c>
       <c r="I39" t="n">
-        <v>1.825369752643111</v>
+        <v>1.825369539212984</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.01259156418950114</v>
+        <v>-0.01259156366462285</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.2134241735118776</v>
+        <v>-0.2134241765293635</v>
       </c>
       <c r="L39" t="n">
-        <v>0.5721731890192505</v>
+        <v>0.5721731894918082</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0006858726204309806</v>
+        <v>0.0006858752125173609</v>
       </c>
       <c r="N39" t="n">
         <v>40.38461538461539</v>
@@ -3582,13 +3582,13 @@
         <v>0.8060913291126601</v>
       </c>
       <c r="U39" t="n">
-        <v>-30.8074019689025</v>
+        <v>-30.80739757671461</v>
       </c>
       <c r="V39" t="n">
         <v>300.5142412075955</v>
       </c>
       <c r="W39" t="n">
-        <v>2.007911523191156</v>
+        <v>2.007911575524591</v>
       </c>
       <c r="X39" t="n">
         <v>300</v>
@@ -3617,28 +3617,28 @@
         <v>298.8507481288515</v>
       </c>
       <c r="F40" t="n">
-        <v>35.67442404085923</v>
+        <v>35.67443611143993</v>
       </c>
       <c r="G40" t="n">
-        <v>37.69291322976678</v>
+        <v>37.69292631788438</v>
       </c>
       <c r="H40" t="n">
-        <v>-2.018489188907552</v>
+        <v>-2.018490206444441</v>
       </c>
       <c r="I40" t="n">
-        <v>2.068600343417675</v>
+        <v>2.068599967543157</v>
       </c>
       <c r="J40" t="n">
-        <v>0.02680878099809791</v>
+        <v>0.02680878104650181</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.1869828008890128</v>
+        <v>-0.1869827923110941</v>
       </c>
       <c r="L40" t="n">
-        <v>0.6426056296365804</v>
+        <v>0.642605623654904</v>
       </c>
       <c r="M40" t="n">
-        <v>0.05652596971961629</v>
+        <v>0.05652596475757107</v>
       </c>
       <c r="N40" t="n">
         <v>40.80487804878049</v>
@@ -3662,13 +3662,13 @@
         <v>0.890230563603741</v>
       </c>
       <c r="U40" t="n">
-        <v>-35.67442404085923</v>
+        <v>-35.67443611143993</v>
       </c>
       <c r="V40" t="n">
         <v>298.8507481288515</v>
       </c>
       <c r="W40" t="n">
-        <v>2.321540661356444</v>
+        <v>2.321540044107597</v>
       </c>
       <c r="X40" t="n">
         <v>300</v>
@@ -3697,28 +3697,28 @@
         <v>291.3194430395552</v>
       </c>
       <c r="F41" t="n">
-        <v>40.85819165571962</v>
+        <v>40.85819165651382</v>
       </c>
       <c r="G41" t="n">
-        <v>42.43896634641209</v>
+        <v>42.43896634748509</v>
       </c>
       <c r="H41" t="n">
-        <v>-1.580774690692473</v>
+        <v>-1.580774690971275</v>
       </c>
       <c r="I41" t="n">
-        <v>1.678228511363407</v>
+        <v>1.678228511518115</v>
       </c>
       <c r="J41" t="n">
-        <v>0.03240314631986508</v>
+        <v>0.03240314632009027</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.1232018424076857</v>
+        <v>-0.1232018424074616</v>
       </c>
       <c r="L41" t="n">
-        <v>0.818262324715628</v>
+        <v>0.8182623247158572</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0212850832937034</v>
+        <v>0.02128508329347141</v>
       </c>
       <c r="N41" t="n">
         <v>40.92307692307692</v>
@@ -3742,13 +3742,13 @@
         <v>0.9555308409445102</v>
       </c>
       <c r="U41" t="n">
-        <v>-40.85819165571962</v>
+        <v>-40.85819165651382</v>
       </c>
       <c r="V41" t="n">
         <v>291.3194430395552</v>
       </c>
       <c r="W41" t="n">
-        <v>2.060396813346571</v>
+        <v>2.060396813529561</v>
       </c>
       <c r="X41" t="n">
         <v>300</v>
@@ -3777,28 +3777,28 @@
         <v>283.2742781834235</v>
       </c>
       <c r="F42" t="n">
-        <v>46.42743044895735</v>
+        <v>46.42742529099078</v>
       </c>
       <c r="G42" t="n">
-        <v>47.73906567743065</v>
+        <v>47.7390566550323</v>
       </c>
       <c r="H42" t="n">
-        <v>-1.311635228473311</v>
+        <v>-1.311631364041527</v>
       </c>
       <c r="I42" t="n">
-        <v>1.5285881845961</v>
+        <v>1.528585399377321</v>
       </c>
       <c r="J42" t="n">
-        <v>0.2635233766176294</v>
+        <v>0.2635233745380745</v>
       </c>
       <c r="K42" t="n">
-        <v>0.04227961009495346</v>
+        <v>0.04227960943206099</v>
       </c>
       <c r="L42" t="n">
-        <v>0.8758934496732764</v>
+        <v>0.8758934498468863</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.1172031709878869</v>
+        <v>-0.1172031791976511</v>
       </c>
       <c r="N42" t="n">
         <v>42.75</v>
@@ -3822,13 +3822,13 @@
         <v>1.126876633827281</v>
       </c>
       <c r="U42" t="n">
-        <v>-46.42743044895735</v>
+        <v>-46.42742529099078</v>
       </c>
       <c r="V42" t="n">
         <v>283.2742781834235</v>
       </c>
       <c r="W42" t="n">
-        <v>1.718555041509171</v>
+        <v>1.718553710173044</v>
       </c>
       <c r="X42" t="n">
         <v>300</v>
@@ -3857,28 +3857,28 @@
         <v>282.9246741793632</v>
       </c>
       <c r="F43" t="n">
-        <v>51.75890312305764</v>
+        <v>51.75890313037363</v>
       </c>
       <c r="G43" t="n">
-        <v>53.27214946097494</v>
+        <v>53.27214947375982</v>
       </c>
       <c r="H43" t="n">
-        <v>-1.513246337917301</v>
+        <v>-1.513246343386184</v>
       </c>
       <c r="I43" t="n">
-        <v>1.529046441561518</v>
+        <v>1.529046443911636</v>
       </c>
       <c r="J43" t="n">
-        <v>0.2646636185068563</v>
+        <v>0.2646636185085829</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.03026098602758148</v>
+        <v>-0.03026098602719313</v>
       </c>
       <c r="L43" t="n">
-        <v>0.815269002409836</v>
+        <v>0.8152690024079724</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.004057519864899643</v>
+        <v>-0.004057519855510412</v>
       </c>
       <c r="N43" t="n">
         <v>42.75</v>
@@ -3902,13 +3902,13 @@
         <v>0.9499968716010971</v>
       </c>
       <c r="U43" t="n">
-        <v>-51.75890312305764</v>
+        <v>-51.75890313037363</v>
       </c>
       <c r="V43" t="n">
         <v>282.9246741793632</v>
       </c>
       <c r="W43" t="n">
-        <v>1.773384787282833</v>
+        <v>1.773384790123157</v>
       </c>
       <c r="X43" t="n">
         <v>300</v>
@@ -3937,28 +3937,28 @@
         <v>425.4673813586569</v>
       </c>
       <c r="F44" t="n">
-        <v>-46.71182596641729</v>
+        <v>-46.71182596733601</v>
       </c>
       <c r="G44" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="H44" t="n">
-        <v>1.096457317979907</v>
+        <v>1.096457314475857</v>
       </c>
       <c r="I44" t="n">
-        <v>1.248829816267737</v>
+        <v>1.248829813599092</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.4684857132567529</v>
+        <v>-0.4684857132573313</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.427834021760524</v>
+        <v>-0.4278340217613668</v>
       </c>
       <c r="L44" t="n">
-        <v>0.8942129542076234</v>
+        <v>0.8942129542085644</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.1008079526939291</v>
+        <v>-0.1008079527003786</v>
       </c>
       <c r="N44" t="n">
         <v>25</v>
@@ -3982,13 +3982,13 @@
         <v>1.062809356236053</v>
       </c>
       <c r="U44" t="n">
-        <v>46.71182596641729</v>
+        <v>46.71182596733601</v>
       </c>
       <c r="V44" t="n">
         <v>425.4673813586569</v>
       </c>
       <c r="W44" t="n">
-        <v>1.341993120192763</v>
+        <v>1.341993117403197</v>
       </c>
       <c r="X44" t="n">
         <v>450</v>
@@ -4017,28 +4017,28 @@
         <v>436.7319302564247</v>
       </c>
       <c r="F45" t="n">
-        <v>-42.04142554792701</v>
+        <v>-42.04142548110698</v>
       </c>
       <c r="G45" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="H45" t="n">
-        <v>1.104932555568193</v>
+        <v>1.10493288739631</v>
       </c>
       <c r="I45" t="n">
-        <v>1.157612476119059</v>
+        <v>1.157612663365856</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.4159669208986391</v>
+        <v>-0.4159669206973374</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.4832216403865486</v>
+        <v>-0.4832216401867194</v>
       </c>
       <c r="L45" t="n">
-        <v>1.0192012711284</v>
+        <v>1.019201270924689</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.1818891111556597</v>
+        <v>-0.1818891105045095</v>
       </c>
       <c r="N45" t="n">
         <v>26.53846153846154</v>
@@ -4062,13 +4062,13 @@
         <v>1.078482727710276</v>
       </c>
       <c r="U45" t="n">
-        <v>42.04142554792701</v>
+        <v>42.04142548110698</v>
       </c>
       <c r="V45" t="n">
         <v>436.7319302564247</v>
       </c>
       <c r="W45" t="n">
-        <v>1.447289074981073</v>
+        <v>1.447289288059576</v>
       </c>
       <c r="X45" t="n">
         <v>450</v>
@@ -4097,28 +4097,28 @@
         <v>435.6694188349148</v>
       </c>
       <c r="F46" t="n">
-        <v>-36.71927935785021</v>
+        <v>-36.71927929903789</v>
       </c>
       <c r="G46" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9659107366247639</v>
+        <v>0.9659111147314764</v>
       </c>
       <c r="I46" t="n">
-        <v>1.067735381094518</v>
+        <v>1.067735632944946</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.3305207870553795</v>
+        <v>-0.3305207867967587</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.139263750705296</v>
+        <v>-0.1392637505212935</v>
       </c>
       <c r="L46" t="n">
-        <v>0.7337444453504993</v>
+        <v>0.7337444452421621</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.2220435110180713</v>
+        <v>-0.222043510590384</v>
       </c>
       <c r="N46" t="n">
         <v>26.89473684210526</v>
@@ -4142,13 +4142,13 @@
         <v>0.9121166217149517</v>
       </c>
       <c r="U46" t="n">
-        <v>36.71927935785021</v>
+        <v>36.71927929903789</v>
       </c>
       <c r="V46" t="n">
         <v>435.6694188349148</v>
       </c>
       <c r="W46" t="n">
-        <v>1.217059061727251</v>
+        <v>1.217059365391169</v>
       </c>
       <c r="X46" t="n">
         <v>450</v>
@@ -4177,28 +4177,28 @@
         <v>426.6979702528266</v>
       </c>
       <c r="F47" t="n">
-        <v>-31.73428750420794</v>
+        <v>-31.73428647116315</v>
       </c>
       <c r="G47" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="H47" t="n">
-        <v>1.24959282816218</v>
+        <v>1.249596048489106</v>
       </c>
       <c r="I47" t="n">
-        <v>1.382601454006167</v>
+        <v>1.382603422358307</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.1952618523310178</v>
+        <v>-0.1952618484353418</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.04544997893597839</v>
+        <v>-0.04544997618543443</v>
       </c>
       <c r="L47" t="n">
-        <v>0.477920276055546</v>
+        <v>0.4779202753744294</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.2241267959744529</v>
+        <v>-0.2241267944342577</v>
       </c>
       <c r="N47" t="n">
         <v>16.67741935483871</v>
@@ -4222,13 +4222,13 @@
         <v>0.874379786178241</v>
       </c>
       <c r="U47" t="n">
-        <v>31.73428750420794</v>
+        <v>31.73428647116315</v>
       </c>
       <c r="V47" t="n">
         <v>426.6979702528266</v>
       </c>
       <c r="W47" t="n">
-        <v>1.65906804246129</v>
+        <v>1.659070882116042</v>
       </c>
       <c r="X47" t="n">
         <v>450</v>
@@ -4257,28 +4257,28 @@
         <v>423.3185784806726</v>
       </c>
       <c r="F48" t="n">
-        <v>-27.59858995853943</v>
+        <v>-27.59858793864442</v>
       </c>
       <c r="G48" t="n">
-        <v>-28.40995576474833</v>
+        <v>-28.40996244040846</v>
       </c>
       <c r="H48" t="n">
-        <v>0.8113658062088959</v>
+        <v>0.8113745017640365</v>
       </c>
       <c r="I48" t="n">
-        <v>1.246089856292062</v>
+        <v>1.246095167932475</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.02725518447532711</v>
+        <v>-0.02725517471345694</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.09772034005146614</v>
+        <v>-0.09772033134910497</v>
       </c>
       <c r="L48" t="n">
-        <v>0.3924589334005473</v>
+        <v>0.3924589309387458</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.1187576272753962</v>
+        <v>-0.1187576251603941</v>
       </c>
       <c r="N48" t="n">
         <v>19.09090909090909</v>
@@ -4302,13 +4302,13 @@
         <v>0.7341641232651233</v>
       </c>
       <c r="U48" t="n">
-        <v>27.59858995853943</v>
+        <v>27.59858793864442</v>
       </c>
       <c r="V48" t="n">
         <v>423.3185784806726</v>
       </c>
       <c r="W48" t="n">
-        <v>1.380012722246494</v>
+        <v>1.380020546640772</v>
       </c>
       <c r="X48" t="n">
         <v>450</v>
@@ -4337,28 +4337,28 @@
         <v>428.5519140018058</v>
       </c>
       <c r="F49" t="n">
-        <v>-21.86662005176779</v>
+        <v>-21.86662009685877</v>
       </c>
       <c r="G49" t="n">
-        <v>-22.86769740813532</v>
+        <v>-22.86769733400464</v>
       </c>
       <c r="H49" t="n">
-        <v>1.001077356367526</v>
+        <v>1.001077237145867</v>
       </c>
       <c r="I49" t="n">
-        <v>1.256003276253683</v>
+        <v>1.256003169438429</v>
       </c>
       <c r="J49" t="n">
-        <v>0.02746575256461753</v>
+        <v>0.02746575242191847</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.1943724325414673</v>
+        <v>-0.1943724326719824</v>
       </c>
       <c r="L49" t="n">
-        <v>0.3171403519734515</v>
+        <v>0.3171403520188646</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.1915471297141937</v>
+        <v>-0.1915471297427709</v>
       </c>
       <c r="N49" t="n">
         <v>10.07142857142857</v>
@@ -4382,13 +4382,13 @@
         <v>0.6854453683968474</v>
       </c>
       <c r="U49" t="n">
-        <v>21.86662005176779</v>
+        <v>21.86662009685877</v>
       </c>
       <c r="V49" t="n">
         <v>428.5519140018058</v>
       </c>
       <c r="W49" t="n">
-        <v>1.354385886408872</v>
+        <v>1.354385783044411</v>
       </c>
       <c r="X49" t="n">
         <v>450</v>
@@ -4417,28 +4417,28 @@
         <v>431.0442230750782</v>
       </c>
       <c r="F50" t="n">
-        <v>-17.47226627930023</v>
+        <v>-17.47226628103693</v>
       </c>
       <c r="G50" t="n">
-        <v>-18.20520396847115</v>
+        <v>-18.20520396538731</v>
       </c>
       <c r="H50" t="n">
-        <v>0.7329376891709144</v>
+        <v>0.7329376843503743</v>
       </c>
       <c r="I50" t="n">
-        <v>1.412176246411735</v>
+        <v>1.412176242284582</v>
       </c>
       <c r="J50" t="n">
-        <v>0.1025949515533168</v>
+        <v>0.1025949515477177</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.0476936051725111</v>
+        <v>-0.04769360518030018</v>
       </c>
       <c r="L50" t="n">
-        <v>0.1853102894638885</v>
+        <v>0.1853102894630888</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.07528087248206476</v>
+        <v>-0.07528087248144669</v>
       </c>
       <c r="N50" t="n">
         <v>8.142857142857142</v>
@@ -4462,13 +4462,13 @@
         <v>0.7236102933341998</v>
       </c>
       <c r="U50" t="n">
-        <v>17.47226627930023</v>
+        <v>17.47226628103693</v>
       </c>
       <c r="V50" t="n">
         <v>431.0442230750782</v>
       </c>
       <c r="W50" t="n">
-        <v>1.54526778785813</v>
+        <v>1.545267784374687</v>
       </c>
       <c r="X50" t="n">
         <v>450</v>
@@ -4497,28 +4497,28 @@
         <v>429.8366871646406</v>
       </c>
       <c r="F51" t="n">
-        <v>-13.33062918106781</v>
+        <v>-13.33062916249337</v>
       </c>
       <c r="G51" t="n">
-        <v>-13.53538230868667</v>
+        <v>-13.53538236173275</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2047531276188564</v>
+        <v>0.2047531992393763</v>
       </c>
       <c r="I51" t="n">
-        <v>1.545775996515956</v>
+        <v>1.545776048196157</v>
       </c>
       <c r="J51" t="n">
-        <v>0.07912504931330512</v>
+        <v>0.07912504942392952</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.003120892608134427</v>
+        <v>-0.00312089248842517</v>
       </c>
       <c r="L51" t="n">
-        <v>0.2295668597197065</v>
+        <v>0.2295668597852488</v>
       </c>
       <c r="M51" t="n">
-        <v>0.2637465518177619</v>
+        <v>0.2637465518065565</v>
       </c>
       <c r="N51" t="n">
         <v>15.58064516129032</v>
@@ -4542,13 +4542,13 @@
         <v>0.6631718486556212</v>
       </c>
       <c r="U51" t="n">
-        <v>13.33062918106781</v>
+        <v>13.33062916249337</v>
       </c>
       <c r="V51" t="n">
         <v>429.8366871646406</v>
       </c>
       <c r="W51" t="n">
-        <v>1.822478952462323</v>
+        <v>1.822478992082531</v>
       </c>
       <c r="X51" t="n">
         <v>450</v>
@@ -4577,28 +4577,28 @@
         <v>424.9920689772871</v>
       </c>
       <c r="F52" t="n">
-        <v>-8.109556580952754</v>
+        <v>-8.109556675843027</v>
       </c>
       <c r="G52" t="n">
-        <v>-8.412366981061535</v>
+        <v>-8.412366091911087</v>
       </c>
       <c r="H52" t="n">
-        <v>0.3028104001087808</v>
+        <v>0.3028094160680586</v>
       </c>
       <c r="I52" t="n">
-        <v>1.497788752454372</v>
+        <v>1.497787985272588</v>
       </c>
       <c r="J52" t="n">
-        <v>0.07617201362886189</v>
+        <v>0.07617201293758159</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.06094009562633016</v>
+        <v>-0.06094009747292992</v>
       </c>
       <c r="L52" t="n">
-        <v>0.2303954848420873</v>
+        <v>0.2303954843359094</v>
       </c>
       <c r="M52" t="n">
-        <v>-0.0832595397406764</v>
+        <v>-0.08325953972465884</v>
       </c>
       <c r="N52" t="n">
         <v>22.89189189189189</v>
@@ -4622,13 +4622,13 @@
         <v>0.4711637795276907</v>
       </c>
       <c r="U52" t="n">
-        <v>8.109556580952754</v>
+        <v>8.109556675843027</v>
       </c>
       <c r="V52" t="n">
         <v>424.9920689772871</v>
       </c>
       <c r="W52" t="n">
-        <v>1.835900256762144</v>
+        <v>1.83589963861881</v>
       </c>
       <c r="X52" t="n">
         <v>450</v>
@@ -4657,28 +4657,28 @@
         <v>428.9069349043956</v>
       </c>
       <c r="F53" t="n">
-        <v>-4.568329875859291</v>
+        <v>-4.568329875832336</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.162115872956935</v>
+        <v>-4.162115875790267</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.4062140029023567</v>
+        <v>-0.4062140000420686</v>
       </c>
       <c r="I53" t="n">
-        <v>1.762957928023881</v>
+        <v>1.762957929434973</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.0003185592240692688</v>
+        <v>-0.0003185592218768779</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.02308671160001404</v>
+        <v>-0.02308671159320925</v>
       </c>
       <c r="L53" t="n">
-        <v>0.1346373189750389</v>
+        <v>0.1346373189808555</v>
       </c>
       <c r="M53" t="n">
-        <v>0.05559047379788205</v>
+        <v>0.05559047379805931</v>
       </c>
       <c r="N53" t="n">
         <v>29.10344827586207</v>
@@ -4702,13 +4702,13 @@
         <v>0.1790688563178857</v>
       </c>
       <c r="U53" t="n">
-        <v>4.568329875859291</v>
+        <v>4.568329875832336</v>
       </c>
       <c r="V53" t="n">
         <v>428.9069349043956</v>
       </c>
       <c r="W53" t="n">
-        <v>2.103017633060728</v>
+        <v>2.103017634440048</v>
       </c>
       <c r="X53" t="n">
         <v>450</v>
@@ -4737,28 +4737,28 @@
         <v>423.013432541512</v>
       </c>
       <c r="F54" t="n">
-        <v>1.109545569563955</v>
+        <v>1.109545581040272</v>
       </c>
       <c r="G54" t="n">
         <v>1.5</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.3904544304360448</v>
+        <v>-0.3904544189597278</v>
       </c>
       <c r="I54" t="n">
-        <v>1.146419243552089</v>
+        <v>1.146419200444513</v>
       </c>
       <c r="J54" t="n">
-        <v>0.03643427661682427</v>
+        <v>0.03643427662816865</v>
       </c>
       <c r="K54" t="n">
-        <v>0.03406165797054159</v>
+        <v>0.03406165796088476</v>
       </c>
       <c r="L54" t="n">
-        <v>0.06412844091965639</v>
+        <v>0.06412844092251009</v>
       </c>
       <c r="M54" t="n">
-        <v>0.1737096160655759</v>
+        <v>0.1737096160770365</v>
       </c>
       <c r="N54" t="n">
         <v>33.21052631578947</v>
@@ -4782,13 +4782,13 @@
         <v>0.01636167252868453</v>
       </c>
       <c r="U54" t="n">
-        <v>-1.109545569563955</v>
+        <v>-1.109545581040272</v>
       </c>
       <c r="V54" t="n">
         <v>423.013432541512</v>
       </c>
       <c r="W54" t="n">
-        <v>1.722959067854949</v>
+        <v>1.722959047049582</v>
       </c>
       <c r="X54" t="n">
         <v>450</v>
@@ -4817,28 +4817,28 @@
         <v>416.1186711150101</v>
       </c>
       <c r="F55" t="n">
-        <v>5.719669689625297</v>
+        <v>5.719669846722226</v>
       </c>
       <c r="G55" t="n">
-        <v>6.8835898764683</v>
+        <v>6.883590572356015</v>
       </c>
       <c r="H55" t="n">
-        <v>-1.163920186843004</v>
+        <v>-1.163920725633789</v>
       </c>
       <c r="I55" t="n">
-        <v>1.396900595342712</v>
+        <v>1.396900956342704</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.02007374577745804</v>
+        <v>-0.02007374590961357</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.04184912933171812</v>
+        <v>-0.04184912980201981</v>
       </c>
       <c r="L55" t="n">
-        <v>0.301981456904138</v>
+        <v>0.3019814565565371</v>
       </c>
       <c r="M55" t="n">
-        <v>0.7443054074316191</v>
+        <v>0.7443054073167878</v>
       </c>
       <c r="N55" t="n">
         <v>37.52631578947368</v>
@@ -4862,13 +4862,13 @@
         <v>0.3640521692056488</v>
       </c>
       <c r="U55" t="n">
-        <v>-5.719669689625297</v>
+        <v>-5.719669846722226</v>
       </c>
       <c r="V55" t="n">
         <v>416.1186711150101</v>
       </c>
       <c r="W55" t="n">
-        <v>1.626946858741863</v>
+        <v>1.6269471406949</v>
       </c>
       <c r="X55" t="n">
         <v>450</v>
@@ -4897,28 +4897,28 @@
         <v>424.3056693254602</v>
       </c>
       <c r="F56" t="n">
-        <v>10.5815988983367</v>
+        <v>10.58159843576211</v>
       </c>
       <c r="G56" t="n">
-        <v>12.29422759721204</v>
+        <v>12.29422626908773</v>
       </c>
       <c r="H56" t="n">
-        <v>-1.712628698875336</v>
+        <v>-1.712627833325617</v>
       </c>
       <c r="I56" t="n">
-        <v>1.71800433934773</v>
+        <v>1.718003467920789</v>
       </c>
       <c r="J56" t="n">
-        <v>0.07618988120154814</v>
+        <v>0.07618988117093002</v>
       </c>
       <c r="K56" t="n">
-        <v>0.07199644117892426</v>
+        <v>0.07199644231871047</v>
       </c>
       <c r="L56" t="n">
-        <v>0.3774173373098981</v>
+        <v>0.3774173373593578</v>
       </c>
       <c r="M56" t="n">
-        <v>0.9193726067172323</v>
+        <v>0.91937260616554</v>
       </c>
       <c r="N56" t="n">
         <v>38.14705882352941</v>
@@ -4942,13 +4942,13 @@
         <v>0.4935211730707499</v>
       </c>
       <c r="U56" t="n">
-        <v>-10.5815988983367</v>
+        <v>-10.58159843576211</v>
       </c>
       <c r="V56" t="n">
         <v>424.3056693254602</v>
       </c>
       <c r="W56" t="n">
-        <v>2.090565525325759</v>
+        <v>2.090564918014967</v>
       </c>
       <c r="X56" t="n">
         <v>450</v>
@@ -4977,28 +4977,28 @@
         <v>431.0222867304202</v>
       </c>
       <c r="F57" t="n">
-        <v>15.17939507842338</v>
+        <v>15.17939507831548</v>
       </c>
       <c r="G57" t="n">
-        <v>17.00709991497616</v>
+        <v>17.0070999131628</v>
       </c>
       <c r="H57" t="n">
-        <v>-1.827704836552788</v>
+        <v>-1.827704834847321</v>
       </c>
       <c r="I57" t="n">
-        <v>1.827704836552788</v>
+        <v>1.827704834847321</v>
       </c>
       <c r="J57" t="n">
-        <v>0.1430075981964884</v>
+        <v>0.1430075981955725</v>
       </c>
       <c r="K57" t="n">
-        <v>0.07949760294424124</v>
+        <v>0.07949760294578245</v>
       </c>
       <c r="L57" t="n">
-        <v>0.4577637529574113</v>
+        <v>0.4577637529567221</v>
       </c>
       <c r="M57" t="n">
-        <v>0.6798383415098787</v>
+        <v>0.6798383415087242</v>
       </c>
       <c r="N57" t="n">
         <v>30.07142857142857</v>
@@ -5022,13 +5022,13 @@
         <v>0.5963292192692107</v>
       </c>
       <c r="U57" t="n">
-        <v>-15.17939507842338</v>
+        <v>-15.17939507831548</v>
       </c>
       <c r="V57" t="n">
         <v>431.0222867304202</v>
       </c>
       <c r="W57" t="n">
-        <v>2.11985775438232</v>
+        <v>2.119857753077547</v>
       </c>
       <c r="X57" t="n">
         <v>450</v>
@@ -5057,28 +5057,28 @@
         <v>429.0104683972545</v>
       </c>
       <c r="F58" t="n">
-        <v>20.03084269359098</v>
+        <v>20.03084270968973</v>
       </c>
       <c r="G58" t="n">
-        <v>22.14348801756694</v>
+        <v>22.14348743371205</v>
       </c>
       <c r="H58" t="n">
-        <v>-2.11264532397596</v>
+        <v>-2.112644724022322</v>
       </c>
       <c r="I58" t="n">
-        <v>2.11264532397596</v>
+        <v>2.112644724022322</v>
       </c>
       <c r="J58" t="n">
-        <v>0.1592201524297876</v>
+        <v>0.1592201518632313</v>
       </c>
       <c r="K58" t="n">
-        <v>0.02943905653300658</v>
+        <v>0.02943905692612044</v>
       </c>
       <c r="L58" t="n">
-        <v>0.5369772035223188</v>
+        <v>0.5369772032385455</v>
       </c>
       <c r="M58" t="n">
-        <v>0.7032087690723098</v>
+        <v>0.7032087687438315</v>
       </c>
       <c r="N58" t="n">
         <v>25.07142857142857</v>
@@ -5102,13 +5102,13 @@
         <v>0.6990048813560605</v>
       </c>
       <c r="U58" t="n">
-        <v>-20.03084269359098</v>
+        <v>-20.03084270968973</v>
       </c>
       <c r="V58" t="n">
         <v>429.0104683972545</v>
       </c>
       <c r="W58" t="n">
-        <v>2.368117226636779</v>
+        <v>2.368116730788848</v>
       </c>
       <c r="X58" t="n">
         <v>450</v>
@@ -5137,28 +5137,28 @@
         <v>429.1363319995205</v>
       </c>
       <c r="F59" t="n">
-        <v>25.50704718363741</v>
+        <v>25.50704718353897</v>
       </c>
       <c r="G59" t="n">
-        <v>27.84518183297603</v>
+        <v>27.8451818358611</v>
       </c>
       <c r="H59" t="n">
-        <v>-2.338134649338623</v>
+        <v>-2.338134652322141</v>
       </c>
       <c r="I59" t="n">
-        <v>2.338134649338623</v>
+        <v>2.338134652322141</v>
       </c>
       <c r="J59" t="n">
-        <v>0.05262058791334569</v>
+        <v>0.05262058791546621</v>
       </c>
       <c r="K59" t="n">
-        <v>0.124310437011511</v>
+        <v>0.1243104370099218</v>
       </c>
       <c r="L59" t="n">
-        <v>0.6007933180458508</v>
+        <v>0.6007933180465571</v>
       </c>
       <c r="M59" t="n">
-        <v>0.7331832641528168</v>
+        <v>0.7331832641541667</v>
       </c>
       <c r="N59" t="n">
         <v>25.60975609756098</v>
@@ -5182,13 +5182,13 @@
         <v>0.7608625317289923</v>
       </c>
       <c r="U59" t="n">
-        <v>-25.50704718363741</v>
+        <v>-25.50704718353897</v>
       </c>
       <c r="V59" t="n">
         <v>429.1363319995205</v>
       </c>
       <c r="W59" t="n">
-        <v>2.565948128102043</v>
+        <v>2.565948130789169</v>
       </c>
       <c r="X59" t="n">
         <v>450</v>
@@ -5217,28 +5217,28 @@
         <v>422.0555690606146</v>
       </c>
       <c r="F60" t="n">
-        <v>30.26092685644637</v>
+        <v>30.26092662284131</v>
       </c>
       <c r="G60" t="n">
-        <v>32.63277172154561</v>
+        <v>32.63276711592759</v>
       </c>
       <c r="H60" t="n">
-        <v>-2.371844865099239</v>
+        <v>-2.371840493086283</v>
       </c>
       <c r="I60" t="n">
-        <v>2.371844865099239</v>
+        <v>2.371840493086283</v>
       </c>
       <c r="J60" t="n">
-        <v>0.1087026576158127</v>
+        <v>0.1087026548595756</v>
       </c>
       <c r="K60" t="n">
-        <v>0.1818315160777141</v>
+        <v>0.1818315196470272</v>
       </c>
       <c r="L60" t="n">
-        <v>0.624329525773248</v>
+        <v>0.6243295251908459</v>
       </c>
       <c r="M60" t="n">
-        <v>0.8570930720208785</v>
+        <v>0.8570930684241632</v>
       </c>
       <c r="N60" t="n">
         <v>28.21621621621622</v>
@@ -5262,13 +5262,13 @@
         <v>0.8319635505050335</v>
       </c>
       <c r="U60" t="n">
-        <v>-30.26092685644637</v>
+        <v>-30.26092662284131</v>
       </c>
       <c r="V60" t="n">
         <v>422.0555690606146</v>
       </c>
       <c r="W60" t="n">
-        <v>2.607670148689514</v>
+        <v>2.607666514776136</v>
       </c>
       <c r="X60" t="n">
         <v>450</v>
@@ -5297,28 +5297,28 @@
         <v>424.536129228526</v>
       </c>
       <c r="F61" t="n">
-        <v>35.13971699982241</v>
+        <v>35.13971900206214</v>
       </c>
       <c r="G61" t="n">
-        <v>37.69291322976678</v>
+        <v>37.69292631788438</v>
       </c>
       <c r="H61" t="n">
-        <v>-2.553196229944372</v>
+        <v>-2.553207315822234</v>
       </c>
       <c r="I61" t="n">
-        <v>2.553196229944372</v>
+        <v>2.553207315822234</v>
       </c>
       <c r="J61" t="n">
-        <v>0.08281773360300734</v>
+        <v>0.08281774044072444</v>
       </c>
       <c r="K61" t="n">
-        <v>0.2064429036268482</v>
+        <v>0.2064428899601688</v>
       </c>
       <c r="L61" t="n">
-        <v>0.6985030040945135</v>
+        <v>0.6985030024718426</v>
       </c>
       <c r="M61" t="n">
-        <v>0.979485474273432</v>
+        <v>0.9794854842785669</v>
       </c>
       <c r="N61" t="n">
         <v>30.80645161290322</v>
@@ -5342,13 +5342,13 @@
         <v>0.917458540727883</v>
       </c>
       <c r="U61" t="n">
-        <v>-35.13971699982241</v>
+        <v>-35.13971900206214</v>
       </c>
       <c r="V61" t="n">
         <v>424.536129228526</v>
       </c>
       <c r="W61" t="n">
-        <v>2.828755226551718</v>
+        <v>2.828765124485748</v>
       </c>
       <c r="X61" t="n">
         <v>450</v>
@@ -5377,28 +5377,28 @@
         <v>421.641033102234</v>
       </c>
       <c r="F62" t="n">
-        <v>40.44196252274597</v>
+        <v>40.4419625232196</v>
       </c>
       <c r="G62" t="n">
-        <v>42.43896634641209</v>
+        <v>42.43896634748509</v>
       </c>
       <c r="H62" t="n">
-        <v>-1.997003823666118</v>
+        <v>-1.997003824265494</v>
       </c>
       <c r="I62" t="n">
-        <v>1.997003823666118</v>
+        <v>1.997003824265494</v>
       </c>
       <c r="J62" t="n">
-        <v>-0.08282658083652583</v>
+        <v>-0.08282658083637662</v>
       </c>
       <c r="K62" t="n">
-        <v>0.2935439447858021</v>
+        <v>0.2935439447849548</v>
       </c>
       <c r="L62" t="n">
-        <v>0.5656570774397328</v>
+        <v>0.5656570774403775</v>
       </c>
       <c r="M62" t="n">
-        <v>0.9987026886178998</v>
+        <v>0.9987026886184291</v>
       </c>
       <c r="N62" t="n">
         <v>50.0625</v>
@@ -5422,13 +5422,13 @@
         <v>0.6247133647846418</v>
       </c>
       <c r="U62" t="n">
-        <v>-40.44196252274597</v>
+        <v>-40.4419625232196</v>
       </c>
       <c r="V62" t="n">
         <v>421.641033102234</v>
       </c>
       <c r="W62" t="n">
-        <v>2.263990746301447</v>
+        <v>2.263990747046557</v>
       </c>
       <c r="X62" t="n">
         <v>450</v>
@@ -5457,28 +5457,28 @@
         <v>421.3761405371865</v>
       </c>
       <c r="F63" t="n">
-        <v>45.70195472671612</v>
+        <v>45.70195050828853</v>
       </c>
       <c r="G63" t="n">
-        <v>47.73906567743065</v>
+        <v>47.7390566550323</v>
       </c>
       <c r="H63" t="n">
-        <v>-2.037110950714542</v>
+        <v>-2.037106146743769</v>
       </c>
       <c r="I63" t="n">
-        <v>2.037110950714542</v>
+        <v>2.037106146743769</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.1852625667631197</v>
+        <v>-0.1852625681416389</v>
       </c>
       <c r="K63" t="n">
-        <v>0.1382181458046801</v>
+        <v>0.138218146545258</v>
       </c>
       <c r="L63" t="n">
-        <v>0.5678718476429616</v>
+        <v>0.5678718441604598</v>
       </c>
       <c r="M63" t="n">
-        <v>0.76662676521423</v>
+        <v>0.7666267672625187</v>
       </c>
       <c r="N63" t="n">
         <v>53.2</v>
@@ -5502,13 +5502,13 @@
         <v>0.6840544005647431</v>
       </c>
       <c r="U63" t="n">
-        <v>-45.70195472671612</v>
+        <v>-45.70195050828853</v>
       </c>
       <c r="V63" t="n">
         <v>421.3761405371865</v>
       </c>
       <c r="W63" t="n">
-        <v>2.16456620203529</v>
+        <v>2.164559555767604</v>
       </c>
       <c r="X63" t="n">
         <v>450</v>
@@ -5537,28 +5537,28 @@
         <v>411.7383644539836</v>
       </c>
       <c r="F64" t="n">
-        <v>51.09987773250899</v>
+        <v>51.09987773702825</v>
       </c>
       <c r="G64" t="n">
-        <v>53.27214946097494</v>
+        <v>53.27214947375982</v>
       </c>
       <c r="H64" t="n">
-        <v>-2.172271728465946</v>
+        <v>-2.172271736731564</v>
       </c>
       <c r="I64" t="n">
-        <v>2.172271728465946</v>
+        <v>2.172271736731564</v>
       </c>
       <c r="J64" t="n">
-        <v>-0.262563948406445</v>
+        <v>-0.2625639484048993</v>
       </c>
       <c r="K64" t="n">
-        <v>0.06481283704062527</v>
+        <v>0.06481283703783337</v>
       </c>
       <c r="L64" t="n">
-        <v>0.4807467850362698</v>
+        <v>0.4807467850375842</v>
       </c>
       <c r="M64" t="n">
-        <v>0.7699405442631266</v>
+        <v>0.7699405442549107</v>
       </c>
       <c r="N64" t="n">
         <v>47.38461538461539</v>
@@ -5582,13 +5582,13 @@
         <v>0.5751004085332838</v>
       </c>
       <c r="U64" t="n">
-        <v>-51.09987773250899</v>
+        <v>-51.09987773702825</v>
       </c>
       <c r="V64" t="n">
         <v>411.7383644539836</v>
       </c>
       <c r="W64" t="n">
-        <v>2.34872080244223</v>
+        <v>2.348720811587205</v>
       </c>
       <c r="X64" t="n">
         <v>450</v>
